--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3721" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="1352">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -4424,7 +4424,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4619,6 +4619,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4626,498 +4629,6 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="116">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -6297,6 +5808,498 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -7673,16 +7676,16 @@
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="API NAME " dataDxfId="26"/>
-    <tableColumn id="3" name="DATE" dataDxfId="25"/>
-    <tableColumn id="4" name="VERSION #" dataDxfId="24"/>
-    <tableColumn id="5" name="API #" dataDxfId="23"/>
-    <tableColumn id="6" name="HANDLER DATE" dataDxfId="22"/>
-    <tableColumn id="7" name="LIST OF CHANGES" dataDxfId="21"/>
-    <tableColumn id="8" name="CHAPTER" dataDxfId="20"/>
-    <tableColumn id="11" name="API IMPACTED" dataDxfId="19"/>
-    <tableColumn id="9" name="IMPACT" dataDxfId="18"/>
-    <tableColumn id="10" name="SOLUTION" dataDxfId="17"/>
+    <tableColumn id="2" name="API NAME " dataDxfId="9"/>
+    <tableColumn id="3" name="DATE" dataDxfId="8"/>
+    <tableColumn id="4" name="VERSION #" dataDxfId="7"/>
+    <tableColumn id="5" name="API #" dataDxfId="6"/>
+    <tableColumn id="6" name="HANDLER DATE" dataDxfId="5"/>
+    <tableColumn id="7" name="LIST OF CHANGES" dataDxfId="4"/>
+    <tableColumn id="8" name="CHAPTER" dataDxfId="3"/>
+    <tableColumn id="11" name="API IMPACTED" dataDxfId="2"/>
+    <tableColumn id="9" name="IMPACT" dataDxfId="1"/>
+    <tableColumn id="10" name="SOLUTION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7722,8 +7725,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M30" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
-  <autoFilter ref="A1:M30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
+  <autoFilter ref="A1:M31">
     <filterColumn colId="4"/>
     <filterColumn colId="6">
       <customFilters>
@@ -7770,35 +7773,31 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L107" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L107" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:L107">
     <filterColumn colId="1"/>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="DateTime"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="#" dataDxfId="16"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="15"/>
-    <tableColumn id="3" name="SNO" dataDxfId="14"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="13"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="12"/>
-    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="11"/>
-    <tableColumn id="7" name="Data Type " dataDxfId="10"/>
-    <tableColumn id="8" name="VALID VALUES" dataDxfId="9"/>
-    <tableColumn id="9" name="MANDATORY" dataDxfId="8"/>
-    <tableColumn id="10" name="DEFAULT" dataDxfId="7"/>
-    <tableColumn id="11" name="TRANSFORMATION" dataDxfId="6"/>
-    <tableColumn id="12" name="INVESTAK SCREEN  FIELD / SAMPLE" dataDxfId="5"/>
+    <tableColumn id="1" name="#" dataDxfId="57"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="56"/>
+    <tableColumn id="3" name="SNO" dataDxfId="55"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="54"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="53"/>
+    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="52"/>
+    <tableColumn id="7" name="Data Type " dataDxfId="51"/>
+    <tableColumn id="8" name="VALID VALUES" dataDxfId="50"/>
+    <tableColumn id="9" name="MANDATORY" dataDxfId="49"/>
+    <tableColumn id="10" name="DEFAULT" dataDxfId="48"/>
+    <tableColumn id="11" name="TRANSFORMATION" dataDxfId="47"/>
+    <tableColumn id="12" name="INVESTAK SCREEN  FIELD / SAMPLE" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K273" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K273" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:K273">
     <filterColumn colId="1"/>
     <filterColumn colId="6">
@@ -7809,42 +7808,42 @@
     <filterColumn colId="8"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="#" dataDxfId="59"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="58"/>
-    <tableColumn id="3" name="SNO" dataDxfId="57"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="56"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="55"/>
-    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="54"/>
-    <tableColumn id="7" name="DATA _TYPE" dataDxfId="53"/>
-    <tableColumn id="8" name="VALID VALUES" dataDxfId="52"/>
-    <tableColumn id="11" name="OPTIONAL" dataDxfId="51"/>
-    <tableColumn id="10" name="TRANSFORMATION" dataDxfId="50"/>
-    <tableColumn id="9" name="SPECIAL PROCESS" dataDxfId="49"/>
+    <tableColumn id="1" name="#" dataDxfId="42"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="41"/>
+    <tableColumn id="3" name="SNO" dataDxfId="40"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="39"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="38"/>
+    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="37"/>
+    <tableColumn id="7" name="DATA _TYPE" dataDxfId="36"/>
+    <tableColumn id="8" name="VALID VALUES" dataDxfId="35"/>
+    <tableColumn id="11" name="OPTIONAL" dataDxfId="34"/>
+    <tableColumn id="10" name="TRANSFORMATION" dataDxfId="33"/>
+    <tableColumn id="9" name="SPECIAL PROCESS" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G119" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G119" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="A1:G119">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="#" dataDxfId="45"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="44"/>
-    <tableColumn id="3" name="SNO" dataDxfId="43"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="42"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="41"/>
-    <tableColumn id="6" name="Data Type " dataDxfId="40"/>
-    <tableColumn id="7" name="VALID VALUES" dataDxfId="39"/>
+    <tableColumn id="1" name="#" dataDxfId="28"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="27"/>
+    <tableColumn id="3" name="SNO" dataDxfId="26"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="25"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="24"/>
+    <tableColumn id="6" name="Data Type " dataDxfId="23"/>
+    <tableColumn id="7" name="VALID VALUES" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G133" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G133" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:G133">
     <filterColumn colId="1">
       <filters>
@@ -7857,13 +7856,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="#" dataDxfId="33"/>
-    <tableColumn id="2" name="ARRAY NAME" dataDxfId="32"/>
-    <tableColumn id="3" name="SNO" dataDxfId="31"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="30"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="29"/>
-    <tableColumn id="6" name="Data Type " dataDxfId="28"/>
-    <tableColumn id="7" name="VALID VALUES" dataDxfId="27"/>
+    <tableColumn id="1" name="#" dataDxfId="16"/>
+    <tableColumn id="2" name="ARRAY NAME" dataDxfId="15"/>
+    <tableColumn id="3" name="SNO" dataDxfId="14"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="13"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="12"/>
+    <tableColumn id="6" name="Data Type " dataDxfId="11"/>
+    <tableColumn id="7" name="VALID VALUES" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8158,7 +8157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9600,13 +9599,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9614,7 +9613,7 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="41.42578125" customWidth="1"/>
     <col min="8" max="8" width="79.140625" customWidth="1"/>
@@ -9749,9 +9748,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24">
+    <row r="4" spans="1:14">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>137</v>
@@ -9759,38 +9758,32 @@
       <c r="C4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1259</v>
+      <c r="D4" s="68">
+        <v>3.2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="49" t="s">
+        <v>1258</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>1232</v>
+      <c r="J4" s="6" t="s">
+        <v>1231</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="36" hidden="1">
+      <c r="L4" s="68"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:14" ht="24">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>137</v>
@@ -9799,72 +9792,72 @@
         <v>83</v>
       </c>
       <c r="D5" s="5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>1290</v>
+      </c>
       <c r="H5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36" hidden="1">
+      <c r="A6" s="5">
         <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" ht="48">
-      <c r="A6" s="5">
-        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>1261</v>
+        <v>172</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" t="s">
+        <v>1260</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>177</v>
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="36">
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="48">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>137</v>
@@ -9873,19 +9866,19 @@
         <v>90</v>
       </c>
       <c r="D7" s="5">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1262</v>
+        <v>92</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>1261</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1231</v>
@@ -9897,13 +9890,13 @@
         <v>177</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="108">
+      <c r="M7" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>137</v>
@@ -9912,19 +9905,19 @@
         <v>90</v>
       </c>
       <c r="D8" s="5">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1231</v>
@@ -9932,17 +9925,17 @@
       <c r="J8" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="K8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="108">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>137</v>
@@ -9951,19 +9944,19 @@
         <v>90</v>
       </c>
       <c r="D9" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>1281</v>
+        <v>1293</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1263</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>1231</v>
@@ -9971,36 +9964,38 @@
       <c r="J9" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="108">
+      <c r="K9" s="5"/>
+      <c r="L9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5">
-        <v>12.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1264</v>
+        <v>98</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>1281</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>1231</v>
@@ -10011,14 +10006,12 @@
       <c r="K10" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24">
+      <c r="L10" s="9"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="108">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>137</v>
@@ -10027,19 +10020,19 @@
         <v>99</v>
       </c>
       <c r="D11" s="5">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H11" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>1231</v>
@@ -10051,11 +10044,13 @@
         <v>230</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="24">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>137</v>
@@ -10064,19 +10059,19 @@
         <v>99</v>
       </c>
       <c r="D12" s="5">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H12" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>1231</v>
@@ -10090,9 +10085,9 @@
       <c r="L12" s="5"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="24" hidden="1">
+    <row r="13" spans="1:14" ht="36">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>137</v>
@@ -10101,27 +10096,35 @@
         <v>99</v>
       </c>
       <c r="D13" s="5">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1266</v>
+      </c>
       <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+        <v>1231</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:14" ht="36">
+    <row r="14" spans="1:14" ht="24" hidden="1">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>137</v>
@@ -10130,35 +10133,27 @@
         <v>99</v>
       </c>
       <c r="D14" s="5">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>1273</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>230</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="24">
+    <row r="15" spans="1:14" ht="36">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>137</v>
@@ -10167,19 +10162,19 @@
         <v>99</v>
       </c>
       <c r="D15" s="5">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>1298</v>
+        <v>109</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1311</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>1231</v>
@@ -10195,28 +10190,28 @@
     </row>
     <row r="16" spans="1:14" ht="36">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D16" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
+        <v>12.6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>1231</v>
@@ -10230,9 +10225,9 @@
       <c r="L16" s="5"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" ht="24">
+    <row r="17" spans="1:13" ht="36">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>137</v>
@@ -10241,19 +10236,19 @@
         <v>110</v>
       </c>
       <c r="D17" s="5">
-        <v>13.2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>113</v>
+        <v>13.1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>1231</v>
@@ -10269,7 +10264,7 @@
     </row>
     <row r="18" spans="1:13" ht="24">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>137</v>
@@ -10278,19 +10273,19 @@
         <v>110</v>
       </c>
       <c r="D18" s="5">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1301</v>
+        <v>114</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>1300</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>1231</v>
@@ -10304,9 +10299,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="24">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>137</v>
@@ -10315,19 +10310,19 @@
         <v>110</v>
       </c>
       <c r="D19" s="5">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>1276</v>
+        <v>116</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>1275</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>1231</v>
@@ -10341,30 +10336,30 @@
       <c r="L19" s="5"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" ht="24">
+    <row r="20" spans="1:13" ht="36">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>1268</v>
+        <v>1302</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>1276</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>1231</v>
@@ -10380,28 +10375,28 @@
     </row>
     <row r="21" spans="1:13" ht="24">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" s="5">
-        <v>15.1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>122</v>
+        <v>14.1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>1231</v>
@@ -10417,28 +10412,28 @@
     </row>
     <row r="22" spans="1:13" ht="24">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>125</v>
+        <v>15.1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>1231</v>
@@ -10452,30 +10447,30 @@
       <c r="L22" s="5"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" ht="24">
+    <row r="23" spans="1:13" ht="36">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5">
-        <v>18.100000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1269</v>
+        <v>1310</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>1278</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>1231</v>
@@ -10489,30 +10484,30 @@
       <c r="L23" s="5"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" ht="24">
+    <row r="24" spans="1:13" ht="36">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="5">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>1280</v>
+        <v>1305</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1269</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>1231</v>
@@ -10528,7 +10523,7 @@
     </row>
     <row r="25" spans="1:13" ht="24">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>137</v>
@@ -10537,19 +10532,19 @@
         <v>129</v>
       </c>
       <c r="D25" s="5">
-        <v>19.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1270</v>
+        <v>1306</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>1280</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>1231</v>
@@ -10565,28 +10560,28 @@
     </row>
     <row r="26" spans="1:13" ht="24">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>751</v>
+        <v>129</v>
       </c>
       <c r="D26" s="5">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>750</v>
+        <v>132</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>752</v>
+        <v>133</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H26" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>1231</v>
@@ -10600,30 +10595,30 @@
       <c r="L26" s="5"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" ht="24">
+    <row r="27" spans="1:13" ht="36">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1338</v>
+        <v>751</v>
       </c>
       <c r="D27" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1338</v>
+        <v>750</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1349</v>
+        <v>752</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1308</v>
       </c>
       <c r="H27" t="s">
-        <v>1339</v>
+        <v>1271</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>1231</v>
@@ -10637,119 +10632,157 @@
       <c r="L27" s="5"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" ht="24" hidden="1">
+    <row r="28" spans="1:13" ht="24">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>1338</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>139</v>
+        <v>1338</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" ht="36" hidden="1">
-      <c r="A29" s="17">
+    <row r="29" spans="1:13" ht="24" hidden="1">
+      <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="48" hidden="1">
+      <c r="A30" s="17">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" ht="24">
-      <c r="A30" s="61">
-        <v>26</v>
-      </c>
-      <c r="B30" s="61" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="24">
+      <c r="A31" s="61">
+        <v>25</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C31" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D31" s="61">
         <v>25.1</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E31" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F31" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G31" s="62" t="s">
         <v>1309</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H31" s="61" t="s">
         <v>1272</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I31" s="61" t="s">
         <v>1231</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J31" s="61" t="s">
         <v>1231</v>
       </c>
-      <c r="K30" s="63" t="s">
+      <c r="K31" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="64"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1"/>
-    <hyperlink ref="H15" r:id="rId2"/>
-    <hyperlink ref="H18" r:id="rId3"/>
-    <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H16" r:id="rId5"/>
-    <hyperlink ref="H17" r:id="rId6"/>
-    <hyperlink ref="H20" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
-    <hyperlink ref="H21" r:id="rId9"/>
-    <hyperlink ref="H24" r:id="rId10"/>
-    <hyperlink ref="H9" r:id="rId11"/>
-    <hyperlink ref="H6" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId1"/>
+    <hyperlink ref="H16" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H18" r:id="rId6"/>
+    <hyperlink ref="H21" r:id="rId7"/>
+    <hyperlink ref="H23" r:id="rId8"/>
+    <hyperlink ref="H22" r:id="rId9"/>
+    <hyperlink ref="H25" r:id="rId10"/>
+    <hyperlink ref="H10" r:id="rId11"/>
+    <hyperlink ref="H7" r:id="rId12"/>
     <hyperlink ref="H2" r:id="rId13"/>
     <hyperlink ref="G2" r:id="rId14"/>
-    <hyperlink ref="G6" r:id="rId15"/>
-    <hyperlink ref="G15" r:id="rId16"/>
-    <hyperlink ref="G16" r:id="rId17"/>
-    <hyperlink ref="G17" r:id="rId18"/>
-    <hyperlink ref="G30" r:id="rId19"/>
+    <hyperlink ref="G7" r:id="rId15"/>
+    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G31" r:id="rId19"/>
+    <hyperlink ref="H4" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12953,7 +12986,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13010,7 +13043,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -13038,7 +13071,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="1:12" ht="24" hidden="1">
+    <row r="3" spans="1:12" ht="24">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -13064,7 +13097,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" ht="24" hidden="1">
+    <row r="4" spans="1:12" ht="24">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -13090,7 +13123,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -13118,7 +13151,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -13144,7 +13177,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -13172,7 +13205,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -13202,7 +13235,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -13232,7 +13265,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -13264,7 +13297,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -13292,7 +13325,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -13320,7 +13353,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -13350,7 +13383,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -13378,7 +13411,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -13404,7 +13437,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -13430,7 +13463,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="24" hidden="1">
+    <row r="17" spans="1:12" ht="24">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -13456,7 +13489,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -13484,7 +13517,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -13512,7 +13545,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="24" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -13540,7 +13573,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="24" hidden="1">
+    <row r="21" spans="1:12" ht="24">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -13568,7 +13601,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="24" hidden="1">
+    <row r="22" spans="1:12" ht="24">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -13596,7 +13629,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="24" hidden="1">
+    <row r="23" spans="1:12" ht="24">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -13624,7 +13657,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -13652,7 +13685,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -13680,7 +13713,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -13736,7 +13769,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="24" hidden="1">
+    <row r="28" spans="1:12" ht="24">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -13764,7 +13797,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="24" hidden="1">
+    <row r="29" spans="1:12" ht="24">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -13792,7 +13825,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="24" hidden="1">
+    <row r="30" spans="1:12" ht="24">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -13824,7 +13857,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -13856,7 +13889,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24" hidden="1">
+    <row r="32" spans="1:12" ht="24">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -13888,7 +13921,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" hidden="1">
+    <row r="33" spans="1:12" ht="36">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -13920,7 +13953,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48" hidden="1">
+    <row r="34" spans="1:12" ht="48">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -13952,7 +13985,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -13986,7 +14019,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="24" hidden="1">
+    <row r="36" spans="1:12" ht="24">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -14018,7 +14051,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="24" hidden="1">
+    <row r="37" spans="1:12" ht="24">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -14050,7 +14083,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -14082,7 +14115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -14112,7 +14145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -14142,7 +14175,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="24" hidden="1">
+    <row r="41" spans="1:12" ht="24">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -14172,7 +14205,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -14202,7 +14235,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -14232,7 +14265,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -14266,7 +14299,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -14296,7 +14329,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="24" hidden="1">
+    <row r="46" spans="1:12" ht="24">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -14330,7 +14363,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="24" hidden="1">
+    <row r="47" spans="1:12" ht="24">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -14364,7 +14397,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -14394,7 +14427,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="24" hidden="1">
+    <row r="49" spans="1:16" ht="24">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -14424,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:16">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -14454,7 +14487,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1">
+    <row r="51" spans="1:16">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -14484,7 +14517,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="24" hidden="1">
+    <row r="52" spans="1:16" ht="24">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -14518,7 +14551,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -14546,7 +14579,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -14574,7 +14607,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -14602,7 +14635,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -14630,7 +14663,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -14660,7 +14693,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -14688,7 +14721,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -14716,7 +14749,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -14752,7 +14785,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -14780,7 +14813,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -14808,7 +14841,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -14836,7 +14869,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -14864,7 +14897,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -14892,7 +14925,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -14920,7 +14953,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -14948,7 +14981,7 @@
       <c r="K67" s="15"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -14976,7 +15009,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -15004,7 +15037,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -15032,7 +15065,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -15060,7 +15093,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="24" hidden="1">
+    <row r="72" spans="1:12" ht="24">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -15088,7 +15121,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -15116,7 +15149,7 @@
       <c r="K73" s="15"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -15142,7 +15175,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -15170,7 +15203,7 @@
       <c r="K75" s="15"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -15198,7 +15231,7 @@
       <c r="K76" s="15"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -15226,7 +15259,7 @@
       <c r="K77" s="15"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -15254,7 +15287,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -15282,7 +15315,7 @@
       <c r="K79" s="15"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -15310,7 +15343,7 @@
       <c r="K80" s="15"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -15338,7 +15371,7 @@
       <c r="K81" s="15"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -15366,7 +15399,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:12">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -15394,7 +15427,7 @@
       <c r="K83" s="15"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -15422,7 +15455,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -15450,7 +15483,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:12">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -15478,7 +15511,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:12">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -15506,7 +15539,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:12">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -15534,7 +15567,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:12">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -15562,7 +15595,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12" hidden="1">
+    <row r="90" spans="1:12">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -15590,7 +15623,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12" ht="36" hidden="1">
+    <row r="91" spans="1:12" ht="36">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -15620,7 +15653,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12" hidden="1">
+    <row r="92" spans="1:12">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -15648,7 +15681,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -15676,7 +15709,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:12">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -15704,7 +15737,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" hidden="1">
+    <row r="95" spans="1:12">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -15732,7 +15765,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" hidden="1">
+    <row r="96" spans="1:12">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -15760,7 +15793,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:12">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -15788,7 +15821,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:12">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -15816,7 +15849,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:12">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -15844,7 +15877,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -15872,7 +15905,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -15900,7 +15933,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -15926,7 +15959,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -15952,7 +15985,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -15978,7 +16011,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="23"/>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -16004,7 +16037,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="23"/>
     </row>
-    <row r="106" spans="1:12" ht="24" hidden="1">
+    <row r="106" spans="1:12" ht="24">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -16030,7 +16063,7 @@
       <c r="K106" s="15"/>
       <c r="L106" s="23"/>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12">
       <c r="A107" s="66">
         <v>101</v>
       </c>

--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1356">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -4160,6 +4160,12 @@
   </si>
   <si>
     <t>NRML1</t>
+  </si>
+  <si>
+    <t>Response Validation</t>
+  </si>
+  <si>
+    <t>Input Validation</t>
   </si>
 </sst>
 </file>
@@ -4432,7 +4438,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4639,13 +4645,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="119">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7708,12 +7785,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="113"/>
-    <tableColumn id="2" name="Tab Name" dataDxfId="112"/>
-    <tableColumn id="3" name="Contents" dataDxfId="111"/>
+    <tableColumn id="1" name="#" dataDxfId="115"/>
+    <tableColumn id="2" name="Tab Name" dataDxfId="114"/>
+    <tableColumn id="3" name="Contents" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7727,57 +7804,57 @@
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="API NAME " dataDxfId="40"/>
-    <tableColumn id="3" name="DATE" dataDxfId="39"/>
-    <tableColumn id="4" name="VERSION #" dataDxfId="38"/>
-    <tableColumn id="5" name="API #" dataDxfId="37"/>
-    <tableColumn id="6" name="HANDLER DATE" dataDxfId="36"/>
-    <tableColumn id="7" name="LIST OF CHANGES" dataDxfId="35"/>
-    <tableColumn id="8" name="CHAPTER" dataDxfId="34"/>
-    <tableColumn id="11" name="API IMPACTED" dataDxfId="33"/>
-    <tableColumn id="9" name="IMPACT" dataDxfId="32"/>
-    <tableColumn id="10" name="SOLUTION" dataDxfId="31"/>
+    <tableColumn id="2" name="API NAME " dataDxfId="42"/>
+    <tableColumn id="3" name="DATE" dataDxfId="41"/>
+    <tableColumn id="4" name="VERSION #" dataDxfId="40"/>
+    <tableColumn id="5" name="API #" dataDxfId="39"/>
+    <tableColumn id="6" name="HANDLER DATE" dataDxfId="38"/>
+    <tableColumn id="7" name="LIST OF CHANGES" dataDxfId="37"/>
+    <tableColumn id="8" name="CHAPTER" dataDxfId="36"/>
+    <tableColumn id="11" name="API IMPACTED" dataDxfId="35"/>
+    <tableColumn id="9" name="IMPACT" dataDxfId="34"/>
+    <tableColumn id="10" name="SOLUTION" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:M7" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:M7" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="I1:M7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="108"/>
-    <tableColumn id="2" name="Date" dataDxfId="107"/>
-    <tableColumn id="3" name="Version" dataDxfId="106"/>
-    <tableColumn id="4" name="Author" dataDxfId="105"/>
-    <tableColumn id="5" name="Summary of Changes" dataDxfId="104"/>
+    <tableColumn id="1" name="#" dataDxfId="110"/>
+    <tableColumn id="2" name="Date" dataDxfId="109"/>
+    <tableColumn id="3" name="Version" dataDxfId="108"/>
+    <tableColumn id="4" name="Author" dataDxfId="107"/>
+    <tableColumn id="5" name="Summary of Changes" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table111" displayName="Table111" ref="A1:J4" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table111" displayName="Table111" ref="A1:J4" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
   <autoFilter ref="A1:J4"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="#" dataDxfId="100"/>
-    <tableColumn id="2" name="System Name" dataDxfId="99"/>
-    <tableColumn id="3" name="System Type" dataDxfId="98"/>
-    <tableColumn id="5" name="Data Container Type" dataDxfId="97"/>
-    <tableColumn id="6" name="Target Delivery Location" dataDxfId="96"/>
-    <tableColumn id="7" name="Encyption Method" dataDxfId="95"/>
-    <tableColumn id="8" name="Logging required" dataDxfId="94"/>
-    <tableColumn id="9" name="Record Separator" dataDxfId="93"/>
-    <tableColumn id="10" name="Field Separator" dataDxfId="92"/>
-    <tableColumn id="11" name="NOTES" dataDxfId="91"/>
+    <tableColumn id="1" name="#" dataDxfId="102"/>
+    <tableColumn id="2" name="System Name" dataDxfId="101"/>
+    <tableColumn id="3" name="System Type" dataDxfId="100"/>
+    <tableColumn id="5" name="Data Container Type" dataDxfId="99"/>
+    <tableColumn id="6" name="Target Delivery Location" dataDxfId="98"/>
+    <tableColumn id="7" name="Encyption Method" dataDxfId="97"/>
+    <tableColumn id="8" name="Logging required" dataDxfId="96"/>
+    <tableColumn id="9" name="Record Separator" dataDxfId="95"/>
+    <tableColumn id="10" name="Field Separator" dataDxfId="94"/>
+    <tableColumn id="11" name="NOTES" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:N31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P31" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:P31">
     <filterColumn colId="4"/>
     <filterColumn colId="6">
       <customFilters>
@@ -7785,125 +7862,129 @@
       </customFilters>
     </filterColumn>
     <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
+    <filterColumn colId="15"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="#" dataDxfId="16"/>
-    <tableColumn id="2" name="Source" dataDxfId="15"/>
-    <tableColumn id="3" name="Subject" dataDxfId="14"/>
-    <tableColumn id="4" name="Ch.#" dataDxfId="13"/>
-    <tableColumn id="5" name="API Name" dataDxfId="12"/>
-    <tableColumn id="6" name="Description" dataDxfId="11"/>
-    <tableColumn id="12" name="Source URL" dataDxfId="10"/>
-    <tableColumn id="7" name="Target URL" dataDxfId="9"/>
-    <tableColumn id="13" name="Logging" dataDxfId="8"/>
-    <tableColumn id="8" name="Input " dataDxfId="7"/>
-    <tableColumn id="9" name="Input Encryption" dataDxfId="6"/>
-    <tableColumn id="10" name="Response Encryption" dataDxfId="5"/>
-    <tableColumn id="11" name="NOTES" dataDxfId="4"/>
-    <tableColumn id="14" name="Input Sample" dataDxfId="0"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="#" dataDxfId="18"/>
+    <tableColumn id="2" name="Source" dataDxfId="17"/>
+    <tableColumn id="3" name="Subject" dataDxfId="16"/>
+    <tableColumn id="4" name="Ch.#" dataDxfId="15"/>
+    <tableColumn id="5" name="API Name" dataDxfId="14"/>
+    <tableColumn id="6" name="Description" dataDxfId="13"/>
+    <tableColumn id="12" name="Source URL" dataDxfId="12"/>
+    <tableColumn id="7" name="Target URL" dataDxfId="11"/>
+    <tableColumn id="13" name="Logging" dataDxfId="10"/>
+    <tableColumn id="8" name="Input " dataDxfId="9"/>
+    <tableColumn id="9" name="Input Encryption" dataDxfId="8"/>
+    <tableColumn id="10" name="Response Encryption" dataDxfId="7"/>
+    <tableColumn id="11" name="NOTES" dataDxfId="6"/>
+    <tableColumn id="14" name="Input Sample" dataDxfId="2"/>
+    <tableColumn id="15" name="Input Validation" dataDxfId="1"/>
+    <tableColumn id="16" name="Response Validation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F193" totalsRowShown="0" headerRowDxfId="90" dataDxfId="88" headerRowBorderDxfId="89" tableBorderDxfId="87" totalsRowBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F193" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
   <autoFilter ref="A1:F193"/>
   <sortState ref="A2:F193">
     <sortCondition ref="B2:B193"/>
     <sortCondition ref="A2:A193"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="SNO" dataDxfId="85"/>
-    <tableColumn id="2" name="BUSINESS_TAG" dataDxfId="84"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="83"/>
-    <tableColumn id="4" name="API Fields " dataDxfId="82"/>
-    <tableColumn id="6" name="JSON ARRAY" dataDxfId="81"/>
-    <tableColumn id="5" name="Validations If any" dataDxfId="80"/>
+    <tableColumn id="1" name="SNO" dataDxfId="87"/>
+    <tableColumn id="2" name="BUSINESS_TAG" dataDxfId="86"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="85"/>
+    <tableColumn id="4" name="API Fields " dataDxfId="84"/>
+    <tableColumn id="6" name="JSON ARRAY" dataDxfId="83"/>
+    <tableColumn id="5" name="Validations If any" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L107" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L107" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
   <autoFilter ref="A1:L107">
     <filterColumn colId="1"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="#" dataDxfId="74"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="73"/>
-    <tableColumn id="3" name="SNO" dataDxfId="72"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="71"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="70"/>
-    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="69"/>
-    <tableColumn id="7" name="Data Type " dataDxfId="68"/>
-    <tableColumn id="8" name="VALID VALUES" dataDxfId="67"/>
-    <tableColumn id="9" name="MANDATORY" dataDxfId="66"/>
-    <tableColumn id="10" name="DEFAULT" dataDxfId="65"/>
-    <tableColumn id="11" name="TRANSFORMATION" dataDxfId="64"/>
-    <tableColumn id="12" name="INVESTAK SCREEN  FIELD / SAMPLE" dataDxfId="63"/>
+    <tableColumn id="1" name="#" dataDxfId="76"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="75"/>
+    <tableColumn id="3" name="SNO" dataDxfId="74"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="73"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="72"/>
+    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="71"/>
+    <tableColumn id="7" name="Data Type " dataDxfId="70"/>
+    <tableColumn id="8" name="VALID VALUES" dataDxfId="69"/>
+    <tableColumn id="9" name="MANDATORY" dataDxfId="68"/>
+    <tableColumn id="10" name="DEFAULT" dataDxfId="67"/>
+    <tableColumn id="11" name="TRANSFORMATION" dataDxfId="66"/>
+    <tableColumn id="12" name="INVESTAK SCREEN  FIELD / SAMPLE" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K284" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K284" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:K284">
     <filterColumn colId="1"/>
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="#" dataDxfId="30"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="29"/>
-    <tableColumn id="3" name="SNO" dataDxfId="28"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="27"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="26"/>
-    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="25"/>
-    <tableColumn id="7" name="DATA _TYPE" dataDxfId="24"/>
-    <tableColumn id="8" name="VALID VALUES" dataDxfId="23"/>
-    <tableColumn id="11" name="OPTIONAL" dataDxfId="22"/>
-    <tableColumn id="10" name="TRANSFORMATION" dataDxfId="21"/>
-    <tableColumn id="9" name="SPECIAL PROCESS" dataDxfId="20"/>
+    <tableColumn id="1" name="#" dataDxfId="32"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="31"/>
+    <tableColumn id="3" name="SNO" dataDxfId="30"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="29"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="28"/>
+    <tableColumn id="6" name="BUSINESS_TAG" dataDxfId="27"/>
+    <tableColumn id="7" name="DATA _TYPE" dataDxfId="26"/>
+    <tableColumn id="8" name="VALID VALUES" dataDxfId="25"/>
+    <tableColumn id="11" name="OPTIONAL" dataDxfId="24"/>
+    <tableColumn id="10" name="TRANSFORMATION" dataDxfId="23"/>
+    <tableColumn id="9" name="SPECIAL PROCESS" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G119" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G119" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A1:G119">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="#" dataDxfId="59"/>
-    <tableColumn id="2" name="API NAME" dataDxfId="58"/>
-    <tableColumn id="3" name="SNO" dataDxfId="57"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="56"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="55"/>
-    <tableColumn id="6" name="Data Type " dataDxfId="54"/>
-    <tableColumn id="7" name="VALID VALUES" dataDxfId="53"/>
+    <tableColumn id="1" name="#" dataDxfId="61"/>
+    <tableColumn id="2" name="API NAME" dataDxfId="60"/>
+    <tableColumn id="3" name="SNO" dataDxfId="59"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="58"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="57"/>
+    <tableColumn id="6" name="Data Type " dataDxfId="56"/>
+    <tableColumn id="7" name="VALID VALUES" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G133" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G133" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="A1:G133">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="#" dataDxfId="47"/>
-    <tableColumn id="2" name="ARRAY NAME" dataDxfId="46"/>
-    <tableColumn id="3" name="SNO" dataDxfId="45"/>
-    <tableColumn id="4" name="PARAMETER" dataDxfId="44"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="43"/>
-    <tableColumn id="6" name="Data Type " dataDxfId="42"/>
-    <tableColumn id="7" name="VALID VALUES" dataDxfId="41"/>
+    <tableColumn id="1" name="#" dataDxfId="49"/>
+    <tableColumn id="2" name="ARRAY NAME" dataDxfId="48"/>
+    <tableColumn id="3" name="SNO" dataDxfId="47"/>
+    <tableColumn id="4" name="PARAMETER" dataDxfId="46"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="45"/>
+    <tableColumn id="6" name="Data Type " dataDxfId="44"/>
+    <tableColumn id="7" name="VALID VALUES" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9640,13 +9721,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9660,12 +9741,14 @@
     <col min="8" max="8" width="79.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16" ht="24">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -9705,11 +9788,17 @@
       <c r="M1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="72" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="84">
+      <c r="O1" s="72" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="108">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9750,8 +9839,14 @@
         <v>181</v>
       </c>
       <c r="N2" s="71"/>
-    </row>
-    <row r="3" spans="1:14" ht="72" hidden="1">
+      <c r="O2" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="216" hidden="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9790,8 +9885,10 @@
         <v>180</v>
       </c>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -9824,8 +9921,14 @@
       <c r="L4" s="67"/>
       <c r="M4" s="53"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="24">
+      <c r="O4" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -9864,8 +9967,14 @@
         <v>169</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="36" hidden="1">
+      <c r="O5" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="36" hidden="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -9900,8 +10009,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="15"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="48">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="60">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -9940,8 +10051,14 @@
         <v>179</v>
       </c>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="36">
+      <c r="O7" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="36">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -9980,8 +10097,14 @@
         <v>203</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="108">
+      <c r="O8" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="120">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -10020,8 +10143,14 @@
         <v>229</v>
       </c>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="36">
+      <c r="O9" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="36">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -10058,8 +10187,14 @@
       <c r="L10" s="9"/>
       <c r="M10" s="15"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="108">
+      <c r="O10" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="132">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -10098,8 +10233,14 @@
         <v>331</v>
       </c>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="24">
+      <c r="O11" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -10136,8 +10277,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="15"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="36">
+      <c r="O12" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="36">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -10174,8 +10321,14 @@
       <c r="L13" s="5"/>
       <c r="M13" s="15"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" hidden="1">
+      <c r="O13" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24" hidden="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -10204,8 +10357,10 @@
       <c r="L14" s="5"/>
       <c r="M14" s="15"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="36">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="36">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -10242,8 +10397,14 @@
       <c r="L15" s="5"/>
       <c r="M15" s="15"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="36">
+      <c r="O15" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="36">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -10280,8 +10441,14 @@
       <c r="L16" s="5"/>
       <c r="M16" s="15"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="36">
+      <c r="O16" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="36">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -10318,8 +10485,14 @@
       <c r="L17" s="5"/>
       <c r="M17" s="15"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="24">
+      <c r="O17" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -10356,8 +10529,14 @@
       <c r="L18" s="5"/>
       <c r="M18" s="15"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="24">
+      <c r="O18" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="24">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -10394,8 +10573,14 @@
       <c r="L19" s="5"/>
       <c r="M19" s="15"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="36">
+      <c r="O19" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="36">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -10432,8 +10617,14 @@
       <c r="L20" s="5"/>
       <c r="M20" s="15"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="24">
+      <c r="O20" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="24">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -10470,8 +10661,14 @@
       <c r="L21" s="5"/>
       <c r="M21" s="15"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="24">
+      <c r="O21" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="24">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -10508,8 +10705,14 @@
       <c r="L22" s="5"/>
       <c r="M22" s="15"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="36">
+      <c r="O22" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="36">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -10546,8 +10749,14 @@
       <c r="L23" s="5"/>
       <c r="M23" s="15"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="36">
+      <c r="O23" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="36">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -10584,8 +10793,14 @@
       <c r="L24" s="5"/>
       <c r="M24" s="15"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="24">
+      <c r="O24" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -10622,8 +10837,14 @@
       <c r="L25" s="5"/>
       <c r="M25" s="15"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="24">
+      <c r="O25" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="24">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -10660,8 +10881,14 @@
       <c r="L26" s="5"/>
       <c r="M26" s="15"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" ht="36">
+      <c r="O26" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="36">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -10698,8 +10925,14 @@
       <c r="L27" s="5"/>
       <c r="M27" s="15"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="24">
+      <c r="O27" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -10736,8 +10969,14 @@
       <c r="L28" s="5"/>
       <c r="M28" s="15"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" hidden="1">
+      <c r="O28" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="24" hidden="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -10762,8 +11001,10 @@
       <c r="L29" s="5"/>
       <c r="M29" s="15"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="48" hidden="1">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" ht="48" hidden="1">
       <c r="A30" s="17">
         <v>27</v>
       </c>
@@ -10788,8 +11029,10 @@
       <c r="L30" s="17"/>
       <c r="M30" s="18"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" ht="24">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" ht="24">
       <c r="A31" s="60">
         <v>25</v>
       </c>
@@ -10826,6 +11069,12 @@
       <c r="L31" s="60"/>
       <c r="M31" s="63"/>
       <c r="N31" s="17"/>
+      <c r="O31" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>1225</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13057,7 +13306,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16180,10 +16429,10 @@
   <dimension ref="A1:K284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D282" sqref="D282"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23796,7 +24045,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="E91" sqref="E91:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1362">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -2866,9 +2866,6 @@
     <t>CR/LF</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>Since only one Target system , all requests will be routed to default Target system.  In future , it will be routed thru the  TARGET SYSTEM + ROUTING KEY</t>
   </si>
   <si>
@@ -3833,345 +3830,360 @@
 </t>
   </si>
   <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/GetInitialKey</t>
-  </si>
-  <si>
     <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/GetPreAuthenticationKey</t>
   </si>
   <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/LoginMode</t>
-  </si>
-  <si>
     <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/user/rsa/key</t>
   </si>
   <si>
-    <t xml:space="preserve">http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Login2FA
+    <t>Ok / Not_Ok</t>
+  </si>
+  <si>
+    <t>Ok, Not_Ok</t>
+  </si>
+  <si>
+    <t>SL-M</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>Ttranstype</t>
+  </si>
+  <si>
+    <t>imgsrc</t>
+  </si>
+  <si>
+    <t>NFOVAL</t>
+  </si>
+  <si>
+    <t>dobAccount</t>
+  </si>
+  <si>
+    <t>DOB Account</t>
+  </si>
+  <si>
+    <t>RetentionType1</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>Day order</t>
+  </si>
+  <si>
+    <t>Execute or cancel</t>
+  </si>
+  <si>
+    <t>End of session</t>
+  </si>
+  <si>
+    <t>BuyPower</t>
+  </si>
+  <si>
+    <t>BOmarginRequired</t>
+  </si>
+  <si>
+    <t>COMarginRequired</t>
+  </si>
+  <si>
+    <t>DaysMTM</t>
+  </si>
+  <si>
+    <t>BuyQty</t>
+  </si>
+  <si>
+    <t>LTPValuation</t>
+  </si>
+  <si>
+    <t>GeneralDenomenator</t>
+  </si>
+  <si>
+    <t>PriceNumerator</t>
+  </si>
+  <si>
+    <t>PriceDenomenator</t>
+  </si>
+  <si>
+    <t>GeneralNumerator</t>
+  </si>
+  <si>
+    <t>unfilledSize</t>
+  </si>
+  <si>
+    <t>ExchTimeStamp</t>
+  </si>
+  <si>
+    <t>ExchTimeStamp ex:10/02/2017 14:47:52</t>
+  </si>
+  <si>
+    <t>filledShares</t>
+  </si>
+  <si>
+    <t>initialToken</t>
+  </si>
+  <si>
+    <t>validateSLMPrice</t>
+  </si>
+  <si>
+    <t>sExchange</t>
+  </si>
+  <si>
+    <t>sToken</t>
+  </si>
+  <si>
+    <t>sSLPrice</t>
+  </si>
+  <si>
+    <t>sOrderType</t>
+  </si>
+  <si>
+    <t>sMarketProtection</t>
+  </si>
+  <si>
+    <t>Stop loss price</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>2. Not able to Retrieve validateSLMPrice</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>Entered GTD value (MM/DD/YYYY)/(1-7)/(hh:mm:ss in 24-hr format)</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>discQty</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>JSON array containing JSON object</t>
+  </si>
+  <si>
+    <t>VALUE_HOLDING</t>
+  </si>
+  <si>
+    <t>Totalval</t>
+  </si>
+  <si>
+    <t>JSON Object</t>
+  </si>
+  <si>
+    <t>VALUE_TOTAL</t>
+  </si>
+  <si>
+    <t>Response Validation</t>
+  </si>
+  <si>
+    <t>Input Validation</t>
+  </si>
+  <si>
+    <t>Response Decryption</t>
+  </si>
+  <si>
+    <t>YES with PUBLIC KEY 4</t>
+  </si>
+  <si>
+    <t>YES with PUBLIC KEY 3</t>
+  </si>
+  <si>
+    <t>YES with PUBLIC KEY 2</t>
+  </si>
+  <si>
+    <t>NRML</t>
+  </si>
+  <si>
+    <t>NSE,BSE</t>
+  </si>
+  <si>
+    <t>MKT,L</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/LoginMode</t>
+  </si>
+  <si>
+    <t>http://nestuat.tradesmartonline.in/</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/Limits</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/PositionBook</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/Holding</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/TradeBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestHtml5Mobile/rest/OrderHistory
 </t>
   </si>
   <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/ValidPwd</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/ValidAns</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/LoadRetentionType</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/checkCrktPriceRange</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/ValidateGTD</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/OrderBook</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/TradeBook</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Limits</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/user/account/details</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Openorders</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Logout</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/CheckTansactionPassword</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/PlaceOrder</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/CancelOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/OrderHistory
+    <t>NestHtml5Mobile/rest/CancelOrder</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/ModifyOrder</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/UserProfile</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/user/account/details</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/Openorders</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/validateSLMPrice</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/Logout</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/OrderBook</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/PlaceOrder</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/CheckTansactionPassword</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/ValidateGTD</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/checkCrktPriceRange</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/GetInitialKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestHtml5Mobile/rest/Login2FA
 </t>
   </si>
   <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/ModifyOrder</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/PositionBook</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Holding</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/UserProfile</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/DefaultLogin</t>
-  </si>
-  <si>
-    <t>Ok / Not_Ok</t>
-  </si>
-  <si>
-    <t>Ok, Not_Ok</t>
-  </si>
-  <si>
-    <t>SL-M</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>ErrorCode</t>
-  </si>
-  <si>
-    <t>Ttranstype</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/get_initial_token/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/login_mode/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/login_2fa/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/valid_pwd/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/valid_ans/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/default_login/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/load_retention_type/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/check_crkt_price_range/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/validate_GTD/</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/place_order/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/order_book/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/modify_order/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/cancel_order/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/order_history/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/trade_book/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/holding/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/limits/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/user_profile/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/account_info/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/open_orders/</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/logout/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/position_book/</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/check_transaction_password/</t>
-  </si>
-  <si>
-    <t>imgsrc</t>
-  </si>
-  <si>
-    <t>NFOVAL</t>
-  </si>
-  <si>
-    <t>dobAccount</t>
-  </si>
-  <si>
-    <t>DOB Account</t>
-  </si>
-  <si>
-    <t>RetentionType1</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>EOS</t>
-  </si>
-  <si>
-    <t>Day order</t>
-  </si>
-  <si>
-    <t>Execute or cancel</t>
-  </si>
-  <si>
-    <t>End of session</t>
-  </si>
-  <si>
-    <t>BuyPower</t>
-  </si>
-  <si>
-    <t>BOmarginRequired</t>
-  </si>
-  <si>
-    <t>COMarginRequired</t>
-  </si>
-  <si>
-    <t>DaysMTM</t>
-  </si>
-  <si>
-    <t>BuyQty</t>
-  </si>
-  <si>
-    <t>LTPValuation</t>
-  </si>
-  <si>
-    <t>GeneralDenomenator</t>
-  </si>
-  <si>
-    <t>PriceNumerator</t>
-  </si>
-  <si>
-    <t>PriceDenomenator</t>
-  </si>
-  <si>
-    <t>GeneralNumerator</t>
-  </si>
-  <si>
-    <t>unfilledSize</t>
-  </si>
-  <si>
-    <t>ExchTimeStamp</t>
-  </si>
-  <si>
-    <t>ExchTimeStamp ex:10/02/2017 14:47:52</t>
-  </si>
-  <si>
-    <t>filledShares</t>
-  </si>
-  <si>
-    <t>initialToken</t>
-  </si>
-  <si>
-    <t>validateSLMPrice</t>
-  </si>
-  <si>
-    <t>http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/validateSLMPrice</t>
-  </si>
-  <si>
-    <t>sExchange</t>
-  </si>
-  <si>
-    <t>sToken</t>
-  </si>
-  <si>
-    <t>sSLPrice</t>
-  </si>
-  <si>
-    <t>sOrderType</t>
-  </si>
-  <si>
-    <t>sMarketProtection</t>
-  </si>
-  <si>
-    <t>Stop loss price</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>2. Not able to Retrieve validateSLMPrice</t>
-  </si>
-  <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/validate_SLM_price/</t>
-  </si>
-  <si>
-    <t>Entered GTD value (MM/DD/YYYY)/(1-7)/(hh:mm:ss in 24-hr format)</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>discQty</t>
-  </si>
-  <si>
-    <t>ReportType</t>
-  </si>
-  <si>
-    <t>JSON array containing JSON object</t>
-  </si>
-  <si>
-    <t>VALUE_HOLDING</t>
-  </si>
-  <si>
-    <t>Totalval</t>
-  </si>
-  <si>
-    <t>JSON Object</t>
-  </si>
-  <si>
-    <t>VALUE_TOTAL</t>
-  </si>
-  <si>
-    <t>Response Validation</t>
-  </si>
-  <si>
-    <t>Input Validation</t>
-  </si>
-  <si>
-    <t>Response Decryption</t>
-  </si>
-  <si>
-    <t>YES with PUBLIC KEY 4</t>
-  </si>
-  <si>
-    <t>YES with PUBLIC KEY 3</t>
-  </si>
-  <si>
-    <t>YES with PUBLIC KEY 2</t>
-  </si>
-  <si>
-    <t>NRML</t>
-  </si>
-  <si>
-    <t>NSE,BSE</t>
-  </si>
-  <si>
-    <t>MKT,L</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>NestHtml5Mobile/rest/ValidPwd</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/ValidAns</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/DefaultLogin</t>
+  </si>
+  <si>
+    <t>NestHtml5Mobile/rest/LoadRetentionType</t>
+  </si>
+  <si>
+    <t>get_initial_token/</t>
+  </si>
+  <si>
+    <t>login_mode/</t>
+  </si>
+  <si>
+    <t>login_2fa/</t>
+  </si>
+  <si>
+    <t>valid_pwd/</t>
+  </si>
+  <si>
+    <t>valid_ans/</t>
+  </si>
+  <si>
+    <t>default_login/</t>
+  </si>
+  <si>
+    <t>load_retention_type/</t>
+  </si>
+  <si>
+    <t>check_crkt_price_range/</t>
+  </si>
+  <si>
+    <t>validate_GTD/</t>
+  </si>
+  <si>
+    <t>check_transaction_password/</t>
+  </si>
+  <si>
+    <t>place_order/</t>
+  </si>
+  <si>
+    <t>order_book/</t>
+  </si>
+  <si>
+    <t>modify_order/</t>
+  </si>
+  <si>
+    <t>cancel_order/</t>
+  </si>
+  <si>
+    <t>order_history/</t>
+  </si>
+  <si>
+    <t>trade_book/</t>
+  </si>
+  <si>
+    <t>holding/</t>
+  </si>
+  <si>
+    <t>position_book/</t>
+  </si>
+  <si>
+    <t>limits/</t>
+  </si>
+  <si>
+    <t>user_profile/</t>
+  </si>
+  <si>
+    <t>account_info/</t>
+  </si>
+  <si>
+    <t>open_orders/</t>
+  </si>
+  <si>
+    <t>validate_SLM_price/</t>
+  </si>
+  <si>
+    <t>logout/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/</t>
   </si>
 </sst>
 </file>
@@ -4181,7 +4193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4259,6 +4271,15 @@
       <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4438,7 +4459,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4609,9 +4630,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4642,13 +4660,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="121">
     <dxf>
       <font>
         <strike val="0"/>
@@ -7194,6 +7242,74 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
         <scheme val="none"/>
@@ -7779,12 +7895,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119" tableBorderDxfId="118">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="115"/>
-    <tableColumn id="2" name="Tab Name" dataDxfId="114"/>
-    <tableColumn id="3" name="Contents" dataDxfId="113"/>
+    <tableColumn id="1" name="#" dataDxfId="117"/>
+    <tableColumn id="2" name="Tab Name" dataDxfId="116"/>
+    <tableColumn id="3" name="Contents" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7814,33 +7930,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:M7" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:M7" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="I1:M7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="110"/>
-    <tableColumn id="2" name="Date" dataDxfId="109"/>
-    <tableColumn id="3" name="Version" dataDxfId="108"/>
-    <tableColumn id="4" name="Author" dataDxfId="107"/>
-    <tableColumn id="5" name="Summary of Changes" dataDxfId="106"/>
+    <tableColumn id="1" name="#" dataDxfId="112"/>
+    <tableColumn id="2" name="Date" dataDxfId="111"/>
+    <tableColumn id="3" name="Version" dataDxfId="110"/>
+    <tableColumn id="4" name="Author" dataDxfId="109"/>
+    <tableColumn id="5" name="Summary of Changes" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table111" displayName="Table111" ref="A1:J4" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
-  <autoFilter ref="A1:J4"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="#" dataDxfId="102"/>
-    <tableColumn id="2" name="System Name" dataDxfId="101"/>
-    <tableColumn id="3" name="System Type" dataDxfId="100"/>
-    <tableColumn id="5" name="Data Container Type" dataDxfId="99"/>
-    <tableColumn id="6" name="Target Delivery Location" dataDxfId="98"/>
-    <tableColumn id="7" name="Encyption Method" dataDxfId="97"/>
-    <tableColumn id="8" name="Logging required" dataDxfId="96"/>
-    <tableColumn id="9" name="Record Separator" dataDxfId="95"/>
-    <tableColumn id="10" name="Field Separator" dataDxfId="94"/>
-    <tableColumn id="11" name="NOTES" dataDxfId="93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table111" displayName="Table111" ref="A1:L4" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
+  <autoFilter ref="A1:L4">
+    <filterColumn colId="10"/>
+    <filterColumn colId="11"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" name="#" dataDxfId="104"/>
+    <tableColumn id="2" name="System Name" dataDxfId="103"/>
+    <tableColumn id="3" name="System Type" dataDxfId="102"/>
+    <tableColumn id="5" name="Data Container Type" dataDxfId="101"/>
+    <tableColumn id="6" name="Target Delivery Location" dataDxfId="100"/>
+    <tableColumn id="7" name="Encyption Method" dataDxfId="99"/>
+    <tableColumn id="8" name="Logging required" dataDxfId="98"/>
+    <tableColumn id="9" name="Record Separator" dataDxfId="97"/>
+    <tableColumn id="10" name="Field Separator" dataDxfId="96"/>
+    <tableColumn id="11" name="NOTES" dataDxfId="95"/>
+    <tableColumn id="4" name="Source URL" dataDxfId="94"/>
+    <tableColumn id="12" name="Target URL" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7903,12 +8024,7 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L107" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:L107">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PositionBook"/>
-        <filter val="TradeBook"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="12">
@@ -7963,6 +8079,7 @@
     <filterColumn colId="1">
       <filters>
         <filter val="AccountInfo"/>
+        <filter val="TradeBook"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8344,10 +8461,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I2" s="46">
         <v>1</v>
@@ -8399,7 +8516,7 @@
         <v>789</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I4" s="46">
         <v>3</v>
@@ -8425,7 +8542,7 @@
         <v>790</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I5" s="46">
         <v>4</v>
@@ -8451,7 +8568,7 @@
         <v>791</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I6" s="46">
         <v>5</v>
@@ -8466,7 +8583,7 @@
         <v>802</v>
       </c>
       <c r="M6" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="36">
@@ -8477,7 +8594,7 @@
         <v>792</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36"/>
@@ -8490,10 +8607,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
@@ -8517,10 +8634,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>1226</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -8570,34 +8687,34 @@
         <v>146</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>1202</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>1203</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>1204</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>1205</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>1206</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>1207</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>1208</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8605,20 +8722,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C2" s="42">
         <v>42611</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>1149</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>1150</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2" s="43">
         <v>32</v>
@@ -8632,20 +8749,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="42">
         <v>42611</v>
       </c>
       <c r="D3" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>1149</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>1150</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H3" s="43">
         <v>19.5</v>
@@ -8659,23 +8776,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="42">
         <v>42611</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>1149</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>1150</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="34"/>
@@ -8686,23 +8803,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="42">
         <v>42611</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>1149</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>1150</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="34"/>
@@ -8713,20 +8830,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="42">
         <v>42611</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1149</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>1150</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H6" s="43">
         <v>29.1</v>
@@ -8740,20 +8857,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="42">
         <v>42629</v>
       </c>
       <c r="D7" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H7" s="43">
         <v>5.0999999999999996</v>
@@ -8767,20 +8884,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="42">
         <v>42629</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H8" s="43">
         <v>4.2</v>
@@ -8789,10 +8906,10 @@
         <v>92</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -8800,20 +8917,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="42">
         <v>42629</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H9" s="43">
         <v>4.3</v>
@@ -8821,7 +8938,7 @@
       <c r="I9" s="43"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -8829,20 +8946,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="42">
         <v>42629</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H10" s="43">
         <v>4.4000000000000004</v>
@@ -8856,20 +8973,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C11" s="42">
         <v>42629</v>
       </c>
       <c r="D11" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H11" s="43">
         <v>11.1</v>
@@ -8883,20 +9000,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="42">
         <v>42629</v>
       </c>
       <c r="D12" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H12" s="43">
         <v>16.100000000000001</v>
@@ -8910,20 +9027,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="42">
         <v>42629</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>1156</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>1157</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H13" s="43">
         <v>9.1</v>
@@ -8937,20 +9054,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C14" s="42">
         <v>42470</v>
       </c>
       <c r="D14" s="34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>1161</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>1162</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H14" s="43">
         <v>33</v>
@@ -8964,20 +9081,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C15" s="42">
         <v>42592</v>
       </c>
       <c r="D15" s="34" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>1166</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>1167</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H15" s="43">
         <v>10.1</v>
@@ -8991,20 +9108,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="42">
         <v>42592</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>1166</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>1167</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H16" s="43">
         <v>10.199999999999999</v>
@@ -9018,20 +9135,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="42">
         <v>42657</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>1168</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>1169</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H17" s="43">
         <v>7.2</v>
@@ -9045,20 +9162,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C18" s="42">
         <v>42662</v>
       </c>
       <c r="D18" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>1189</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>1190</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H18" s="43">
         <v>4.3</v>
@@ -9072,20 +9189,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C19" s="42">
         <v>42662</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>1189</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>1190</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H19" s="43">
         <v>4.4000000000000004</v>
@@ -9099,20 +9216,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C20" s="42">
         <v>42662</v>
       </c>
       <c r="D20" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>1189</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>1190</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H20" s="43">
         <v>5.25</v>
@@ -9126,32 +9243,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="42">
         <v>42662</v>
       </c>
       <c r="D21" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>1189</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>1190</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H21" s="43">
         <v>3.8</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9159,27 +9276,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C22" s="42">
         <v>42678</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>1191</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>1192</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H22" s="43">
         <v>3.9</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="34" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K22" s="34"/>
     </row>
@@ -9188,20 +9305,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C23" s="42">
         <v>42678</v>
       </c>
       <c r="D23" s="34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>1191</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>1192</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H23" s="43">
         <v>15.1</v>
@@ -9215,20 +9332,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C24" s="42">
         <v>42678</v>
       </c>
       <c r="D24" s="34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>1191</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>1192</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H24" s="43">
         <v>18.100000000000001</v>
@@ -9242,20 +9359,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="42">
         <v>42691</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>1193</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>1194</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H25" s="43">
         <v>14.1</v>
@@ -9269,20 +9386,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C26" s="42">
         <v>42691</v>
       </c>
       <c r="D26" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>1193</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>1194</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H26" s="43">
         <v>8.9</v>
@@ -9296,20 +9413,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C27" s="42">
         <v>42691</v>
       </c>
       <c r="D27" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>1193</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>1194</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H27" s="43">
         <v>15.1</v>
@@ -9323,20 +9440,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C28" s="42">
         <v>42719</v>
       </c>
       <c r="D28" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>1195</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>1196</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H28" s="43">
         <v>24.2</v>
@@ -9350,20 +9467,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C29" s="42">
         <v>42731</v>
       </c>
       <c r="D29" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>1197</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>1198</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H29" s="43">
         <v>34</v>
@@ -9377,20 +9494,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C30" s="42">
         <v>42732</v>
       </c>
       <c r="D30" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H30" s="43">
         <v>13.1</v>
@@ -9404,20 +9521,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C31" s="42">
         <v>42732</v>
       </c>
       <c r="D31" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H31" s="43">
         <v>13.7</v>
@@ -9431,20 +9548,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C32" s="42">
         <v>42732</v>
       </c>
       <c r="D32" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H32" s="43">
         <v>16.100000000000001</v>
@@ -9458,20 +9575,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C33" s="42">
         <v>42732</v>
       </c>
       <c r="D33" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H33" s="43">
         <v>14.1</v>
@@ -9485,20 +9602,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C34" s="42">
         <v>42732</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H34" s="43">
         <v>18.100000000000001</v>
@@ -9512,29 +9629,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C35" s="42">
         <v>42732</v>
       </c>
       <c r="D35" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H35" s="43">
         <v>3.8</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -9543,23 +9660,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C36" s="42">
         <v>42732</v>
       </c>
       <c r="D36" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E36" s="34" t="s">
         <v>1199</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>1200</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I36" s="43"/>
       <c r="J36" s="34"/>
@@ -9576,28 +9693,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24">
+    <row r="1" spans="1:12" ht="36">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -9625,11 +9744,17 @@
       <c r="I1" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="79" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="76" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9644,20 +9769,24 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>929</v>
+        <v>1309</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>4</v>
+        <v>1219</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>932</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="36">
+      <c r="K2" s="48" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9674,8 +9803,8 @@
       <c r="F3" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
+      <c r="G3" s="5" t="s">
+        <v>1219</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>931</v>
@@ -9684,10 +9813,16 @@
         <v>157</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>932</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -9698,30 +9833,39 @@
         <v>928</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
         <v>929</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>4</v>
+      <c r="G4" s="5" t="s">
+        <v>1219</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>932</v>
-      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3:L4" r:id="rId2" display="http://nestuat.tradesmartonline.in/"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9731,10 +9875,10 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9775,13 +9919,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="45" t="s">
         <v>1242</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>1243</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>156</v>
@@ -9790,19 +9934,19 @@
         <v>155</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>1349</v>
+        <v>1300</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="70" t="s">
-        <v>1348</v>
-      </c>
-      <c r="P1" s="70" t="s">
-        <v>1347</v>
+      <c r="O1" s="69" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="180">
@@ -9825,19 +9969,19 @@
         <v>84</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>1245</v>
+        <v>1331</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>1220</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1221</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>157</v>
@@ -9845,12 +9989,12 @@
       <c r="M2" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="69"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="132" hidden="1">
@@ -9874,7 +10018,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>4</v>
@@ -9905,25 +10049,25 @@
       <c r="C4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <v>3.2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="48" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>1220</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>1221</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>157</v>
@@ -9931,10 +10075,10 @@
       <c r="M4" s="52"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24">
@@ -9957,19 +10101,19 @@
         <v>88</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="H5" t="s">
-        <v>1247</v>
+        <v>1312</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>1221</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>157</v>
@@ -9979,10 +10123,10 @@
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="36" hidden="1">
@@ -10006,7 +10150,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>4</v>
@@ -10043,19 +10187,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>1279</v>
+        <v>1339</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>1249</v>
+        <v>1332</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>157</v>
@@ -10065,10 +10209,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="60">
@@ -10091,19 +10235,19 @@
         <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1280</v>
+        <v>1340</v>
       </c>
       <c r="H8" t="s">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>157</v>
@@ -10113,10 +10257,10 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="192">
@@ -10139,32 +10283,32 @@
         <v>95</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1281</v>
+        <v>1341</v>
       </c>
       <c r="H9" t="s">
-        <v>1251</v>
+        <v>1334</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>1352</v>
+        <v>1303</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>226</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="36">
@@ -10187,19 +10331,19 @@
         <v>97</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1282</v>
+        <v>1342</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>1269</v>
+        <v>1335</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>157</v>
@@ -10207,10 +10351,10 @@
       <c r="M10" s="14"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="216">
@@ -10233,19 +10377,19 @@
         <v>100</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1283</v>
+        <v>1343</v>
       </c>
       <c r="H11" t="s">
-        <v>1252</v>
+        <v>1336</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>157</v>
@@ -10255,10 +10399,10 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="24">
@@ -10281,19 +10425,19 @@
         <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1284</v>
+        <v>1344</v>
       </c>
       <c r="H12" t="s">
-        <v>1253</v>
+        <v>1330</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>157</v>
@@ -10301,10 +10445,10 @@
       <c r="M12" s="14"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="36">
@@ -10327,19 +10471,19 @@
         <v>104</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1285</v>
+        <v>1345</v>
       </c>
       <c r="H13" t="s">
-        <v>1254</v>
+        <v>1329</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>157</v>
@@ -10347,10 +10491,10 @@
       <c r="M13" s="14"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" hidden="1">
@@ -10405,19 +10549,19 @@
         <v>108</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1299</v>
+        <v>1346</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>1261</v>
+        <v>1328</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>157</v>
@@ -10425,10 +10569,10 @@
       <c r="M15" s="14"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="36">
@@ -10451,19 +10595,19 @@
         <v>5</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>1286</v>
+        <v>1347</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>1262</v>
+        <v>1327</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>157</v>
@@ -10471,10 +10615,10 @@
       <c r="M16" s="14"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="36">
@@ -10497,19 +10641,19 @@
         <v>111</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1287</v>
+        <v>1348</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>1255</v>
+        <v>1326</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>157</v>
@@ -10517,10 +10661,10 @@
       <c r="M17" s="14"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24">
@@ -10543,19 +10687,19 @@
         <v>113</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>1288</v>
+        <v>1349</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>1265</v>
+        <v>1320</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>157</v>
@@ -10563,10 +10707,10 @@
       <c r="M18" s="14"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24">
@@ -10589,19 +10733,19 @@
         <v>115</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1289</v>
+        <v>1350</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>1263</v>
+        <v>1319</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>157</v>
@@ -10609,10 +10753,10 @@
       <c r="M19" s="14"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="36">
@@ -10635,19 +10779,19 @@
         <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1290</v>
+        <v>1351</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>1264</v>
+        <v>1318</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>157</v>
@@ -10655,10 +10799,10 @@
       <c r="M20" s="14"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="24">
@@ -10681,19 +10825,19 @@
         <v>120</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1291</v>
+        <v>1352</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>1256</v>
+        <v>1317</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>157</v>
@@ -10701,10 +10845,10 @@
       <c r="M21" s="14"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="24">
@@ -10727,19 +10871,19 @@
         <v>122</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1292</v>
+        <v>1353</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>1267</v>
+        <v>1316</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>157</v>
@@ -10747,10 +10891,10 @@
       <c r="M22" s="14"/>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="36">
@@ -10773,19 +10917,19 @@
         <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1298</v>
+        <v>1354</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>1266</v>
+        <v>1315</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>157</v>
@@ -10793,10 +10937,10 @@
       <c r="M23" s="14"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="36">
@@ -10819,19 +10963,19 @@
         <v>127</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1293</v>
+        <v>1355</v>
       </c>
       <c r="H24" t="s">
-        <v>1257</v>
+        <v>1314</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>157</v>
@@ -10839,10 +10983,10 @@
       <c r="M24" s="14"/>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="24">
@@ -10865,19 +11009,19 @@
         <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1294</v>
+        <v>1356</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>1268</v>
+        <v>1321</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>157</v>
@@ -10885,10 +11029,10 @@
       <c r="M25" s="14"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="24">
@@ -10911,19 +11055,19 @@
         <v>132</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1295</v>
+        <v>1357</v>
       </c>
       <c r="H26" t="s">
-        <v>1258</v>
+        <v>1322</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>157</v>
@@ -10931,10 +11075,10 @@
       <c r="M26" s="14"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="36">
@@ -10957,19 +11101,19 @@
         <v>744</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1296</v>
+        <v>1358</v>
       </c>
       <c r="H27" t="s">
-        <v>1259</v>
+        <v>1323</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>157</v>
@@ -10977,10 +11121,10 @@
       <c r="M27" s="14"/>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="24">
@@ -10991,31 +11135,31 @@
         <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="D28" s="5">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="H28" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>157</v>
@@ -11023,10 +11167,10 @@
       <c r="M28" s="14"/>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="24" hidden="1">
@@ -11104,55 +11248,55 @@
       <c r="F31" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="60" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>1260</v>
+      <c r="G31" s="78" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>1325</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J31" s="59" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M31" s="61"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="16"/>
       <c r="O31" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H19" r:id="rId3"/>
-    <hyperlink ref="H20" r:id="rId4"/>
-    <hyperlink ref="H17" r:id="rId5"/>
-    <hyperlink ref="H18" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H22" r:id="rId9"/>
-    <hyperlink ref="H25" r:id="rId10"/>
-    <hyperlink ref="H10" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="H2" r:id="rId13"/>
-    <hyperlink ref="G2" r:id="rId14"/>
-    <hyperlink ref="G7" r:id="rId15"/>
-    <hyperlink ref="G16" r:id="rId16"/>
-    <hyperlink ref="G17" r:id="rId17"/>
-    <hyperlink ref="G18" r:id="rId18"/>
-    <hyperlink ref="G31" r:id="rId19"/>
-    <hyperlink ref="H4" r:id="rId20"/>
+    <hyperlink ref="H15" r:id="rId1" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/CheckTansactionPassword"/>
+    <hyperlink ref="H16" r:id="rId2" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/PlaceOrder"/>
+    <hyperlink ref="H19" r:id="rId3" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/CancelOrder"/>
+    <hyperlink ref="H20" r:id="rId4" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/OrderHistory&#10;"/>
+    <hyperlink ref="H17" r:id="rId5" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/OrderBook"/>
+    <hyperlink ref="H18" r:id="rId6" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/ModifyOrder"/>
+    <hyperlink ref="H21" r:id="rId7" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/TradeBook"/>
+    <hyperlink ref="H23" r:id="rId8" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/PositionBook"/>
+    <hyperlink ref="H22" r:id="rId9" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Holding"/>
+    <hyperlink ref="H25" r:id="rId10" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/UserProfile"/>
+    <hyperlink ref="H10" r:id="rId11" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/DefaultLogin"/>
+    <hyperlink ref="H7" r:id="rId12" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Login2FA&#10;"/>
+    <hyperlink ref="G2" r:id="rId13" display="http://52.43.99.16:8000/get_initial_token/"/>
+    <hyperlink ref="G7" r:id="rId14" display="http://52.43.99.16:8000/login_2fa/"/>
+    <hyperlink ref="G16" r:id="rId15" display="http://127.0.0.1:8000/place_order/"/>
+    <hyperlink ref="G17" r:id="rId16" display="http://52.43.99.16:8000/order_book/"/>
+    <hyperlink ref="G18" r:id="rId17" display="http://52.43.99.16:8000/modify_order/"/>
+    <hyperlink ref="G31" r:id="rId18" display="http://127.0.0.1:8000/logout/"/>
+    <hyperlink ref="H4" r:id="rId19"/>
+    <hyperlink ref="H2" r:id="rId20" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/GetInitialKey"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
@@ -11166,8 +11310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11205,10 +11349,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="24"/>
@@ -11219,7 +11363,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>851</v>
@@ -11235,10 +11379,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="25"/>
@@ -11265,17 +11409,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1037</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36">
@@ -11283,13 +11427,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -11299,13 +11443,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -11315,13 +11459,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -11331,13 +11475,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -11347,13 +11491,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -11391,7 +11535,7 @@
         <v>877</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
@@ -11399,13 +11543,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="37"/>
@@ -11433,13 +11577,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -11449,7 +11593,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>835</v>
@@ -11467,13 +11611,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -11483,13 +11627,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -11499,10 +11643,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="24"/>
@@ -11513,10 +11657,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="24"/>
@@ -11527,17 +11671,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24">
@@ -11579,13 +11723,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -11625,13 +11769,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -11641,13 +11785,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -11657,13 +11801,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -11725,13 +11869,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -11845,13 +11989,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -11861,13 +12005,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -11877,13 +12021,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -11893,7 +12037,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>832</v>
@@ -11911,13 +12055,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -11927,7 +12071,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>873</v>
@@ -11997,13 +12141,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -12013,13 +12157,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -12029,13 +12173,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -12077,13 +12221,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -12093,13 +12237,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -12141,13 +12285,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>959</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -12157,13 +12301,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -12173,15 +12317,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="36">
@@ -12205,13 +12349,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>976</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -12221,13 +12365,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -12237,17 +12381,17 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="36">
@@ -12271,13 +12415,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -12305,17 +12449,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="36">
@@ -12341,13 +12485,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -12357,13 +12501,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -12373,13 +12517,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
@@ -13357,11 +13501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13406,7 +13550,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>54</v>
@@ -13415,10 +13559,10 @@
         <v>56</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -13442,13 +13586,13 @@
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:12" ht="24" hidden="1">
+    <row r="3" spans="1:12" ht="24">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -13474,7 +13618,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" ht="24" hidden="1">
+    <row r="4" spans="1:12" ht="24">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -13500,7 +13644,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -13528,7 +13672,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -13554,7 +13698,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -13578,13 +13722,13 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="14"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -13608,13 +13752,13 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="14"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -13638,13 +13782,13 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="14"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -13672,11 +13816,11 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -13704,7 +13848,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -13732,7 +13876,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -13762,7 +13906,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -13786,13 +13930,13 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="14"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -13814,13 +13958,13 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="14"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -13842,13 +13986,13 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="14"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="24" hidden="1">
+    <row r="17" spans="1:12" ht="24">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -13870,13 +14014,13 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="14"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -13900,13 +14044,13 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -13934,7 +14078,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -13957,16 +14101,16 @@
         <v>63</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="14"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="24" hidden="1">
+    <row r="21" spans="1:12" ht="24">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -13994,7 +14138,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="24" hidden="1">
+    <row r="22" spans="1:12" ht="24">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -14022,7 +14166,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="24" hidden="1">
+    <row r="23" spans="1:12" ht="24">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -14039,7 +14183,7 @@
         <v>329</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>61</v>
@@ -14050,7 +14194,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -14078,7 +14222,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -14095,7 +14239,7 @@
         <v>338</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>834</v>
@@ -14106,7 +14250,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -14134,7 +14278,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -14148,13 +14292,13 @@
         <v>339</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1338</v>
+        <v>1289</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1339</v>
+        <v>1290</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -14162,7 +14306,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="24" hidden="1">
+    <row r="28" spans="1:12" ht="24">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -14186,13 +14330,13 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="14"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="24" hidden="1">
+    <row r="29" spans="1:12" ht="24">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -14216,13 +14360,13 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="14"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="24" hidden="1">
+    <row r="30" spans="1:12" ht="24">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -14249,10 +14393,10 @@
       <c r="J30" s="6"/>
       <c r="K30" s="14"/>
       <c r="L30" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -14276,15 +14420,15 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="14"/>
       <c r="L31" s="6" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="24" hidden="1">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="24">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -14308,15 +14452,15 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="14"/>
       <c r="L32" s="6" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="36" hidden="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="36">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -14340,15 +14484,15 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="14"/>
       <c r="L33" s="6" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="48" hidden="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="48">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -14371,18 +14515,18 @@
         <v>63</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="70"/>
       <c r="L34" s="6" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -14393,7 +14537,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -14405,18 +14549,18 @@
         <v>63</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="14"/>
       <c r="L35" s="6" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="24" hidden="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="24">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -14439,18 +14583,18 @@
         <v>63</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>1305</v>
+        <v>1258</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="14"/>
       <c r="L36" s="6" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="24" hidden="1">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="24">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -14473,18 +14617,18 @@
         <v>63</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>1355</v>
+        <v>1306</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="14"/>
       <c r="L37" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -14508,7 +14652,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="14"/>
@@ -14516,7 +14660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -14540,15 +14684,15 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J39" s="6"/>
+        <v>1308</v>
+      </c>
+      <c r="J39" s="71"/>
       <c r="K39" s="14"/>
       <c r="L39" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -14572,13 +14716,13 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="14"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="72"/>
       <c r="L40" s="6" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="24" hidden="1">
+    <row r="41" spans="1:12" ht="24">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -14602,15 +14746,15 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J41" s="6"/>
+        <v>1308</v>
+      </c>
+      <c r="J41" s="73"/>
       <c r="K41" s="14"/>
       <c r="L41" s="6" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -14627,22 +14771,22 @@
         <v>27</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="14"/>
       <c r="L42" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -14659,22 +14803,22 @@
         <v>29</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="71"/>
       <c r="I43" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="14"/>
       <c r="L43" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -14700,7 +14844,7 @@
         <v>289</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>749</v>
@@ -14710,7 +14854,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -14739,10 +14883,10 @@
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="24" hidden="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="24">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -14768,17 +14912,17 @@
         <v>891</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="24" hidden="1">
+    <row r="47" spans="1:12" ht="24">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -14804,7 +14948,7 @@
         <v>891</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>891</v>
@@ -14814,7 +14958,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -14831,22 +14975,22 @@
         <v>37</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="14"/>
       <c r="L48" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="24" hidden="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="24">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -14866,9 +15010,9 @@
       <c r="G49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="6" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="14"/>
@@ -14876,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:16">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -14903,10 +15047,10 @@
       <c r="J50" s="6"/>
       <c r="K50" s="14"/>
       <c r="L50" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -14933,10 +15077,10 @@
       <c r="J51" s="6"/>
       <c r="K51" s="14"/>
       <c r="L51" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="24" hidden="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="24">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -14970,7 +15114,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -14994,13 +15138,13 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="14"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -15028,7 +15172,7 @@
       <c r="K54" s="14"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -15056,7 +15200,7 @@
       <c r="K55" s="14"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -15084,7 +15228,7 @@
       <c r="K56" s="14"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -15107,16 +15251,16 @@
         <v>63</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="14"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -15144,7 +15288,7 @@
       <c r="K58" s="14"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -15164,7 +15308,7 @@
         <v>895</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -15172,7 +15316,7 @@
       <c r="K59" s="14"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -15208,7 +15352,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -15236,7 +15380,7 @@
       <c r="K61" s="14"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -15253,20 +15397,20 @@
         <v>27</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="14"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -15290,13 +15434,13 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="14"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -15320,13 +15464,13 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="14"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -15343,20 +15487,20 @@
         <v>29</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="14"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -15379,14 +15523,14 @@
         <v>63</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>1305</v>
+        <v>1258</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="14"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -15414,7 +15558,7 @@
       <c r="K67" s="14"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -15442,7 +15586,7 @@
       <c r="K68" s="14"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -15465,16 +15609,16 @@
         <v>63</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>1356</v>
+        <v>1307</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="14"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -15498,13 +15642,13 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="14"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -15521,7 +15665,7 @@
         <v>426</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>63</v>
@@ -15534,7 +15678,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="24" hidden="1">
+    <row r="72" spans="1:12" ht="24">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -15558,13 +15702,13 @@
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="14"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -15592,7 +15736,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -15618,7 +15762,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -15646,7 +15790,7 @@
       <c r="K75" s="14"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -15670,13 +15814,13 @@
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="14"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -15699,16 +15843,16 @@
         <v>63</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>1356</v>
+        <v>1307</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="14"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -15736,7 +15880,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -15759,14 +15903,14 @@
         <v>63</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="14"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -15794,7 +15938,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -15822,7 +15966,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -15846,7 +15990,7 @@
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="14"/>
@@ -15876,7 +16020,7 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="14"/>
@@ -15910,7 +16054,7 @@
       <c r="K84" s="14"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -15938,7 +16082,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:12">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -15955,20 +16099,20 @@
         <v>416</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="14"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:12">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -15992,13 +16136,13 @@
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="14"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:12">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -16071,14 +16215,14 @@
         <v>416</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="14"/>
@@ -16110,7 +16254,7 @@
         <v>779</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="14"/>
@@ -16144,7 +16288,7 @@
       <c r="K92" s="14"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -16168,13 +16312,13 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="14"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:12">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -16191,20 +16335,20 @@
         <v>416</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="14"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" hidden="1">
+    <row r="95" spans="1:12">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -16232,7 +16376,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" hidden="1">
+    <row r="96" spans="1:12">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -16249,20 +16393,20 @@
         <v>416</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="14"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:12">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -16279,20 +16423,20 @@
         <v>416</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="14"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:12">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -16320,7 +16464,7 @@
       <c r="K98" s="14"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:12">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -16337,20 +16481,20 @@
         <v>416</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="14"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -16373,14 +16517,14 @@
         <v>63</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="14"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -16408,18 +16552,18 @@
       <c r="K101" s="14"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12">
       <c r="A102" s="18">
         <v>101</v>
       </c>
-      <c r="B102" s="62" t="s">
-        <v>1326</v>
+      <c r="B102" s="61" t="s">
+        <v>1279</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1328</v>
+        <v>1280</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>15</v>
@@ -16434,18 +16578,18 @@
       <c r="K102" s="14"/>
       <c r="L102" s="22"/>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12">
       <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C103" s="6">
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1329</v>
+        <v>1281</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>26</v>
@@ -16460,21 +16604,21 @@
       <c r="K103" s="14"/>
       <c r="L103" s="22"/>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12">
       <c r="A104" s="18">
         <v>103</v>
       </c>
-      <c r="B104" s="62" t="s">
-        <v>1326</v>
+      <c r="B104" s="61" t="s">
+        <v>1279</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1330</v>
+        <v>1282</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>1333</v>
+        <v>1285</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
@@ -16486,18 +16630,18 @@
       <c r="K104" s="14"/>
       <c r="L104" s="22"/>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12">
       <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C105" s="6">
         <v>4</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1331</v>
+        <v>1283</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>16</v>
@@ -16512,18 +16656,18 @@
       <c r="K105" s="14"/>
       <c r="L105" s="22"/>
     </row>
-    <row r="106" spans="1:12" ht="24" hidden="1">
+    <row r="106" spans="1:12" ht="24">
       <c r="A106" s="18">
         <v>105</v>
       </c>
-      <c r="B106" s="62" t="s">
-        <v>1326</v>
+      <c r="B106" s="61" t="s">
+        <v>1279</v>
       </c>
       <c r="C106" s="6">
         <v>5</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1332</v>
+        <v>1284</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>377</v>
@@ -16538,14 +16682,14 @@
       <c r="K106" s="14"/>
       <c r="L106" s="22"/>
     </row>
-    <row r="107" spans="1:12" hidden="1">
-      <c r="A107" s="63">
+    <row r="107" spans="1:12">
+      <c r="A107" s="62">
         <v>101</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="64">
+      <c r="C107" s="63">
         <v>1</v>
       </c>
       <c r="D107" s="22" t="s">
@@ -16561,8 +16705,8 @@
         <v>63</v>
       </c>
       <c r="H107" s="22"/>
-      <c r="I107" s="22" t="s">
-        <v>1220</v>
+      <c r="I107" s="6" t="s">
+        <v>1219</v>
       </c>
       <c r="J107" s="22"/>
       <c r="K107" s="17"/>
@@ -16589,7 +16733,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H251" sqref="H251"/>
+      <selection pane="bottomRight" activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16659,7 +16803,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>63</v>
@@ -16684,7 +16828,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1325</v>
+        <v>1278</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>149</v>
@@ -16740,7 +16884,7 @@
         <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>63</v>
@@ -16794,7 +16938,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>63</v>
@@ -16852,7 +16996,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -16908,7 +17052,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>63</v>
@@ -16933,7 +17077,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1300</v>
+        <v>1253</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>176</v>
@@ -16964,7 +17108,7 @@
         <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>63</v>
@@ -17122,7 +17266,7 @@
         <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>63</v>
@@ -17374,10 +17518,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1274</v>
+        <v>1250</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1274</v>
+        <v>1250</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -17428,7 +17572,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>63</v>
@@ -17603,7 +17747,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J37" s="56"/>
       <c r="K37" s="24"/>
@@ -17625,7 +17769,7 @@
         <v>239</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>63</v>
@@ -17652,7 +17796,7 @@
         <v>241</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>63</v>
@@ -17684,7 +17828,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
@@ -17736,7 +17880,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -17758,7 +17902,7 @@
         <v>249</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>63</v>
@@ -17782,7 +17926,7 @@
         <v>250</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>892</v>
@@ -17819,7 +17963,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -17846,7 +17990,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -17875,7 +18019,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -17904,7 +18048,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
@@ -17926,7 +18070,7 @@
         <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>63</v>
@@ -17984,7 +18128,7 @@
         <v>67</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>63</v>
@@ -18013,7 +18157,7 @@
         <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>63</v>
@@ -18042,7 +18186,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>63</v>
@@ -18071,7 +18215,7 @@
         <v>342</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>780</v>
@@ -18098,7 +18242,7 @@
         <v>67</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>63</v>
@@ -18127,7 +18271,7 @@
         <v>345</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>63</v>
@@ -18156,7 +18300,7 @@
         <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>63</v>
@@ -18212,7 +18356,7 @@
         <v>67</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>63</v>
@@ -18322,7 +18466,7 @@
         <v>27</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>62</v>
@@ -18376,7 +18520,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>61</v>
@@ -18403,7 +18547,7 @@
         <v>29</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>62</v>
@@ -18565,7 +18709,7 @@
         <v>364</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>780</v>
@@ -18646,7 +18790,7 @@
         <v>367</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>62</v>
@@ -18673,7 +18817,7 @@
         <v>369</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>61</v>
@@ -18700,7 +18844,7 @@
         <v>371</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>63</v>
@@ -18727,7 +18871,7 @@
         <v>373</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>63</v>
@@ -18754,7 +18898,7 @@
         <v>375</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>780</v>
@@ -18808,7 +18952,7 @@
         <v>379</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>61</v>
@@ -18916,7 +19060,7 @@
         <v>384</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>61</v>
@@ -18943,7 +19087,7 @@
         <v>386</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>61</v>
@@ -18970,7 +19114,7 @@
         <v>388</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>61</v>
@@ -18997,7 +19141,7 @@
         <v>390</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>61</v>
@@ -19257,10 +19401,10 @@
         <v>410</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="24"/>
@@ -19284,14 +19428,14 @@
         <v>411</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J99" s="24"/>
       <c r="K99" s="24"/>
@@ -19313,7 +19457,7 @@
         <v>413</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>61</v>
@@ -19392,7 +19536,7 @@
         <v>416</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>63</v>
@@ -19413,10 +19557,10 @@
         <v>46</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="E104" s="57" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="F104" s="57"/>
       <c r="G104" s="1" t="s">
@@ -19438,10 +19582,10 @@
         <v>47</v>
       </c>
       <c r="D105" s="53" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="E105" s="53" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="1" t="s">
@@ -19463,10 +19607,10 @@
         <v>48</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="F106" s="57"/>
       <c r="G106" s="1" t="s">
@@ -19488,10 +19632,10 @@
         <v>49</v>
       </c>
       <c r="D107" s="53" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="F107" s="53"/>
       <c r="G107" s="1" t="s">
@@ -19519,7 +19663,7 @@
         <v>67</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>63</v>
@@ -19575,7 +19719,7 @@
         <v>67</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>63</v>
@@ -19631,7 +19775,7 @@
         <v>67</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>63</v>
@@ -19687,7 +19831,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>62</v>
@@ -19816,10 +19960,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1321</v>
+        <v>1274</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1321</v>
+        <v>1274</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
@@ -19841,10 +19985,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
@@ -19891,10 +20035,10 @@
         <v>11</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1322</v>
+        <v>1275</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1323</v>
+        <v>1276</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
@@ -19916,10 +20060,10 @@
         <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
@@ -19941,10 +20085,10 @@
         <v>13</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
@@ -19966,10 +20110,10 @@
         <v>14</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1324</v>
+        <v>1277</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1324</v>
+        <v>1277</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
@@ -19991,10 +20135,10 @@
         <v>15</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1" t="s">
@@ -20022,7 +20166,7 @@
         <v>67</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>63</v>
@@ -20132,7 +20276,7 @@
         <v>438</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>62</v>
@@ -20240,7 +20384,7 @@
         <v>440</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>63</v>
@@ -20321,7 +20465,7 @@
         <v>27</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>62</v>
@@ -20508,7 +20652,7 @@
         <v>454</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>144</v>
@@ -20535,7 +20679,7 @@
         <v>456</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>458</v>
@@ -20589,7 +20733,7 @@
         <v>359</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>63</v>
@@ -20616,7 +20760,7 @@
         <v>371</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>63</v>
@@ -20643,7 +20787,7 @@
         <v>458</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>458</v>
@@ -20670,7 +20814,7 @@
         <v>460</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>780</v>
@@ -20724,7 +20868,7 @@
         <v>463</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>61</v>
@@ -20805,7 +20949,7 @@
         <v>416</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>63</v>
@@ -20822,14 +20966,14 @@
       <c r="B157" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C157" s="66">
+      <c r="C157" s="65">
         <v>31</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1" t="s">
@@ -20847,14 +20991,14 @@
       <c r="B158" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C158" s="66">
+      <c r="C158" s="65">
         <v>32</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1" t="s">
@@ -20872,14 +21016,14 @@
       <c r="B159" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C159" s="66">
+      <c r="C159" s="65">
         <v>33</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1" t="s">
@@ -20897,14 +21041,14 @@
       <c r="B160" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C160" s="67">
+      <c r="C160" s="66">
         <v>34</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9" t="s">
@@ -20922,17 +21066,17 @@
       <c r="B161" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C161" s="67">
+      <c r="C161" s="66">
         <v>35</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1341</v>
+        <v>1292</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>1341</v>
+        <v>1292</v>
       </c>
       <c r="F161" s="9"/>
-      <c r="G161" s="68" t="s">
+      <c r="G161" s="67" t="s">
         <v>63</v>
       </c>
       <c r="H161" s="9"/>
@@ -20947,7 +21091,7 @@
       <c r="B162" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C162" s="67">
+      <c r="C162" s="66">
         <v>36</v>
       </c>
       <c r="D162" s="9" t="s">
@@ -20982,7 +21126,7 @@
         <v>67</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>63</v>
@@ -21065,7 +21209,7 @@
         <v>577</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>61</v>
@@ -21092,7 +21236,7 @@
         <v>579</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>62</v>
@@ -21146,7 +21290,7 @@
         <v>581</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>63</v>
@@ -21173,7 +21317,7 @@
         <v>583</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>62</v>
@@ -21200,7 +21344,7 @@
         <v>585</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>62</v>
@@ -21254,7 +21398,7 @@
         <v>587</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>144</v>
@@ -21286,7 +21430,7 @@
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J174" s="24"/>
       <c r="K174" s="24"/>
@@ -21313,7 +21457,7 @@
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J175" s="24"/>
       <c r="K175" s="24"/>
@@ -21340,7 +21484,7 @@
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J176" s="24"/>
       <c r="K176" s="24"/>
@@ -21367,7 +21511,7 @@
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J177" s="24"/>
       <c r="K177" s="24"/>
@@ -21394,7 +21538,7 @@
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J178" s="24"/>
       <c r="K178" s="24"/>
@@ -21421,7 +21565,7 @@
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J179" s="24"/>
       <c r="K179" s="24"/>
@@ -21448,7 +21592,7 @@
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J180" s="24"/>
       <c r="K180" s="24"/>
@@ -21475,7 +21619,7 @@
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J181" s="24"/>
       <c r="K181" s="24"/>
@@ -21502,7 +21646,7 @@
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J182" s="24"/>
       <c r="K182" s="24"/>
@@ -21529,7 +21673,7 @@
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J183" s="24"/>
       <c r="K183" s="24"/>
@@ -21556,7 +21700,7 @@
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J184" s="24"/>
       <c r="K184" s="24"/>
@@ -21583,7 +21727,7 @@
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J185" s="24"/>
       <c r="K185" s="24"/>
@@ -21610,7 +21754,7 @@
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J186" s="24"/>
       <c r="K186" s="24"/>
@@ -21637,7 +21781,7 @@
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J187" s="24"/>
       <c r="K187" s="24"/>
@@ -21688,7 +21832,7 @@
         <v>619</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>61</v>
@@ -21857,7 +22001,7 @@
         <v>47</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J195" s="24"/>
       <c r="K195" s="24"/>
@@ -21884,7 +22028,7 @@
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J196" s="24"/>
       <c r="K196" s="24"/>
@@ -21913,7 +22057,7 @@
       </c>
       <c r="H197" s="1"/>
       <c r="I197" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J197" s="24"/>
       <c r="K197" s="24"/>
@@ -21929,10 +22073,10 @@
         <v>36</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1317</v>
+        <v>1270</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
@@ -21954,10 +22098,10 @@
         <v>37</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1318</v>
+        <v>1271</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
@@ -21979,10 +22123,10 @@
         <v>38</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1" t="s">
@@ -22004,10 +22148,10 @@
         <v>39</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9" t="s">
@@ -22029,10 +22173,10 @@
         <v>40</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1340</v>
+        <v>1291</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1340</v>
+        <v>1291</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9" t="s">
@@ -22067,7 +22211,7 @@
         <v>67</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J203" s="24"/>
       <c r="K203" s="24"/>
@@ -22116,7 +22260,7 @@
         <v>633</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>62</v>
@@ -22143,7 +22287,7 @@
         <v>635</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>62</v>
@@ -22170,7 +22314,7 @@
         <v>637</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>62</v>
@@ -22197,7 +22341,7 @@
         <v>639</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>62</v>
@@ -22224,7 +22368,7 @@
         <v>641</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>62</v>
@@ -22251,7 +22395,7 @@
         <v>643</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>62</v>
@@ -22278,7 +22422,7 @@
         <v>645</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>62</v>
@@ -22305,7 +22449,7 @@
         <v>647</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>62</v>
@@ -22332,7 +22476,7 @@
         <v>649</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>62</v>
@@ -22359,7 +22503,7 @@
         <v>650</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>62</v>
@@ -22380,7 +22524,7 @@
         <v>13</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1311</v>
+        <v>1264</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -22403,7 +22547,7 @@
         <v>14</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1312</v>
+        <v>1265</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -22426,7 +22570,7 @@
         <v>15</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1313</v>
+        <v>1266</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -22455,7 +22599,7 @@
         <v>67</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>63</v>
@@ -22659,7 +22803,7 @@
         <v>666</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>63</v>
@@ -22711,7 +22855,7 @@
         <v>669</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>63</v>
@@ -22738,7 +22882,7 @@
         <v>671</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>63</v>
@@ -22890,7 +23034,7 @@
         <v>682</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>63</v>
@@ -22917,7 +23061,7 @@
         <v>684</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>63</v>
@@ -22944,7 +23088,7 @@
         <v>686</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>63</v>
@@ -22971,7 +23115,7 @@
         <v>688</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>63</v>
@@ -23177,7 +23321,7 @@
         <v>416</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>63</v>
@@ -23254,7 +23398,7 @@
         <v>660</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>61</v>
@@ -23331,7 +23475,7 @@
         <v>708</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>63</v>
@@ -23358,7 +23502,7 @@
         <v>710</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>63</v>
@@ -23560,7 +23704,7 @@
         <v>725</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>63</v>
@@ -23612,7 +23756,7 @@
         <v>729</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>63</v>
@@ -23783,10 +23927,10 @@
         <v>36</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1302</v>
+        <v>1255</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1303</v>
+        <v>1256</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1" t="s">
@@ -23814,7 +23958,7 @@
         <v>67</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>63</v>
@@ -23843,7 +23987,7 @@
         <v>15</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>63</v>
@@ -23924,7 +24068,7 @@
         <v>359</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>63</v>
@@ -23993,7 +24137,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
@@ -24005,7 +24149,7 @@
         <v>67</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>63</v>
@@ -24022,19 +24166,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C279" s="9">
         <v>2</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>1334</v>
+        <v>1286</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>1336</v>
+        <v>1288</v>
       </c>
       <c r="G279" s="9" t="s">
         <v>63</v>
@@ -24061,7 +24205,7 @@
         <v>67</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>63</v>
@@ -24087,10 +24231,10 @@
         <v>467</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1342</v>
+        <v>1293</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>315</v>
@@ -24113,13 +24257,13 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1344</v>
+        <v>1295</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1345</v>
+        <v>1296</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1346</v>
+        <v>1297</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>315</v>
@@ -24148,7 +24292,7 @@
         <v>67</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>63</v>
@@ -24167,7 +24311,7 @@
       <c r="B284" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C284" s="67">
+      <c r="C284" s="66">
         <v>2</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -24202,7 +24346,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24408,7 +24552,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>63</v>
@@ -24452,7 +24596,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>63</v>
@@ -24473,7 +24617,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>63</v>
@@ -24494,7 +24638,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>63</v>
@@ -24515,7 +24659,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>63</v>
@@ -24536,7 +24680,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>63</v>
@@ -24557,7 +24701,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>63</v>
@@ -24578,7 +24722,7 @@
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>63</v>
@@ -24622,7 +24766,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>63</v>
@@ -24643,7 +24787,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>63</v>
@@ -24664,7 +24808,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>63</v>
@@ -24685,7 +24829,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>63</v>
@@ -24706,7 +24850,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>63</v>
@@ -24727,7 +24871,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>63</v>
@@ -24771,7 +24915,7 @@
         <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>63</v>
@@ -24792,7 +24936,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>63</v>
@@ -24813,7 +24957,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>63</v>
@@ -24834,7 +24978,7 @@
         <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>63</v>
@@ -24855,7 +24999,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>63</v>
@@ -24876,7 +25020,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>63</v>
@@ -24964,7 +25108,7 @@
         <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>63</v>
@@ -24985,7 +25129,7 @@
         <v>71</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>63</v>
@@ -25029,7 +25173,7 @@
         <v>71</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>63</v>
@@ -25050,7 +25194,7 @@
         <v>71</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>63</v>
@@ -25071,7 +25215,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>63</v>
@@ -25092,7 +25236,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>63</v>
@@ -25136,7 +25280,7 @@
         <v>71</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>63</v>
@@ -25157,7 +25301,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>63</v>
@@ -25178,7 +25322,7 @@
         <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>63</v>
@@ -25199,7 +25343,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>63</v>
@@ -25220,7 +25364,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>63</v>
@@ -25241,7 +25385,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>63</v>
@@ -25262,7 +25406,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>63</v>
@@ -25283,7 +25427,7 @@
         <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>63</v>
@@ -25304,7 +25448,7 @@
         <v>71</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>63</v>
@@ -25325,7 +25469,7 @@
         <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>63</v>
@@ -25346,7 +25490,7 @@
         <v>71</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>63</v>
@@ -25367,7 +25511,7 @@
         <v>71</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>63</v>
@@ -25388,7 +25532,7 @@
         <v>71</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>63</v>
@@ -25409,7 +25553,7 @@
         <v>71</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>63</v>
@@ -25430,7 +25574,7 @@
         <v>71</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>63</v>
@@ -25474,7 +25618,7 @@
         <v>71</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>63</v>
@@ -25495,7 +25639,7 @@
         <v>71</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>63</v>
@@ -25516,7 +25660,7 @@
         <v>71</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>63</v>
@@ -25537,7 +25681,7 @@
         <v>71</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>63</v>
@@ -25581,7 +25725,7 @@
         <v>71</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>63</v>
@@ -25602,7 +25746,7 @@
         <v>71</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>63</v>
@@ -25623,7 +25767,7 @@
         <v>71</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>63</v>
@@ -25644,7 +25788,7 @@
         <v>71</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>63</v>
@@ -25688,7 +25832,7 @@
         <v>71</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>63</v>
@@ -25709,7 +25853,7 @@
         <v>71</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>63</v>
@@ -25730,7 +25874,7 @@
         <v>71</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>63</v>
@@ -25774,7 +25918,7 @@
         <v>71</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>63</v>
@@ -25795,7 +25939,7 @@
         <v>71</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>63</v>
@@ -25816,7 +25960,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>63</v>
@@ -25860,7 +26004,7 @@
         <v>71</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>63</v>
@@ -25881,7 +26025,7 @@
         <v>71</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>63</v>
@@ -25902,7 +26046,7 @@
         <v>71</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>63</v>
@@ -25923,7 +26067,7 @@
         <v>71</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>63</v>
@@ -25967,7 +26111,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>63</v>
@@ -25988,7 +26132,7 @@
         <v>71</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>63</v>
@@ -26009,14 +26153,14 @@
         <v>71</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -26039,7 +26183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -26053,14 +26197,14 @@
         <v>71</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -26074,14 +26218,14 @@
         <v>71</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -26095,7 +26239,7 @@
         <v>71</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>63</v>
@@ -26139,7 +26283,7 @@
         <v>71</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>63</v>
@@ -26160,7 +26304,7 @@
         <v>71</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>63</v>
@@ -26181,7 +26325,7 @@
         <v>71</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>63</v>
@@ -26225,7 +26369,7 @@
         <v>71</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>63</v>
@@ -26246,7 +26390,7 @@
         <v>71</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>63</v>
@@ -26267,7 +26411,7 @@
         <v>71</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>63</v>
@@ -26311,7 +26455,7 @@
         <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>63</v>
@@ -26332,7 +26476,7 @@
         <v>71</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>63</v>
@@ -26353,7 +26497,7 @@
         <v>71</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>63</v>
@@ -26397,7 +26541,7 @@
         <v>71</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>63</v>
@@ -26418,7 +26562,7 @@
         <v>71</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>63</v>
@@ -26462,7 +26606,7 @@
         <v>71</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>63</v>
@@ -26483,7 +26627,7 @@
         <v>71</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>63</v>
@@ -26504,7 +26648,7 @@
         <v>71</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>63</v>
@@ -26525,7 +26669,7 @@
         <v>71</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>63</v>
@@ -26546,7 +26690,7 @@
         <v>71</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>63</v>
@@ -26564,7 +26708,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>1275</v>
+        <v>1251</v>
       </c>
       <c r="E110" s="53"/>
       <c r="F110" s="1" t="s">
@@ -26609,7 +26753,7 @@
         <v>71</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>63</v>
@@ -26630,7 +26774,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>63</v>
@@ -26651,7 +26795,7 @@
         <v>71</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>63</v>
@@ -26663,7 +26807,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -26686,7 +26830,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C116" s="9">
         <v>2</v>
@@ -26695,7 +26839,7 @@
         <v>71</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>63</v>
@@ -26707,7 +26851,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="C117" s="9">
         <v>2</v>
@@ -26716,7 +26860,7 @@
         <v>71</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1335</v>
+        <v>1287</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>63</v>
@@ -26760,13 +26904,13 @@
         <v>747</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>1271</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -26785,7 +26929,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26980,7 +27124,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1273</v>
+        <v>1249</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>857</v>
@@ -27001,7 +27145,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1272</v>
+        <v>1248</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>858</v>
@@ -27043,7 +27187,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1353</v>
+        <v>1304</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>288</v>
@@ -27142,7 +27286,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1304</v>
+        <v>1257</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -27163,7 +27307,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1304</v>
+        <v>1257</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -27184,7 +27328,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1304</v>
+        <v>1257</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
@@ -27211,10 +27355,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1305</v>
+        <v>1258</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1308</v>
+        <v>1261</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>63</v>
@@ -27232,10 +27376,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1306</v>
+        <v>1259</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1309</v>
+        <v>1262</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>63</v>
@@ -27253,10 +27397,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1307</v>
+        <v>1260</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1310</v>
+        <v>1263</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>63</v>
@@ -28760,7 +28904,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1314</v>
+        <v>1267</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
@@ -28779,7 +28923,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1315</v>
+        <v>1268</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
@@ -28798,7 +28942,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1316</v>
+        <v>1269</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
@@ -29618,7 +29762,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29632,16 +29776,16 @@
         <v>146</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1142</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>1143</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>1144</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>1145</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>59</v>
@@ -29652,7 +29796,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C2" s="40">
         <v>1</v>
@@ -29661,7 +29805,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>63</v>
@@ -29672,7 +29816,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C3" s="39">
         <v>2</v>
@@ -29681,7 +29825,7 @@
         <v>891</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>63</v>
@@ -29752,7 +29896,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>1301</v>
+        <v>1254</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>

--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">INPUT!$A$1:$K$107</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SUCCESS!$A$1:$K$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SUCCESS!$A$1:$K$371</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1443">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -4022,9 +4022,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -4184,6 +4181,252 @@
   </si>
   <si>
     <t>http://127.0.0.1:8000/</t>
+  </si>
+  <si>
+    <t>N,Y</t>
+  </si>
+  <si>
+    <t>loginid</t>
+  </si>
+  <si>
+    <t>login Id</t>
+  </si>
+  <si>
+    <t>clientid</t>
+  </si>
+  <si>
+    <t>isin2</t>
+  </si>
+  <si>
+    <t>cncrealizedmtomprsnt</t>
+  </si>
+  <si>
+    <t>scripbasketmargin</t>
+  </si>
+  <si>
+    <t>exposuremargin</t>
+  </si>
+  <si>
+    <t>adhocmargin</t>
+  </si>
+  <si>
+    <t>spanmargin</t>
+  </si>
+  <si>
+    <t>cncsellcreditpresent</t>
+  </si>
+  <si>
+    <t>mfamount</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>nfospreadbenefit</t>
+  </si>
+  <si>
+    <t>elm</t>
+  </si>
+  <si>
+    <t>directcollateralvalue</t>
+  </si>
+  <si>
+    <t>branchadhoc</t>
+  </si>
+  <si>
+    <t>cncmarginused</t>
+  </si>
+  <si>
+    <t>cncunrealizedmtomprsnt</t>
+  </si>
+  <si>
+    <t>varmargin</t>
+  </si>
+  <si>
+    <t>adhocscripmargin</t>
+  </si>
+  <si>
+    <t>mfssamountused</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>cdsspreadbenefit</t>
+  </si>
+  <si>
+    <t>grossexposurevalue</t>
+  </si>
+  <si>
+    <t>notionalcash</t>
+  </si>
+  <si>
+    <t>unrealisedmtom</t>
+  </si>
+  <si>
+    <t>realisedmtom</t>
+  </si>
+  <si>
+    <t>valueindelivery</t>
+  </si>
+  <si>
+    <t>debits</t>
+  </si>
+  <si>
+    <t>premiumpresent</t>
+  </si>
+  <si>
+    <t>cncbrokerageprsnt</t>
+  </si>
+  <si>
+    <t>brokerageprsnt</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>bankaccid4</t>
+  </si>
+  <si>
+    <t>bankaccid5</t>
+  </si>
+  <si>
+    <t>bankaccid6</t>
+  </si>
+  <si>
+    <t>dpid2</t>
+  </si>
+  <si>
+    <t>dpid3</t>
+  </si>
+  <si>
+    <t>bbname2</t>
+  </si>
+  <si>
+    <t>bbname3</t>
+  </si>
+  <si>
+    <t>bbname4</t>
+  </si>
+  <si>
+    <t>bbname6</t>
+  </si>
+  <si>
+    <t>bankaccid2</t>
+  </si>
+  <si>
+    <t>bankaccid3</t>
+  </si>
+  <si>
+    <t>bankname4</t>
+  </si>
+  <si>
+    <t>bankname5</t>
+  </si>
+  <si>
+    <t>bankname6</t>
+  </si>
+  <si>
+    <t>bankname2</t>
+  </si>
+  <si>
+    <t>bankname3</t>
+  </si>
+  <si>
+    <t>bbname5</t>
+  </si>
+  <si>
+    <t>isin1</t>
+  </si>
+  <si>
+    <t>Series1</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>ordersource</t>
+  </si>
+  <si>
+    <t>sipindicator</t>
+  </si>
+  <si>
+    <t>reporttype</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>orderentrytime</t>
+  </si>
+  <si>
+    <t>marketprotectionpercentage</t>
+  </si>
+  <si>
+    <t>ordergenerationtype</t>
+  </si>
+  <si>
+    <t>symbolname</t>
+  </si>
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>netSellamt</t>
+  </si>
+  <si>
+    <t>netbuyqty</t>
+  </si>
+  <si>
+    <t>netbuyamt</t>
+  </si>
+  <si>
+    <t>unrealisedprofitloss</t>
+  </si>
+  <si>
+    <t>realisedprofitloss</t>
+  </si>
+  <si>
+    <t>netsellqty</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>averageprice</t>
+  </si>
+  <si>
+    <t>exchangetimestamp</t>
+  </si>
+  <si>
+    <t>triggerprice</t>
+  </si>
+  <si>
+    <t>rejectionreason</t>
+  </si>
+  <si>
+    <t>productcode</t>
+  </si>
+  <si>
+    <t>disclosedqty</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>nestordernumber</t>
+  </si>
+  <si>
+    <t>nestreqid</t>
+  </si>
+  <si>
+    <t>customerfirm</t>
+  </si>
+  <si>
+    <t>filldateandtime</t>
+  </si>
+  <si>
+    <t>exchangeorderid</t>
   </si>
 </sst>
 </file>
@@ -4193,7 +4436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4279,6 +4522,11 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -4459,7 +4707,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4689,6 +4937,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8046,11 +8309,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K284" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="A1:K284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K371" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="A1:K371">
     <filterColumn colId="1">
       <filters>
-        <filter val="AccountInfo"/>
+        <filter val="Order History"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6"/>
@@ -8079,6 +8342,7 @@
     <filterColumn colId="1">
       <filters>
         <filter val="AccountInfo"/>
+        <filter val="ModifyOrder"/>
         <filter val="TradeBook"/>
       </filters>
     </filterColumn>
@@ -8097,9 +8361,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G133" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:G133">
-    <filterColumn colId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G136" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:G136">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="HoldingVal"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="#" dataDxfId="16"/>
@@ -9695,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9769,7 +10037,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1219</v>
@@ -9780,10 +10048,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="14"/>
       <c r="K2" s="48" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="L2" s="77" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72">
@@ -9816,10 +10084,10 @@
         <v>932</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
@@ -9850,10 +10118,10 @@
         <v>934</v>
       </c>
       <c r="K4" s="75" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -9874,11 +10142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9969,10 +10237,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>1219</v>
@@ -10101,10 +10369,10 @@
         <v>88</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>1219</v>
@@ -10187,10 +10455,10 @@
         <v>91</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1219</v>
@@ -10235,10 +10503,10 @@
         <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1219</v>
@@ -10283,10 +10551,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>1219</v>
@@ -10331,10 +10599,10 @@
         <v>97</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>1219</v>
@@ -10377,10 +10645,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H11" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>1219</v>
@@ -10425,10 +10693,10 @@
         <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H12" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>1219</v>
@@ -10471,10 +10739,10 @@
         <v>104</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>1219</v>
@@ -10549,10 +10817,10 @@
         <v>108</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>1219</v>
@@ -10595,10 +10863,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>1219</v>
@@ -10641,10 +10909,10 @@
         <v>111</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>1219</v>
@@ -10687,10 +10955,10 @@
         <v>113</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>1219</v>
@@ -10733,10 +11001,10 @@
         <v>115</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>1219</v>
@@ -10779,10 +11047,10 @@
         <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>1219</v>
@@ -10825,10 +11093,10 @@
         <v>120</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>1219</v>
@@ -10871,10 +11139,10 @@
         <v>122</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>1219</v>
@@ -10917,10 +11185,10 @@
         <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>1219</v>
@@ -10963,10 +11231,10 @@
         <v>127</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>1219</v>
@@ -11009,10 +11277,10 @@
         <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>1219</v>
@@ -11055,10 +11323,10 @@
         <v>132</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H26" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>1219</v>
@@ -11101,10 +11369,10 @@
         <v>744</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H27" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>1219</v>
@@ -11147,10 +11415,10 @@
         <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H28" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>1219</v>
@@ -11249,10 +11517,10 @@
         <v>134</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I31" s="59" t="s">
         <v>1219</v>
@@ -11310,8 +11578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13502,10 +13770,10 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13813,7 +14081,9 @@
       <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="14" t="s">
         <v>1238</v>
@@ -13901,7 +14171,9 @@
       <c r="H13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="14"/>
       <c r="L13" s="6"/>
@@ -14420,7 +14692,7 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="14"/>
@@ -14484,7 +14756,7 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="14"/>
@@ -14518,7 +14790,7 @@
         <v>1305</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="70"/>
@@ -14552,7 +14824,7 @@
         <v>1227</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="14"/>
@@ -14586,7 +14858,7 @@
         <v>1258</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="14"/>
@@ -14620,7 +14892,7 @@
         <v>1306</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="14"/>
@@ -14652,7 +14924,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="14"/>
@@ -14684,7 +14956,7 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J39" s="71"/>
       <c r="K39" s="14"/>
@@ -14715,7 +14987,9 @@
         <v>63</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J40" s="71"/>
       <c r="K40" s="72"/>
       <c r="L40" s="6" t="s">
@@ -14746,7 +15020,7 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J41" s="73"/>
       <c r="K41" s="14"/>
@@ -14778,7 +15052,7 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="14"/>
@@ -14810,7 +15084,7 @@
       </c>
       <c r="H43" s="71"/>
       <c r="I43" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="14"/>
@@ -14844,7 +15118,7 @@
         <v>289</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>749</v>
@@ -14877,7 +15151,9 @@
         <v>144</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J45" s="6" t="s">
         <v>157</v>
       </c>
@@ -14909,10 +15185,10 @@
         <v>63</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>891</v>
+        <v>1361</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="14" t="s">
@@ -14948,7 +15224,7 @@
         <v>891</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>891</v>
@@ -14982,7 +15258,7 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="14"/>
@@ -15012,7 +15288,7 @@
       </c>
       <c r="H49" s="71"/>
       <c r="I49" s="6" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="14"/>
@@ -16727,13 +17003,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K284"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H241" sqref="H241"/>
+      <selection pane="bottomRight" activeCell="A355" sqref="A355:XFD371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19758,7 +20034,7 @@
       <c r="J111" s="24"/>
       <c r="K111" s="24"/>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -19787,7 +20063,7 @@
       <c r="J112" s="24"/>
       <c r="K112" s="24"/>
     </row>
-    <row r="113" spans="1:11" ht="24" hidden="1">
+    <row r="113" spans="1:11" ht="24">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -19814,7 +20090,7 @@
       <c r="J113" s="24"/>
       <c r="K113" s="24"/>
     </row>
-    <row r="114" spans="1:11" ht="24" hidden="1">
+    <row r="114" spans="1:11" ht="24">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -19841,7 +20117,7 @@
       <c r="J114" s="24"/>
       <c r="K114" s="24"/>
     </row>
-    <row r="115" spans="1:11" ht="24" hidden="1">
+    <row r="115" spans="1:11" ht="24">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -19868,7 +20144,7 @@
       <c r="J115" s="24"/>
       <c r="K115" s="24"/>
     </row>
-    <row r="116" spans="1:11" ht="24" hidden="1">
+    <row r="116" spans="1:11" ht="24">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -19895,7 +20171,7 @@
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
     </row>
-    <row r="117" spans="1:11" ht="24" hidden="1">
+    <row r="117" spans="1:11" ht="24">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -19922,7 +20198,7 @@
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -19949,7 +20225,7 @@
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -19974,7 +20250,7 @@
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -19999,7 +20275,7 @@
       <c r="J120" s="24"/>
       <c r="K120" s="24"/>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -20024,7 +20300,7 @@
       <c r="J121" s="24"/>
       <c r="K121" s="24"/>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -20042,14 +20318,14 @@
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
-        <v>63</v>
+        <v>780</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -20074,7 +20350,7 @@
       <c r="J123" s="24"/>
       <c r="K123" s="24"/>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -20099,7 +20375,7 @@
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -20124,7 +20400,7 @@
       <c r="J125" s="24"/>
       <c r="K125" s="24"/>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -22188,82 +22464,80 @@
       <c r="K202" s="25"/>
     </row>
     <row r="203" spans="1:11" hidden="1">
-      <c r="A203" s="1">
+      <c r="A203" s="80">
+        <v>18</v>
+      </c>
+      <c r="B203" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" s="80">
+        <v>7</v>
+      </c>
+      <c r="D203" s="80" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E203" s="80" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F203" s="80"/>
+      <c r="G203" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H203" s="80"/>
+      <c r="I203" s="81"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="81"/>
+    </row>
+    <row r="204" spans="1:11" hidden="1">
+      <c r="A204" s="1">
         <v>202</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C203" s="1">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I203" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J203" s="24"/>
-      <c r="K203" s="24"/>
-    </row>
-    <row r="204" spans="1:11" ht="24" hidden="1">
-      <c r="A204" s="1">
-        <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C204" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>629</v>
+        <v>66</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>892</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F204" s="1"/>
       <c r="G204" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H204" s="1"/>
-      <c r="I204" s="24"/>
+      <c r="H204" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J204" s="24"/>
       <c r="K204" s="24"/>
     </row>
     <row r="205" spans="1:11" ht="24" hidden="1">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C205" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1029</v>
+        <v>892</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="24"/>
@@ -22272,22 +22546,22 @@
     </row>
     <row r="206" spans="1:11" ht="24" hidden="1">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C206" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>62</v>
@@ -22299,22 +22573,22 @@
     </row>
     <row r="207" spans="1:11" ht="24" hidden="1">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C207" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>62</v>
@@ -22326,22 +22600,22 @@
     </row>
     <row r="208" spans="1:11" ht="24" hidden="1">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C208" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>62</v>
@@ -22353,22 +22627,22 @@
     </row>
     <row r="209" spans="1:11" ht="24" hidden="1">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C209" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>62</v>
@@ -22380,22 +22654,22 @@
     </row>
     <row r="210" spans="1:11" ht="24" hidden="1">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C210" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>62</v>
@@ -22407,22 +22681,22 @@
     </row>
     <row r="211" spans="1:11" ht="24" hidden="1">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C211" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>62</v>
@@ -22434,22 +22708,22 @@
     </row>
     <row r="212" spans="1:11" ht="24" hidden="1">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C212" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>62</v>
@@ -22461,22 +22735,22 @@
     </row>
     <row r="213" spans="1:11" ht="24" hidden="1">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C213" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>62</v>
@@ -22488,22 +22762,22 @@
     </row>
     <row r="214" spans="1:11" ht="24" hidden="1">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C214" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>62</v>
@@ -22513,21 +22787,25 @@
       <c r="J214" s="24"/>
       <c r="K214" s="24"/>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11" ht="24" hidden="1">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C215" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1059</v>
+      </c>
       <c r="G215" s="1" t="s">
         <v>62</v>
       </c>
@@ -22538,16 +22816,16 @@
     </row>
     <row r="216" spans="1:11" hidden="1">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C216" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -22561,16 +22839,16 @@
     </row>
     <row r="217" spans="1:11" hidden="1">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C217" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -22584,73 +22862,71 @@
     </row>
     <row r="218" spans="1:11" hidden="1">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C218" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>1053</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
       <c r="G218" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H218" s="1"/>
       <c r="I218" s="24"/>
       <c r="J218" s="24"/>
       <c r="K218" s="24"/>
     </row>
     <row r="219" spans="1:11" hidden="1">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>651</v>
+        <v>66</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F219" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1053</v>
+      </c>
       <c r="G219" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H219" s="1"/>
+      <c r="H219" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I219" s="24"/>
       <c r="J219" s="24"/>
       <c r="K219" s="24"/>
     </row>
     <row r="220" spans="1:11" hidden="1">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C220" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1" t="s">
@@ -22663,19 +22939,19 @@
     </row>
     <row r="221" spans="1:11" hidden="1">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C221" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1" t="s">
@@ -22688,19 +22964,19 @@
     </row>
     <row r="222" spans="1:11" hidden="1">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C222" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
@@ -22713,23 +22989,23 @@
     </row>
     <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C223" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="24"/>
@@ -22738,23 +23014,23 @@
     </row>
     <row r="224" spans="1:11" hidden="1">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C224" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H224" s="1"/>
       <c r="I224" s="24"/>
@@ -22763,19 +23039,19 @@
     </row>
     <row r="225" spans="1:11" hidden="1">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C225" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1" t="s">
@@ -22786,25 +23062,23 @@
       <c r="J225" s="24"/>
       <c r="K225" s="24"/>
     </row>
-    <row r="226" spans="1:11" ht="24" hidden="1">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C226" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>1065</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="F226" s="1"/>
       <c r="G226" s="1" t="s">
         <v>63</v>
       </c>
@@ -22813,23 +23087,25 @@
       <c r="J226" s="24"/>
       <c r="K226" s="24"/>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11" ht="24" hidden="1">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C227" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>244</v>
+        <v>665</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F227" s="1"/>
+        <v>666</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>1065</v>
+      </c>
       <c r="G227" s="1" t="s">
         <v>63</v>
       </c>
@@ -22840,23 +23116,21 @@
     </row>
     <row r="228" spans="1:11" hidden="1">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C228" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>668</v>
+        <v>244</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>1062</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="F228" s="1"/>
       <c r="G228" s="1" t="s">
         <v>63</v>
       </c>
@@ -22867,22 +23141,22 @@
     </row>
     <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C229" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>63</v>
@@ -22894,21 +23168,23 @@
     </row>
     <row r="230" spans="1:11" hidden="1">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C230" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F230" s="1"/>
+        <v>671</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1063</v>
+      </c>
       <c r="G230" s="1" t="s">
         <v>63</v>
       </c>
@@ -22919,23 +23195,23 @@
     </row>
     <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C231" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="24"/>
@@ -22944,23 +23220,23 @@
     </row>
     <row r="232" spans="1:11" hidden="1">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C232" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>318</v>
+        <v>674</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>256</v>
+        <v>675</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="24"/>
@@ -22969,44 +23245,44 @@
     </row>
     <row r="233" spans="1:11" hidden="1">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C233" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>676</v>
+        <v>318</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>677</v>
+        <v>256</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H233" s="1"/>
-      <c r="I233" s="6"/>
+      <c r="I233" s="24"/>
       <c r="J233" s="24"/>
       <c r="K233" s="24"/>
     </row>
     <row r="234" spans="1:11" hidden="1">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C234" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1" t="s">
@@ -23017,48 +23293,46 @@
       <c r="J234" s="24"/>
       <c r="K234" s="24"/>
     </row>
-    <row r="235" spans="1:11" ht="24">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C235" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>1065</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="F235" s="1"/>
       <c r="G235" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H235" s="1"/>
-      <c r="I235" s="24"/>
+      <c r="I235" s="6"/>
       <c r="J235" s="24"/>
       <c r="K235" s="24"/>
     </row>
-    <row r="236" spans="1:11" ht="24">
+    <row r="236" spans="1:11" ht="24" hidden="1">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C236" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>1065</v>
@@ -23071,21 +23345,21 @@
       <c r="J236" s="24"/>
       <c r="K236" s="24"/>
     </row>
-    <row r="237" spans="1:11" ht="24">
+    <row r="237" spans="1:11" ht="24" hidden="1">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C237" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>1065</v>
@@ -23098,79 +23372,81 @@
       <c r="J237" s="24"/>
       <c r="K237" s="24"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" ht="24" hidden="1">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C238" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H238" s="1"/>
       <c r="I238" s="24"/>
       <c r="J238" s="24"/>
       <c r="K238" s="24"/>
     </row>
-    <row r="239" spans="1:11" ht="24">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C239" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>827</v>
+        <v>1053</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H239" s="1"/>
+      <c r="H239" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I239" s="24"/>
       <c r="J239" s="24"/>
       <c r="K239" s="24"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" ht="24" hidden="1">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C240" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>255</v>
+        <v>689</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F240" s="1"/>
+        <v>690</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="G240" s="1" t="s">
         <v>63</v>
       </c>
@@ -23179,21 +23455,21 @@
       <c r="J240" s="24"/>
       <c r="K240" s="24"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C241" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>691</v>
+        <v>255</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>692</v>
+        <v>256</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1" t="s">
@@ -23204,71 +23480,71 @@
       <c r="J241" s="24"/>
       <c r="K241" s="24"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C242" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="24"/>
       <c r="J242" s="24"/>
       <c r="K242" s="24"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C243" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="24"/>
       <c r="J243" s="24"/>
       <c r="K243" s="24"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C244" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1" t="s">
@@ -23279,21 +23555,21 @@
       <c r="J244" s="24"/>
       <c r="K244" s="24"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C245" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1" t="s">
@@ -23304,25 +23580,23 @@
       <c r="J245" s="24"/>
       <c r="K245" s="24"/>
     </row>
-    <row r="246" spans="1:11" ht="24">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C246" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>415</v>
+        <v>699</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>1064</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F246" s="1"/>
       <c r="G246" s="1" t="s">
         <v>63</v>
       </c>
@@ -23331,23 +23605,25 @@
       <c r="J246" s="24"/>
       <c r="K246" s="24"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" ht="24" hidden="1">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C247" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>701</v>
+        <v>415</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F247" s="1"/>
+        <v>416</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1064</v>
+      </c>
       <c r="G247" s="1" t="s">
         <v>63</v>
       </c>
@@ -23356,21 +23632,21 @@
       <c r="J247" s="24"/>
       <c r="K247" s="24"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C248" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1" t="s">
@@ -23381,73 +23657,73 @@
       <c r="J248" s="24"/>
       <c r="K248" s="24"/>
     </row>
-    <row r="249" spans="1:11" ht="24">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C249" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>1066</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="F249" s="1"/>
       <c r="G249" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H249" s="1"/>
       <c r="I249" s="24"/>
       <c r="J249" s="24"/>
       <c r="K249" s="24"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" ht="24" hidden="1">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C250" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F250" s="1"/>
+        <v>660</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1066</v>
+      </c>
       <c r="G250" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="24"/>
       <c r="J250" s="24"/>
       <c r="K250" s="24"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C251" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
@@ -23458,25 +23734,23 @@
       <c r="J251" s="24"/>
       <c r="K251" s="24"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C252" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>1062</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
         <v>63</v>
       </c>
@@ -23485,24 +23759,24 @@
       <c r="J252" s="24"/>
       <c r="K252" s="24"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C253" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>63</v>
@@ -23512,23 +23786,25 @@
       <c r="J253" s="24"/>
       <c r="K253" s="24"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C254" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="F254" s="1"/>
+        <v>710</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1063</v>
+      </c>
       <c r="G254" s="1" t="s">
         <v>63</v>
       </c>
@@ -23537,21 +23813,21 @@
       <c r="J254" s="24"/>
       <c r="K254" s="24"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C255" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1" t="s">
@@ -23562,21 +23838,21 @@
       <c r="J255" s="24"/>
       <c r="K255" s="24"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C256" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
@@ -23587,21 +23863,21 @@
       <c r="J256" s="24"/>
       <c r="K256" s="24"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C257" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
@@ -23612,21 +23888,21 @@
       <c r="J257" s="24"/>
       <c r="K257" s="24"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C258" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1" t="s">
@@ -23637,21 +23913,21 @@
       <c r="J258" s="24"/>
       <c r="K258" s="24"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C259" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1" t="s">
@@ -23662,21 +23938,21 @@
       <c r="J259" s="24"/>
       <c r="K259" s="24"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C260" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1" t="s">
@@ -23687,25 +23963,23 @@
       <c r="J260" s="24"/>
       <c r="K260" s="24"/>
     </row>
-    <row r="261" spans="1:11" ht="24">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C261" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>1066</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
         <v>63</v>
       </c>
@@ -23714,23 +23988,25 @@
       <c r="J261" s="24"/>
       <c r="K261" s="24"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" ht="24" hidden="1">
       <c r="A262" s="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C262" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="F262" s="1"/>
+        <v>725</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1066</v>
+      </c>
       <c r="G262" s="1" t="s">
         <v>63</v>
       </c>
@@ -23739,25 +24015,23 @@
       <c r="J262" s="24"/>
       <c r="K262" s="24"/>
     </row>
-    <row r="263" spans="1:11" ht="24">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C263" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>1066</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="F263" s="1"/>
       <c r="G263" s="1" t="s">
         <v>63</v>
       </c>
@@ -23766,23 +24040,25 @@
       <c r="J263" s="24"/>
       <c r="K263" s="24"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" ht="24" hidden="1">
       <c r="A264" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C264" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F264" s="1"/>
+        <v>729</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1066</v>
+      </c>
       <c r="G264" s="1" t="s">
         <v>63</v>
       </c>
@@ -23791,21 +24067,21 @@
       <c r="J264" s="24"/>
       <c r="K264" s="24"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C265" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1" t="s">
@@ -23816,21 +24092,21 @@
       <c r="J265" s="24"/>
       <c r="K265" s="24"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C266" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1" t="s">
@@ -23841,21 +24117,21 @@
       <c r="J266" s="24"/>
       <c r="K266" s="24"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C267" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1" t="s">
@@ -23866,21 +24142,21 @@
       <c r="J267" s="24"/>
       <c r="K267" s="24"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" s="1">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C268" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1" t="s">
@@ -23891,21 +24167,21 @@
       <c r="J268" s="24"/>
       <c r="K268" s="24"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" s="1">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C269" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1" t="s">
@@ -23916,25 +24192,25 @@
       <c r="J269" s="24"/>
       <c r="K269" s="24"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C270" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1255</v>
+        <v>740</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1256</v>
+        <v>741</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="24"/>
@@ -23943,78 +24219,76 @@
     </row>
     <row r="271" spans="1:11" hidden="1">
       <c r="A271" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>742</v>
+        <v>131</v>
       </c>
       <c r="C271" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>66</v>
+        <v>1255</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>1053</v>
-      </c>
+        <v>1256</v>
+      </c>
+      <c r="F271" s="1"/>
       <c r="G271" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H271" s="1"/>
       <c r="I271" s="24"/>
       <c r="J271" s="24"/>
       <c r="K271" s="24"/>
     </row>
     <row r="272" spans="1:11" hidden="1">
       <c r="A272" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C272" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H272" s="1"/>
+      <c r="H272" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I272" s="24"/>
       <c r="J272" s="24"/>
       <c r="K272" s="24"/>
     </row>
-    <row r="273" spans="1:11" ht="24" hidden="1">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C273" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>829</v>
+        <v>1067</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>63</v>
@@ -24026,22 +24300,22 @@
     </row>
     <row r="274" spans="1:11" ht="24" hidden="1">
       <c r="A274" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C274" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>895</v>
+        <v>829</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>63</v>
@@ -24053,22 +24327,22 @@
     </row>
     <row r="275" spans="1:11" ht="24" hidden="1">
       <c r="A275" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C275" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1003</v>
+        <v>895</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>63</v>
@@ -24080,22 +24354,22 @@
     </row>
     <row r="276" spans="1:11" ht="24" hidden="1">
       <c r="A276" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C276" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>829</v>
+        <v>1003</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>63</v>
@@ -24107,22 +24381,22 @@
     </row>
     <row r="277" spans="1:11" ht="24" hidden="1">
       <c r="A277" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C277" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>746</v>
+        <v>422</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>892</v>
+        <v>829</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>63</v>
@@ -24132,115 +24406,113 @@
       <c r="J277" s="24"/>
       <c r="K277" s="24"/>
     </row>
-    <row r="278" spans="1:11" ht="0.75" hidden="1" customHeight="1">
+    <row r="278" spans="1:11" ht="24" hidden="1">
       <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>1279</v>
+        <v>276</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="C278" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>66</v>
+        <v>746</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>67</v>
+        <v>348</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1053</v>
+        <v>892</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H278" s="1"/>
       <c r="I278" s="24"/>
       <c r="J278" s="24"/>
       <c r="K278" s="24"/>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11" ht="0.75" hidden="1" customHeight="1">
       <c r="A279" s="1">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="C279" s="9">
-        <v>2</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E279" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F279" s="9" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G279" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H279" s="9"/>
-      <c r="I279" s="25"/>
-      <c r="J279" s="25"/>
-      <c r="K279" s="25"/>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I279" s="24"/>
+      <c r="J279" s="24"/>
+      <c r="K279" s="24"/>
     </row>
     <row r="280" spans="1:11" hidden="1">
       <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C280" s="9">
+        <v>2</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H280" s="9"/>
+      <c r="I280" s="25"/>
+      <c r="J280" s="25"/>
+      <c r="K280" s="25"/>
+    </row>
+    <row r="281" spans="1:11" hidden="1">
+      <c r="A281" s="1">
         <v>279</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C280" s="1">
-        <v>1</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I280" s="24"/>
-      <c r="J280" s="24"/>
-      <c r="K280" s="24"/>
-    </row>
-    <row r="281" spans="1:11" ht="24" hidden="1">
-      <c r="A281" s="1">
-        <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>467</v>
+        <v>66</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1293</v>
+        <v>67</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1294</v>
+        <v>1053</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>467</v>
+        <v>67</v>
       </c>
       <c r="I281" s="24"/>
       <c r="J281" s="24"/>
@@ -24248,57 +24520,57 @@
     </row>
     <row r="282" spans="1:11" ht="24" hidden="1">
       <c r="A282" s="1">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C282" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1295</v>
+        <v>467</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>315</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>573</v>
+        <v>467</v>
       </c>
       <c r="I282" s="24"/>
       <c r="J282" s="24"/>
       <c r="K282" s="24"/>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11" ht="24" hidden="1">
       <c r="A283" s="1">
-        <v>282</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>133</v>
+        <v>281</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C283" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>66</v>
+        <v>1295</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>67</v>
+        <v>1296</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1053</v>
+        <v>1297</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>67</v>
+        <v>573</v>
       </c>
       <c r="I283" s="24"/>
       <c r="J283" s="24"/>
@@ -24306,28 +24578,1871 @@
     </row>
     <row r="284" spans="1:11" hidden="1">
       <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I284" s="24"/>
+      <c r="J284" s="24"/>
+      <c r="K284" s="24"/>
+    </row>
+    <row r="285" spans="1:11" hidden="1">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B285" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C284" s="66">
+      <c r="C285" s="66">
         <v>2</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D285" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="E284" s="9" t="s">
+      <c r="E285" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H284" s="9"/>
-      <c r="I284" s="25"/>
-      <c r="J284" s="25"/>
-      <c r="K284" s="25"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H285" s="9"/>
+      <c r="I285" s="25"/>
+      <c r="J285" s="25"/>
+      <c r="K285" s="25"/>
+    </row>
+    <row r="286" spans="1:11" hidden="1">
+      <c r="A286" s="80">
+        <v>29</v>
+      </c>
+      <c r="B286" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C286" s="80">
+        <v>13</v>
+      </c>
+      <c r="D286" s="80" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E286" s="80" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F286" s="80"/>
+      <c r="G286" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H286" s="80"/>
+      <c r="I286" s="81"/>
+      <c r="J286" s="81"/>
+      <c r="K286" s="81"/>
+    </row>
+    <row r="287" spans="1:11" hidden="1">
+      <c r="A287" s="1">
+        <v>282</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C287" s="80">
+        <v>4</v>
+      </c>
+      <c r="D287" s="80" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E287" s="80"/>
+      <c r="F287" s="80"/>
+      <c r="G287" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H287" s="80"/>
+      <c r="I287" s="81"/>
+      <c r="J287" s="81"/>
+      <c r="K287" s="81"/>
+    </row>
+    <row r="288" spans="1:11" hidden="1">
+      <c r="A288" s="1">
+        <v>217</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C288" s="1">
+        <v>16</v>
+      </c>
+      <c r="D288" s="80" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E288" s="80"/>
+      <c r="F288" s="80"/>
+      <c r="G288" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H288" s="80"/>
+      <c r="I288" s="81"/>
+      <c r="J288" s="81"/>
+      <c r="K288" s="81"/>
+    </row>
+    <row r="289" spans="1:11" hidden="1">
+      <c r="A289" s="80"/>
+      <c r="B289" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C289" s="80">
+        <v>17</v>
+      </c>
+      <c r="D289" s="80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E289" s="80"/>
+      <c r="F289" s="80"/>
+      <c r="G289" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H289" s="80"/>
+      <c r="I289" s="81"/>
+      <c r="J289" s="81"/>
+      <c r="K289" s="81"/>
+    </row>
+    <row r="290" spans="1:11" hidden="1">
+      <c r="A290" s="80"/>
+      <c r="B290" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C290" s="80">
+        <v>18</v>
+      </c>
+      <c r="D290" s="80" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E290" s="80"/>
+      <c r="F290" s="80"/>
+      <c r="G290" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H290" s="80"/>
+      <c r="I290" s="81"/>
+      <c r="J290" s="81"/>
+      <c r="K290" s="81"/>
+    </row>
+    <row r="291" spans="1:11" hidden="1">
+      <c r="A291" s="80"/>
+      <c r="B291" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C291" s="80">
+        <v>19</v>
+      </c>
+      <c r="D291" s="80" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E291" s="80"/>
+      <c r="F291" s="80"/>
+      <c r="G291" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H291" s="80"/>
+      <c r="I291" s="81"/>
+      <c r="J291" s="81"/>
+      <c r="K291" s="81"/>
+    </row>
+    <row r="292" spans="1:11" hidden="1">
+      <c r="A292" s="80"/>
+      <c r="B292" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C292" s="80">
+        <v>20</v>
+      </c>
+      <c r="D292" s="80" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E292" s="80"/>
+      <c r="F292" s="80"/>
+      <c r="G292" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H292" s="80"/>
+      <c r="I292" s="81"/>
+      <c r="J292" s="81"/>
+      <c r="K292" s="81"/>
+    </row>
+    <row r="293" spans="1:11" hidden="1">
+      <c r="A293" s="80"/>
+      <c r="B293" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C293" s="80">
+        <v>21</v>
+      </c>
+      <c r="D293" s="80" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E293" s="80"/>
+      <c r="F293" s="80"/>
+      <c r="G293" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H293" s="80"/>
+      <c r="I293" s="81"/>
+      <c r="J293" s="81"/>
+      <c r="K293" s="81"/>
+    </row>
+    <row r="294" spans="1:11" hidden="1">
+      <c r="A294" s="80"/>
+      <c r="B294" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C294" s="80">
+        <v>22</v>
+      </c>
+      <c r="D294" s="80" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E294" s="80"/>
+      <c r="F294" s="80"/>
+      <c r="G294" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H294" s="80"/>
+      <c r="I294" s="81"/>
+      <c r="J294" s="81"/>
+      <c r="K294" s="81"/>
+    </row>
+    <row r="295" spans="1:11" hidden="1">
+      <c r="A295" s="80"/>
+      <c r="B295" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C295" s="80">
+        <v>23</v>
+      </c>
+      <c r="D295" s="80" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E295" s="80"/>
+      <c r="F295" s="80"/>
+      <c r="G295" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H295" s="80"/>
+      <c r="I295" s="81"/>
+      <c r="J295" s="81"/>
+      <c r="K295" s="81"/>
+    </row>
+    <row r="296" spans="1:11" hidden="1">
+      <c r="A296" s="80"/>
+      <c r="B296" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C296" s="80">
+        <v>24</v>
+      </c>
+      <c r="D296" s="80" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E296" s="80"/>
+      <c r="F296" s="80"/>
+      <c r="G296" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H296" s="80"/>
+      <c r="I296" s="81"/>
+      <c r="J296" s="81"/>
+      <c r="K296" s="81"/>
+    </row>
+    <row r="297" spans="1:11" hidden="1">
+      <c r="A297" s="80"/>
+      <c r="B297" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C297" s="80">
+        <v>25</v>
+      </c>
+      <c r="D297" s="80" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E297" s="80"/>
+      <c r="F297" s="80"/>
+      <c r="G297" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H297" s="80"/>
+      <c r="I297" s="81"/>
+      <c r="J297" s="81"/>
+      <c r="K297" s="81"/>
+    </row>
+    <row r="298" spans="1:11" hidden="1">
+      <c r="A298" s="80"/>
+      <c r="B298" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C298" s="80">
+        <v>26</v>
+      </c>
+      <c r="D298" s="80" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E298" s="80"/>
+      <c r="F298" s="80"/>
+      <c r="G298" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H298" s="80"/>
+      <c r="I298" s="81"/>
+      <c r="J298" s="81"/>
+      <c r="K298" s="81"/>
+    </row>
+    <row r="299" spans="1:11" hidden="1">
+      <c r="A299" s="80"/>
+      <c r="B299" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C299" s="80">
+        <v>27</v>
+      </c>
+      <c r="D299" s="80" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E299" s="80"/>
+      <c r="F299" s="80"/>
+      <c r="G299" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H299" s="80"/>
+      <c r="I299" s="81"/>
+      <c r="J299" s="81"/>
+      <c r="K299" s="81"/>
+    </row>
+    <row r="300" spans="1:11" hidden="1">
+      <c r="A300" s="80"/>
+      <c r="B300" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C300" s="80">
+        <v>28</v>
+      </c>
+      <c r="D300" s="80" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E300" s="80"/>
+      <c r="F300" s="80"/>
+      <c r="G300" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H300" s="80"/>
+      <c r="I300" s="81"/>
+      <c r="J300" s="81"/>
+      <c r="K300" s="81"/>
+    </row>
+    <row r="301" spans="1:11" hidden="1">
+      <c r="A301" s="80"/>
+      <c r="B301" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C301" s="80">
+        <v>29</v>
+      </c>
+      <c r="D301" s="80" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E301" s="80"/>
+      <c r="F301" s="80"/>
+      <c r="G301" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H301" s="80"/>
+      <c r="I301" s="81"/>
+      <c r="J301" s="81"/>
+      <c r="K301" s="81"/>
+    </row>
+    <row r="302" spans="1:11" hidden="1">
+      <c r="A302" s="80"/>
+      <c r="B302" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C302" s="80">
+        <v>30</v>
+      </c>
+      <c r="D302" s="80" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E302" s="80"/>
+      <c r="F302" s="80"/>
+      <c r="G302" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H302" s="80"/>
+      <c r="I302" s="81"/>
+      <c r="J302" s="81"/>
+      <c r="K302" s="81"/>
+    </row>
+    <row r="303" spans="1:11" hidden="1">
+      <c r="A303" s="80"/>
+      <c r="B303" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C303" s="80">
+        <v>31</v>
+      </c>
+      <c r="D303" s="80" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E303" s="80"/>
+      <c r="F303" s="80"/>
+      <c r="G303" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H303" s="80"/>
+      <c r="I303" s="81"/>
+      <c r="J303" s="81"/>
+      <c r="K303" s="81"/>
+    </row>
+    <row r="304" spans="1:11" hidden="1">
+      <c r="A304" s="80"/>
+      <c r="B304" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C304" s="80">
+        <v>32</v>
+      </c>
+      <c r="D304" s="80" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E304" s="80"/>
+      <c r="F304" s="80"/>
+      <c r="G304" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H304" s="80"/>
+      <c r="I304" s="81"/>
+      <c r="J304" s="81"/>
+      <c r="K304" s="81"/>
+    </row>
+    <row r="305" spans="1:11" hidden="1">
+      <c r="A305" s="80"/>
+      <c r="B305" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C305" s="80">
+        <v>33</v>
+      </c>
+      <c r="D305" s="80" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E305" s="80"/>
+      <c r="F305" s="80"/>
+      <c r="G305" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H305" s="80"/>
+      <c r="I305" s="81"/>
+      <c r="J305" s="81"/>
+      <c r="K305" s="81"/>
+    </row>
+    <row r="306" spans="1:11" hidden="1">
+      <c r="A306" s="80"/>
+      <c r="B306" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C306" s="80">
+        <v>34</v>
+      </c>
+      <c r="D306" s="80" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E306" s="80"/>
+      <c r="F306" s="80"/>
+      <c r="G306" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H306" s="80"/>
+      <c r="I306" s="81"/>
+      <c r="J306" s="81"/>
+      <c r="K306" s="81"/>
+    </row>
+    <row r="307" spans="1:11" hidden="1">
+      <c r="A307" s="80"/>
+      <c r="B307" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C307" s="80">
+        <v>35</v>
+      </c>
+      <c r="D307" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="E307" s="80"/>
+      <c r="F307" s="80"/>
+      <c r="G307" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H307" s="80"/>
+      <c r="I307" s="81"/>
+      <c r="J307" s="81"/>
+      <c r="K307" s="81"/>
+    </row>
+    <row r="308" spans="1:11" hidden="1">
+      <c r="A308" s="80"/>
+      <c r="B308" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C308" s="80">
+        <v>36</v>
+      </c>
+      <c r="D308" s="80" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E308" s="80"/>
+      <c r="F308" s="80"/>
+      <c r="G308" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H308" s="80"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+    </row>
+    <row r="309" spans="1:11" hidden="1">
+      <c r="A309" s="80"/>
+      <c r="B309" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C309" s="80">
+        <v>37</v>
+      </c>
+      <c r="D309" s="80" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E309" s="80"/>
+      <c r="F309" s="80"/>
+      <c r="G309" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H309" s="80"/>
+      <c r="I309" s="81"/>
+      <c r="J309" s="81"/>
+      <c r="K309" s="81"/>
+    </row>
+    <row r="310" spans="1:11" hidden="1">
+      <c r="A310" s="80"/>
+      <c r="B310" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C310" s="80">
+        <v>38</v>
+      </c>
+      <c r="D310" s="80" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E310" s="80"/>
+      <c r="F310" s="80"/>
+      <c r="G310" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H310" s="80"/>
+      <c r="I310" s="81"/>
+      <c r="J310" s="81"/>
+      <c r="K310" s="81"/>
+    </row>
+    <row r="311" spans="1:11" hidden="1">
+      <c r="A311" s="80"/>
+      <c r="B311" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C311" s="80">
+        <v>39</v>
+      </c>
+      <c r="D311" s="80" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E311" s="80"/>
+      <c r="F311" s="80"/>
+      <c r="G311" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H311" s="80"/>
+      <c r="I311" s="81"/>
+      <c r="J311" s="81"/>
+      <c r="K311" s="81"/>
+    </row>
+    <row r="312" spans="1:11" hidden="1">
+      <c r="A312" s="80"/>
+      <c r="B312" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C312" s="80">
+        <v>40</v>
+      </c>
+      <c r="D312" s="80" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E312" s="80"/>
+      <c r="F312" s="80"/>
+      <c r="G312" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H312" s="80"/>
+      <c r="I312" s="81"/>
+      <c r="J312" s="81"/>
+      <c r="K312" s="81"/>
+    </row>
+    <row r="313" spans="1:11" hidden="1">
+      <c r="A313" s="80"/>
+      <c r="B313" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C313" s="80">
+        <v>41</v>
+      </c>
+      <c r="D313" s="80" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E313" s="80"/>
+      <c r="F313" s="80"/>
+      <c r="G313" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H313" s="80"/>
+      <c r="I313" s="81"/>
+      <c r="J313" s="81"/>
+      <c r="K313" s="81"/>
+    </row>
+    <row r="314" spans="1:11" hidden="1">
+      <c r="A314" s="80"/>
+      <c r="B314" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C314" s="80">
+        <v>42</v>
+      </c>
+      <c r="D314" s="80" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E314" s="80"/>
+      <c r="F314" s="80"/>
+      <c r="G314" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H314" s="80"/>
+      <c r="I314" s="81"/>
+      <c r="J314" s="81"/>
+      <c r="K314" s="81"/>
+    </row>
+    <row r="315" spans="1:11" hidden="1">
+      <c r="A315" s="80"/>
+      <c r="B315" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C315" s="80">
+        <v>43</v>
+      </c>
+      <c r="D315" s="80" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E315" s="80"/>
+      <c r="F315" s="80"/>
+      <c r="G315" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H315" s="80"/>
+      <c r="I315" s="81"/>
+      <c r="J315" s="81"/>
+      <c r="K315" s="81"/>
+    </row>
+    <row r="316" spans="1:11" hidden="1">
+      <c r="A316" s="80"/>
+      <c r="B316" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C316" s="80">
+        <v>44</v>
+      </c>
+      <c r="D316" s="80" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E316" s="80"/>
+      <c r="F316" s="80"/>
+      <c r="G316" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H316" s="80"/>
+      <c r="I316" s="81"/>
+      <c r="J316" s="81"/>
+      <c r="K316" s="81"/>
+    </row>
+    <row r="317" spans="1:11" hidden="1">
+      <c r="A317" s="80"/>
+      <c r="B317" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C317" s="80">
+        <v>45</v>
+      </c>
+      <c r="D317" s="80" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E317" s="80"/>
+      <c r="F317" s="80"/>
+      <c r="G317" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H317" s="80"/>
+      <c r="I317" s="81"/>
+      <c r="J317" s="81"/>
+      <c r="K317" s="81"/>
+    </row>
+    <row r="318" spans="1:11" hidden="1">
+      <c r="A318" s="80"/>
+      <c r="B318" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C318" s="80">
+        <v>18</v>
+      </c>
+      <c r="D318" s="80" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E318" s="80"/>
+      <c r="F318" s="80"/>
+      <c r="G318" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H318" s="80"/>
+      <c r="I318" s="81"/>
+      <c r="J318" s="81"/>
+      <c r="K318" s="81"/>
+    </row>
+    <row r="319" spans="1:11" hidden="1">
+      <c r="A319" s="80"/>
+      <c r="B319" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C319" s="80">
+        <v>19</v>
+      </c>
+      <c r="D319" s="80" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E319" s="80"/>
+      <c r="F319" s="80"/>
+      <c r="G319" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H319" s="80"/>
+      <c r="I319" s="81"/>
+      <c r="J319" s="81"/>
+      <c r="K319" s="81"/>
+    </row>
+    <row r="320" spans="1:11" hidden="1">
+      <c r="A320" s="80"/>
+      <c r="B320" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C320" s="80">
+        <v>20</v>
+      </c>
+      <c r="D320" s="80" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E320" s="80"/>
+      <c r="F320" s="80"/>
+      <c r="G320" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H320" s="80"/>
+      <c r="I320" s="81"/>
+      <c r="J320" s="81"/>
+      <c r="K320" s="81"/>
+    </row>
+    <row r="321" spans="1:11" hidden="1">
+      <c r="A321" s="80"/>
+      <c r="B321" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C321" s="80">
+        <v>21</v>
+      </c>
+      <c r="D321" s="80" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E321" s="80"/>
+      <c r="F321" s="80"/>
+      <c r="G321" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H321" s="80"/>
+      <c r="I321" s="81"/>
+      <c r="J321" s="81"/>
+      <c r="K321" s="81"/>
+    </row>
+    <row r="322" spans="1:11" hidden="1">
+      <c r="A322" s="80"/>
+      <c r="B322" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C322" s="80">
+        <v>22</v>
+      </c>
+      <c r="D322" s="80" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E322" s="80"/>
+      <c r="F322" s="80"/>
+      <c r="G322" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H322" s="80"/>
+      <c r="I322" s="81"/>
+      <c r="J322" s="81"/>
+      <c r="K322" s="81"/>
+    </row>
+    <row r="323" spans="1:11" hidden="1">
+      <c r="A323" s="80"/>
+      <c r="B323" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C323" s="80">
+        <v>23</v>
+      </c>
+      <c r="D323" s="80" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E323" s="80"/>
+      <c r="F323" s="80"/>
+      <c r="G323" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H323" s="80"/>
+      <c r="I323" s="81"/>
+      <c r="J323" s="81"/>
+      <c r="K323" s="81"/>
+    </row>
+    <row r="324" spans="1:11" hidden="1">
+      <c r="A324" s="80"/>
+      <c r="B324" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C324" s="80">
+        <v>24</v>
+      </c>
+      <c r="D324" s="80" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E324" s="80"/>
+      <c r="F324" s="80"/>
+      <c r="G324" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H324" s="80"/>
+      <c r="I324" s="81"/>
+      <c r="J324" s="81"/>
+      <c r="K324" s="81"/>
+    </row>
+    <row r="325" spans="1:11" hidden="1">
+      <c r="A325" s="80"/>
+      <c r="B325" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C325" s="80">
+        <v>25</v>
+      </c>
+      <c r="D325" s="80" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E325" s="80"/>
+      <c r="F325" s="80"/>
+      <c r="G325" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H325" s="80"/>
+      <c r="I325" s="81"/>
+      <c r="J325" s="81"/>
+      <c r="K325" s="81"/>
+    </row>
+    <row r="326" spans="1:11" hidden="1">
+      <c r="A326" s="80"/>
+      <c r="B326" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C326" s="80">
+        <v>26</v>
+      </c>
+      <c r="D326" s="80" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E326" s="80"/>
+      <c r="F326" s="80"/>
+      <c r="G326" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H326" s="80"/>
+      <c r="I326" s="81"/>
+      <c r="J326" s="81"/>
+      <c r="K326" s="81"/>
+    </row>
+    <row r="327" spans="1:11" hidden="1">
+      <c r="A327" s="80"/>
+      <c r="B327" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C327" s="80">
+        <v>27</v>
+      </c>
+      <c r="D327" s="80" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E327" s="80"/>
+      <c r="F327" s="80"/>
+      <c r="G327" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H327" s="80"/>
+      <c r="I327" s="81"/>
+      <c r="J327" s="81"/>
+      <c r="K327" s="81"/>
+    </row>
+    <row r="328" spans="1:11" hidden="1">
+      <c r="A328" s="80"/>
+      <c r="B328" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C328" s="80">
+        <v>28</v>
+      </c>
+      <c r="D328" s="80" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E328" s="80"/>
+      <c r="F328" s="80"/>
+      <c r="G328" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H328" s="80"/>
+      <c r="I328" s="81"/>
+      <c r="J328" s="81"/>
+      <c r="K328" s="81"/>
+    </row>
+    <row r="329" spans="1:11" hidden="1">
+      <c r="A329" s="80"/>
+      <c r="B329" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C329" s="80">
+        <v>29</v>
+      </c>
+      <c r="D329" s="80" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E329" s="80"/>
+      <c r="F329" s="80"/>
+      <c r="G329" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H329" s="80"/>
+      <c r="I329" s="81"/>
+      <c r="J329" s="81"/>
+      <c r="K329" s="81"/>
+    </row>
+    <row r="330" spans="1:11" hidden="1">
+      <c r="A330" s="80"/>
+      <c r="B330" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C330" s="80">
+        <v>30</v>
+      </c>
+      <c r="D330" s="80" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E330" s="80"/>
+      <c r="F330" s="80"/>
+      <c r="G330" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H330" s="80"/>
+      <c r="I330" s="81"/>
+      <c r="J330" s="81"/>
+      <c r="K330" s="81"/>
+    </row>
+    <row r="331" spans="1:11" hidden="1">
+      <c r="A331" s="80"/>
+      <c r="B331" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C331" s="80">
+        <v>31</v>
+      </c>
+      <c r="D331" s="80" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E331" s="80"/>
+      <c r="F331" s="80"/>
+      <c r="G331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H331" s="80"/>
+      <c r="I331" s="81"/>
+      <c r="J331" s="81"/>
+      <c r="K331" s="81"/>
+    </row>
+    <row r="332" spans="1:11" hidden="1">
+      <c r="A332" s="80"/>
+      <c r="B332" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C332" s="80">
+        <v>32</v>
+      </c>
+      <c r="D332" s="80" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E332" s="80"/>
+      <c r="F332" s="80"/>
+      <c r="G332" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H332" s="80"/>
+      <c r="I332" s="81"/>
+      <c r="J332" s="81"/>
+      <c r="K332" s="81"/>
+    </row>
+    <row r="333" spans="1:11" hidden="1">
+      <c r="A333" s="80"/>
+      <c r="B333" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C333" s="80">
+        <v>33</v>
+      </c>
+      <c r="D333" s="80" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E333" s="80"/>
+      <c r="F333" s="80"/>
+      <c r="G333" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H333" s="80"/>
+      <c r="I333" s="81"/>
+      <c r="J333" s="81"/>
+      <c r="K333" s="81"/>
+    </row>
+    <row r="334" spans="1:11" hidden="1">
+      <c r="A334" s="80"/>
+      <c r="B334" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C334" s="80">
+        <v>34</v>
+      </c>
+      <c r="D334" s="80" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E334" s="80"/>
+      <c r="F334" s="80"/>
+      <c r="G334" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H334" s="80"/>
+      <c r="I334" s="81"/>
+      <c r="J334" s="81"/>
+      <c r="K334" s="81"/>
+    </row>
+    <row r="335" spans="1:11" hidden="1">
+      <c r="A335" s="80"/>
+      <c r="B335" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C335" s="80">
+        <v>50</v>
+      </c>
+      <c r="D335" s="80" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E335" s="80"/>
+      <c r="F335" s="80"/>
+      <c r="G335" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H335" s="80"/>
+      <c r="I335" s="81"/>
+      <c r="J335" s="81"/>
+      <c r="K335" s="81"/>
+    </row>
+    <row r="336" spans="1:11" hidden="1">
+      <c r="A336" s="80"/>
+      <c r="B336" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C336" s="80">
+        <v>51</v>
+      </c>
+      <c r="D336" s="80" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E336" s="80"/>
+      <c r="F336" s="80"/>
+      <c r="G336" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H336" s="80"/>
+      <c r="I336" s="81"/>
+      <c r="J336" s="81"/>
+      <c r="K336" s="81"/>
+    </row>
+    <row r="337" spans="1:11" hidden="1">
+      <c r="A337" s="80"/>
+      <c r="B337" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C337" s="80">
+        <v>52</v>
+      </c>
+      <c r="D337" s="80" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E337" s="80"/>
+      <c r="F337" s="80"/>
+      <c r="G337" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H337" s="80"/>
+      <c r="I337" s="81"/>
+      <c r="J337" s="81"/>
+      <c r="K337" s="81"/>
+    </row>
+    <row r="338" spans="1:11" hidden="1">
+      <c r="A338" s="80"/>
+      <c r="B338" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C338" s="80">
+        <v>53</v>
+      </c>
+      <c r="D338" s="80" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E338" s="80"/>
+      <c r="F338" s="80"/>
+      <c r="G338" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H338" s="80"/>
+      <c r="I338" s="81"/>
+      <c r="J338" s="81"/>
+      <c r="K338" s="81"/>
+    </row>
+    <row r="339" spans="1:11" hidden="1">
+      <c r="A339" s="80"/>
+      <c r="B339" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C339" s="80">
+        <v>54</v>
+      </c>
+      <c r="D339" s="80" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E339" s="80"/>
+      <c r="F339" s="80"/>
+      <c r="G339" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H339" s="80"/>
+      <c r="I339" s="81"/>
+      <c r="J339" s="81"/>
+      <c r="K339" s="81"/>
+    </row>
+    <row r="340" spans="1:11" hidden="1">
+      <c r="A340" s="80"/>
+      <c r="B340" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C340" s="80">
+        <v>55</v>
+      </c>
+      <c r="D340" s="80" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E340" s="80"/>
+      <c r="F340" s="80"/>
+      <c r="G340" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H340" s="80"/>
+      <c r="I340" s="81"/>
+      <c r="J340" s="81"/>
+      <c r="K340" s="81"/>
+    </row>
+    <row r="341" spans="1:11" hidden="1">
+      <c r="A341" s="80"/>
+      <c r="B341" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C341" s="80">
+        <v>56</v>
+      </c>
+      <c r="D341" s="80" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E341" s="80"/>
+      <c r="F341" s="80"/>
+      <c r="G341" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H341" s="80"/>
+      <c r="I341" s="81"/>
+      <c r="J341" s="81"/>
+      <c r="K341" s="81"/>
+    </row>
+    <row r="342" spans="1:11" hidden="1">
+      <c r="A342" s="80"/>
+      <c r="B342" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C342" s="80">
+        <v>57</v>
+      </c>
+      <c r="D342" s="80" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E342" s="80"/>
+      <c r="F342" s="80"/>
+      <c r="G342" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H342" s="80"/>
+      <c r="I342" s="81"/>
+      <c r="J342" s="81"/>
+      <c r="K342" s="81"/>
+    </row>
+    <row r="343" spans="1:11" hidden="1">
+      <c r="A343" s="80"/>
+      <c r="B343" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C343" s="80">
+        <v>37</v>
+      </c>
+      <c r="D343" s="80" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E343" s="80"/>
+      <c r="F343" s="80"/>
+      <c r="G343" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H343" s="80"/>
+      <c r="I343" s="81"/>
+      <c r="J343" s="81"/>
+      <c r="K343" s="81"/>
+    </row>
+    <row r="344" spans="1:11" hidden="1">
+      <c r="A344" s="80"/>
+      <c r="B344" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C344" s="80">
+        <v>38</v>
+      </c>
+      <c r="D344" s="80" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E344" s="80"/>
+      <c r="F344" s="80"/>
+      <c r="G344" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H344" s="80"/>
+      <c r="I344" s="81"/>
+      <c r="J344" s="81"/>
+      <c r="K344" s="81"/>
+    </row>
+    <row r="345" spans="1:11" hidden="1">
+      <c r="A345" s="80"/>
+      <c r="B345" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C345" s="80">
+        <v>39</v>
+      </c>
+      <c r="D345" s="80" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E345" s="80"/>
+      <c r="F345" s="80"/>
+      <c r="G345" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H345" s="80"/>
+      <c r="I345" s="81"/>
+      <c r="J345" s="81"/>
+      <c r="K345" s="81"/>
+    </row>
+    <row r="346" spans="1:11" hidden="1">
+      <c r="A346" s="80"/>
+      <c r="B346" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C346" s="80">
+        <v>40</v>
+      </c>
+      <c r="D346" s="80" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E346" s="80"/>
+      <c r="F346" s="80"/>
+      <c r="G346" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H346" s="80"/>
+      <c r="I346" s="81"/>
+      <c r="J346" s="81"/>
+      <c r="K346" s="81"/>
+    </row>
+    <row r="347" spans="1:11" hidden="1">
+      <c r="A347" s="80"/>
+      <c r="B347" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C347" s="80">
+        <v>41</v>
+      </c>
+      <c r="D347" s="80" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E347" s="80"/>
+      <c r="F347" s="80"/>
+      <c r="G347" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H347" s="80"/>
+      <c r="I347" s="81"/>
+      <c r="J347" s="81"/>
+      <c r="K347" s="81"/>
+    </row>
+    <row r="348" spans="1:11" hidden="1">
+      <c r="A348" s="80"/>
+      <c r="B348" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C348" s="80">
+        <v>41</v>
+      </c>
+      <c r="D348" s="80" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E348" s="80"/>
+      <c r="F348" s="80"/>
+      <c r="G348" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H348" s="80"/>
+      <c r="I348" s="81"/>
+      <c r="J348" s="81"/>
+      <c r="K348" s="81"/>
+    </row>
+    <row r="349" spans="1:11" hidden="1">
+      <c r="A349" s="80"/>
+      <c r="B349" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C349" s="80">
+        <v>42</v>
+      </c>
+      <c r="D349" s="80" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E349" s="80"/>
+      <c r="F349" s="80"/>
+      <c r="G349" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H349" s="80"/>
+      <c r="I349" s="81"/>
+      <c r="J349" s="81"/>
+      <c r="K349" s="81"/>
+    </row>
+    <row r="350" spans="1:11" hidden="1">
+      <c r="A350" s="80"/>
+      <c r="B350" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C350" s="80">
+        <v>43</v>
+      </c>
+      <c r="D350" s="80" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E350" s="80"/>
+      <c r="F350" s="80"/>
+      <c r="G350" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H350" s="80"/>
+      <c r="I350" s="81"/>
+      <c r="J350" s="81"/>
+      <c r="K350" s="81"/>
+    </row>
+    <row r="351" spans="1:11" hidden="1">
+      <c r="A351" s="80"/>
+      <c r="B351" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C351" s="80">
+        <v>44</v>
+      </c>
+      <c r="D351" s="80" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E351" s="80"/>
+      <c r="F351" s="80"/>
+      <c r="G351" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H351" s="80"/>
+      <c r="I351" s="81"/>
+      <c r="J351" s="81"/>
+      <c r="K351" s="81"/>
+    </row>
+    <row r="352" spans="1:11" hidden="1">
+      <c r="A352" s="80"/>
+      <c r="B352" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C352" s="80">
+        <v>45</v>
+      </c>
+      <c r="D352" s="80" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E352" s="80"/>
+      <c r="F352" s="80"/>
+      <c r="G352" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H352" s="80"/>
+      <c r="I352" s="81"/>
+      <c r="J352" s="81"/>
+      <c r="K352" s="81"/>
+    </row>
+    <row r="353" spans="1:11" hidden="1">
+      <c r="A353" s="80"/>
+      <c r="B353" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C353" s="80">
+        <v>46</v>
+      </c>
+      <c r="D353" s="80" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E353" s="80"/>
+      <c r="F353" s="80"/>
+      <c r="G353" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H353" s="80"/>
+      <c r="I353" s="81"/>
+      <c r="J353" s="81"/>
+      <c r="K353" s="81"/>
+    </row>
+    <row r="354" spans="1:11" hidden="1">
+      <c r="A354" s="80"/>
+      <c r="B354" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C354" s="80">
+        <v>47</v>
+      </c>
+      <c r="D354" s="80" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E354" s="80"/>
+      <c r="F354" s="80"/>
+      <c r="G354" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H354" s="80"/>
+      <c r="I354" s="81"/>
+      <c r="J354" s="81"/>
+      <c r="K354" s="81"/>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" s="80"/>
+      <c r="B355" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C355" s="80">
+        <v>16</v>
+      </c>
+      <c r="D355" s="80" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E355" s="80"/>
+      <c r="F355" s="80"/>
+      <c r="G355" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H355" s="80"/>
+      <c r="I355" s="81"/>
+      <c r="J355" s="81"/>
+      <c r="K355" s="81"/>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" s="80"/>
+      <c r="B356" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C356" s="80">
+        <v>17</v>
+      </c>
+      <c r="D356" s="80" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E356" s="80"/>
+      <c r="F356" s="80"/>
+      <c r="G356" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H356" s="80"/>
+      <c r="I356" s="81"/>
+      <c r="J356" s="81"/>
+      <c r="K356" s="81"/>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" s="80"/>
+      <c r="B357" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C357" s="80">
+        <v>18</v>
+      </c>
+      <c r="D357" s="80" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E357" s="80"/>
+      <c r="F357" s="80"/>
+      <c r="G357" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H357" s="80"/>
+      <c r="I357" s="81"/>
+      <c r="J357" s="81"/>
+      <c r="K357" s="81"/>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" s="80"/>
+      <c r="B358" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C358" s="80">
+        <v>19</v>
+      </c>
+      <c r="D358" s="80" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E358" s="80"/>
+      <c r="F358" s="80"/>
+      <c r="G358" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H358" s="80"/>
+      <c r="I358" s="81"/>
+      <c r="J358" s="81"/>
+      <c r="K358" s="81"/>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" s="80"/>
+      <c r="B359" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C359" s="80">
+        <v>20</v>
+      </c>
+      <c r="D359" s="80" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E359" s="80"/>
+      <c r="F359" s="80"/>
+      <c r="G359" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H359" s="80"/>
+      <c r="I359" s="81"/>
+      <c r="J359" s="81"/>
+      <c r="K359" s="81"/>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" s="80"/>
+      <c r="B360" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C360" s="80">
+        <v>21</v>
+      </c>
+      <c r="D360" s="80" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E360" s="80"/>
+      <c r="F360" s="80"/>
+      <c r="G360" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H360" s="80"/>
+      <c r="I360" s="81"/>
+      <c r="J360" s="81"/>
+      <c r="K360" s="81"/>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="80"/>
+      <c r="B361" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C361" s="80">
+        <v>22</v>
+      </c>
+      <c r="D361" s="80" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E361" s="80"/>
+      <c r="F361" s="80"/>
+      <c r="G361" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H361" s="80"/>
+      <c r="I361" s="81"/>
+      <c r="J361" s="81"/>
+      <c r="K361" s="81"/>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="80"/>
+      <c r="B362" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C362" s="80">
+        <v>23</v>
+      </c>
+      <c r="D362" s="80" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E362" s="80"/>
+      <c r="F362" s="80"/>
+      <c r="G362" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H362" s="80"/>
+      <c r="I362" s="81"/>
+      <c r="J362" s="81"/>
+      <c r="K362" s="81"/>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" s="80"/>
+      <c r="B363" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C363" s="80">
+        <v>24</v>
+      </c>
+      <c r="D363" s="80" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E363" s="80"/>
+      <c r="F363" s="80"/>
+      <c r="G363" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H363" s="80"/>
+      <c r="I363" s="81"/>
+      <c r="J363" s="81"/>
+      <c r="K363" s="81"/>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="80"/>
+      <c r="B364" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C364" s="80">
+        <v>25</v>
+      </c>
+      <c r="D364" s="80" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E364" s="80"/>
+      <c r="F364" s="80"/>
+      <c r="G364" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H364" s="80"/>
+      <c r="I364" s="81"/>
+      <c r="J364" s="81"/>
+      <c r="K364" s="81"/>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" s="80"/>
+      <c r="B365" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C365" s="80">
+        <v>26</v>
+      </c>
+      <c r="D365" s="80" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E365" s="80"/>
+      <c r="F365" s="80"/>
+      <c r="G365" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H365" s="80"/>
+      <c r="I365" s="81"/>
+      <c r="J365" s="81"/>
+      <c r="K365" s="81"/>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" s="80"/>
+      <c r="B366" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C366" s="80">
+        <v>27</v>
+      </c>
+      <c r="D366" s="80" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E366" s="80"/>
+      <c r="F366" s="80"/>
+      <c r="G366" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H366" s="80"/>
+      <c r="I366" s="81"/>
+      <c r="J366" s="81"/>
+      <c r="K366" s="81"/>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" s="80"/>
+      <c r="B367" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C367" s="80">
+        <v>28</v>
+      </c>
+      <c r="D367" s="80" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E367" s="80"/>
+      <c r="F367" s="80"/>
+      <c r="G367" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H367" s="80"/>
+      <c r="I367" s="81"/>
+      <c r="J367" s="81"/>
+      <c r="K367" s="81"/>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" s="80"/>
+      <c r="B368" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C368" s="80">
+        <v>29</v>
+      </c>
+      <c r="D368" s="80" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E368" s="80"/>
+      <c r="F368" s="80"/>
+      <c r="G368" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H368" s="80"/>
+      <c r="I368" s="81"/>
+      <c r="J368" s="81"/>
+      <c r="K368" s="81"/>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" s="80"/>
+      <c r="B369" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C369" s="80">
+        <v>30</v>
+      </c>
+      <c r="D369" s="80" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E369" s="80"/>
+      <c r="F369" s="80"/>
+      <c r="G369" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H369" s="80"/>
+      <c r="I369" s="81"/>
+      <c r="J369" s="81"/>
+      <c r="K369" s="81"/>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" s="80"/>
+      <c r="B370" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C370" s="80">
+        <v>31</v>
+      </c>
+      <c r="D370" s="80" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E370" s="80"/>
+      <c r="F370" s="80"/>
+      <c r="G370" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H370" s="80"/>
+      <c r="I370" s="81"/>
+      <c r="J370" s="81"/>
+      <c r="K370" s="81"/>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" s="80"/>
+      <c r="B371" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C371" s="80">
+        <v>32</v>
+      </c>
+      <c r="D371" s="80" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E371" s="80"/>
+      <c r="F371" s="80"/>
+      <c r="G371" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H371" s="80"/>
+      <c r="I371" s="81"/>
+      <c r="J371" s="81"/>
+      <c r="K371" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24346,7 +26461,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25881,7 +27996,7 @@
       </c>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -25904,7 +28019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -25925,7 +28040,7 @@
       </c>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -25946,7 +28061,7 @@
       </c>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -26923,13 +29038,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26966,7 +29081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="24" hidden="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -26987,7 +29102,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -27008,7 +29123,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="24">
+    <row r="4" spans="1:7" ht="24" hidden="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -27029,7 +29144,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -27050,7 +29165,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -27071,7 +29186,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -27092,7 +29207,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -27113,7 +29228,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="18">
         <v>3</v>
       </c>
@@ -27134,7 +29249,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="18">
         <v>4</v>
       </c>
@@ -27155,7 +29270,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="18">
         <v>5</v>
       </c>
@@ -27176,7 +29291,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -27197,7 +29312,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="18">
         <v>7</v>
       </c>
@@ -27218,7 +29333,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="18">
         <v>8</v>
       </c>
@@ -27239,7 +29354,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="18">
         <v>9</v>
       </c>
@@ -27260,7 +29375,7 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="18">
         <v>10</v>
       </c>
@@ -27281,7 +29396,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="18">
         <v>11</v>
       </c>
@@ -27302,7 +29417,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="18">
         <v>12</v>
       </c>
@@ -27323,7 +29438,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="18">
         <v>13</v>
       </c>
@@ -27344,7 +29459,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="18">
         <v>11</v>
       </c>
@@ -27365,7 +29480,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="18">
         <v>12</v>
       </c>
@@ -27386,7 +29501,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="18">
         <v>13</v>
       </c>
@@ -27407,7 +29522,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="18">
         <v>14</v>
       </c>
@@ -27428,7 +29543,7 @@
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="18">
         <v>15</v>
       </c>
@@ -27449,7 +29564,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="18">
         <v>16</v>
       </c>
@@ -27470,7 +29585,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="18">
         <v>17</v>
       </c>
@@ -27491,7 +29606,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="18">
         <v>18</v>
       </c>
@@ -27512,7 +29627,7 @@
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="18">
         <v>19</v>
       </c>
@@ -27533,7 +29648,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="18">
         <v>20</v>
       </c>
@@ -27554,7 +29669,7 @@
       </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="18">
         <v>21</v>
       </c>
@@ -27575,7 +29690,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="18">
         <v>22</v>
       </c>
@@ -27596,7 +29711,7 @@
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -27617,7 +29732,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="18">
         <v>24</v>
       </c>
@@ -27638,7 +29753,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="18">
         <v>25</v>
       </c>
@@ -27659,7 +29774,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="18">
         <v>26</v>
       </c>
@@ -27680,7 +29795,7 @@
       </c>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="18">
         <v>27</v>
       </c>
@@ -27701,7 +29816,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="18">
         <v>28</v>
       </c>
@@ -27722,7 +29837,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="18">
         <v>29</v>
       </c>
@@ -27743,7 +29858,7 @@
       </c>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="18">
         <v>30</v>
       </c>
@@ -27764,7 +29879,7 @@
       </c>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="18">
         <v>31</v>
       </c>
@@ -27785,7 +29900,7 @@
       </c>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="18">
         <v>32</v>
       </c>
@@ -27806,7 +29921,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="18">
         <v>33</v>
       </c>
@@ -27827,7 +29942,7 @@
       </c>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="18">
         <v>34</v>
       </c>
@@ -27848,7 +29963,7 @@
       </c>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="18">
         <v>35</v>
       </c>
@@ -27869,7 +29984,7 @@
       </c>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="18">
         <v>36</v>
       </c>
@@ -27890,7 +30005,7 @@
       </c>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="18">
         <v>37</v>
       </c>
@@ -27911,7 +30026,7 @@
       </c>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="18">
         <v>38</v>
       </c>
@@ -27932,7 +30047,7 @@
       </c>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="18">
         <v>39</v>
       </c>
@@ -27953,7 +30068,7 @@
       </c>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="18">
         <v>40</v>
       </c>
@@ -27974,7 +30089,7 @@
       </c>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="18">
         <v>41</v>
       </c>
@@ -27995,7 +30110,7 @@
       </c>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="18">
         <v>42</v>
       </c>
@@ -28016,7 +30131,7 @@
       </c>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="18">
         <v>43</v>
       </c>
@@ -28037,7 +30152,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="18">
         <v>44</v>
       </c>
@@ -28058,7 +30173,7 @@
       </c>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="18">
         <v>45</v>
       </c>
@@ -28079,7 +30194,7 @@
       </c>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="18">
         <v>46</v>
       </c>
@@ -28100,7 +30215,7 @@
       </c>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="18">
         <v>47</v>
       </c>
@@ -28121,7 +30236,7 @@
       </c>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="18">
         <v>48</v>
       </c>
@@ -28142,7 +30257,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="18">
         <v>49</v>
       </c>
@@ -28163,7 +30278,7 @@
       </c>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="18">
         <v>50</v>
       </c>
@@ -28184,7 +30299,7 @@
       </c>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="18">
         <v>51</v>
       </c>
@@ -28205,7 +30320,7 @@
       </c>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="18">
         <v>52</v>
       </c>
@@ -28226,7 +30341,7 @@
       </c>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="18">
         <v>53</v>
       </c>
@@ -28247,7 +30362,7 @@
       </c>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="18">
         <v>54</v>
       </c>
@@ -28268,7 +30383,7 @@
       </c>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" ht="36">
+    <row r="64" spans="1:7" ht="36" hidden="1">
       <c r="A64" s="18">
         <v>55</v>
       </c>
@@ -28291,7 +30406,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="36">
+    <row r="65" spans="1:7" ht="36" hidden="1">
       <c r="A65" s="18">
         <v>56</v>
       </c>
@@ -28314,7 +30429,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="36">
+    <row r="66" spans="1:7" ht="36" hidden="1">
       <c r="A66" s="18">
         <v>57</v>
       </c>
@@ -28337,7 +30452,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="36">
+    <row r="67" spans="1:7" ht="36" hidden="1">
       <c r="A67" s="18">
         <v>58</v>
       </c>
@@ -28360,7 +30475,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="36">
+    <row r="68" spans="1:7" ht="36" hidden="1">
       <c r="A68" s="18">
         <v>59</v>
       </c>
@@ -28383,7 +30498,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="36">
+    <row r="69" spans="1:7" ht="36" hidden="1">
       <c r="A69" s="18">
         <v>60</v>
       </c>
@@ -28406,7 +30521,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="18">
         <v>61</v>
       </c>
@@ -28427,7 +30542,7 @@
       </c>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="18">
         <v>62</v>
       </c>
@@ -28448,7 +30563,7 @@
       </c>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="1:7" ht="24">
+    <row r="72" spans="1:7" ht="24" hidden="1">
       <c r="A72" s="18">
         <v>63</v>
       </c>
@@ -28471,7 +30586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="18">
         <v>64</v>
       </c>
@@ -28492,7 +30607,7 @@
       </c>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="18">
         <v>65</v>
       </c>
@@ -28513,7 +30628,7 @@
       </c>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" ht="156">
+    <row r="75" spans="1:7" ht="156" hidden="1">
       <c r="A75" s="18">
         <v>66</v>
       </c>
@@ -28536,7 +30651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="18">
         <v>67</v>
       </c>
@@ -28557,7 +30672,7 @@
       </c>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="18">
         <v>68</v>
       </c>
@@ -28578,7 +30693,7 @@
       </c>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="18">
         <v>69</v>
       </c>
@@ -28599,7 +30714,7 @@
       </c>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="18">
         <v>70</v>
       </c>
@@ -28620,7 +30735,7 @@
       </c>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="18">
         <v>71</v>
       </c>
@@ -29747,6 +31862,63 @@
         <v>62</v>
       </c>
       <c r="G133" s="17"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="82">
+        <v>125</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C134" s="83">
+        <v>54</v>
+      </c>
+      <c r="D134" s="83" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G134" s="84"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="82">
+        <v>126</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C135" s="83">
+        <v>55</v>
+      </c>
+      <c r="D135" s="83" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E135" s="83"/>
+      <c r="F135" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" s="84"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="82">
+        <v>127</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" s="83">
+        <v>56</v>
+      </c>
+      <c r="D136" s="83" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -8241,7 +8241,11 @@
     </filterColumn>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="16">
     <tableColumn id="1" name="#" dataDxfId="89"/>
@@ -8671,7 +8675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9967,7 +9971,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10126,9 +10130,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3:L4" r:id="rId2" display="http://nestuat.tradesmartonline.in/"/>
-    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="L3:L4" r:id="rId1" display="http://nestuat.tradesmartonline.in/"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -10146,7 +10150,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10217,7 +10221,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="180">
+    <row r="2" spans="1:16" ht="180" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10349,7 +10353,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24">
+    <row r="5" spans="1:16" ht="24" hidden="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -10435,7 +10439,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="96">
+    <row r="7" spans="1:16" ht="96" hidden="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="60">
+    <row r="8" spans="1:16" ht="60" hidden="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="192">
+    <row r="9" spans="1:16" ht="192" hidden="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -10579,7 +10583,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="36">
+    <row r="10" spans="1:16" ht="36" hidden="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -10625,7 +10629,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="216">
+    <row r="11" spans="1:16" ht="216" hidden="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24">
+    <row r="12" spans="1:16" ht="24" hidden="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="36">
+    <row r="13" spans="1:16" ht="36" hidden="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -10797,7 +10801,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="36">
+    <row r="15" spans="1:16" ht="36" hidden="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -10843,7 +10847,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="36">
+    <row r="16" spans="1:16" ht="36" hidden="1">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -10935,7 +10939,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24">
+    <row r="18" spans="1:16" ht="24" hidden="1">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -10981,7 +10985,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24">
+    <row r="19" spans="1:16" ht="24" hidden="1">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="24">
+    <row r="22" spans="1:16" ht="24" hidden="1">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="36">
+    <row r="24" spans="1:16" ht="36" hidden="1">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -11257,7 +11261,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="24">
+    <row r="25" spans="1:16" ht="24" hidden="1">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -11303,7 +11307,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="24">
+    <row r="26" spans="1:16" ht="24" hidden="1">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24">
+    <row r="28" spans="1:16" ht="24" hidden="1">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -11497,11 +11501,11 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="24">
+    <row r="31" spans="1:16" ht="24" hidden="1">
       <c r="A31" s="59">
         <v>25</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="16" t="s">
         <v>136</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -11510,7 +11514,7 @@
       <c r="D31" s="59">
         <v>25.1</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="59" t="s">
@@ -11556,15 +11560,15 @@
     <hyperlink ref="H22" r:id="rId9" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Holding"/>
     <hyperlink ref="H25" r:id="rId10" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/UserProfile"/>
     <hyperlink ref="H10" r:id="rId11" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/DefaultLogin"/>
-    <hyperlink ref="H7" r:id="rId12" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Login2FA&#10;"/>
-    <hyperlink ref="G2" r:id="rId13" display="http://52.43.99.16:8000/get_initial_token/"/>
-    <hyperlink ref="G7" r:id="rId14" display="http://52.43.99.16:8000/login_2fa/"/>
-    <hyperlink ref="G16" r:id="rId15" display="http://127.0.0.1:8000/place_order/"/>
-    <hyperlink ref="G17" r:id="rId16" display="http://52.43.99.16:8000/order_book/"/>
-    <hyperlink ref="G18" r:id="rId17" display="http://52.43.99.16:8000/modify_order/"/>
-    <hyperlink ref="G31" r:id="rId18" display="http://127.0.0.1:8000/logout/"/>
-    <hyperlink ref="H4" r:id="rId19"/>
-    <hyperlink ref="H2" r:id="rId20" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/GetInitialKey"/>
+    <hyperlink ref="G2" r:id="rId12" display="http://52.43.99.16:8000/get_initial_token/"/>
+    <hyperlink ref="G16" r:id="rId13" display="http://127.0.0.1:8000/place_order/"/>
+    <hyperlink ref="G17" r:id="rId14" display="http://52.43.99.16:8000/order_book/"/>
+    <hyperlink ref="G18" r:id="rId15" display="http://52.43.99.16:8000/modify_order/"/>
+    <hyperlink ref="G31" r:id="rId16" display="http://127.0.0.1:8000/logout/"/>
+    <hyperlink ref="H4" r:id="rId17"/>
+    <hyperlink ref="H2" r:id="rId18" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/GetInitialKey"/>
+    <hyperlink ref="G7" r:id="rId19" display="http://52.43.99.16:8000/login_2fa/"/>
+    <hyperlink ref="H7" r:id="rId20" display="http://nestuat.tradesmartonline.in/NestHtml5Mobile/rest/Login2FA&#10;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
@@ -13770,10 +13774,10 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17006,10 +17010,10 @@
   <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A355" sqref="A355:XFD371"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26458,10 +26462,10 @@
   <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A12:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31934,7 +31938,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/api_handler_app/Habile_Investak_API_Dictionary.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="1443">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -8241,11 +8241,7 @@
     </filterColumn>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <tableColumns count="16">
     <tableColumn id="1" name="#" dataDxfId="89"/>
@@ -8315,11 +8311,7 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K371" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:K371">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Order History"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
   </autoFilter>
@@ -9968,10 +9960,10 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10131,8 +10123,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L3:L4" r:id="rId1" display="http://nestuat.tradesmartonline.in/"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="L2" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -10146,11 +10138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10221,7 +10213,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="180" hidden="1">
+    <row r="2" spans="1:16" ht="180">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10353,7 +10345,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" hidden="1">
+    <row r="5" spans="1:16" ht="24">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -10439,7 +10431,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="96" hidden="1">
+    <row r="7" spans="1:16" ht="96">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -10487,7 +10479,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="60" hidden="1">
+    <row r="8" spans="1:16" ht="60">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -10535,7 +10527,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="192" hidden="1">
+    <row r="9" spans="1:16" ht="192">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -10583,7 +10575,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="36" hidden="1">
+    <row r="10" spans="1:16" ht="36">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -10629,7 +10621,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="216" hidden="1">
+    <row r="11" spans="1:16" ht="216">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -10677,7 +10669,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" hidden="1">
+    <row r="12" spans="1:16" ht="24">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -10723,7 +10715,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="36" hidden="1">
+    <row r="13" spans="1:16" ht="36">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -10801,7 +10793,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="36" hidden="1">
+    <row r="15" spans="1:16" ht="36">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -10847,7 +10839,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="36" hidden="1">
+    <row r="16" spans="1:16" ht="36">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -10939,7 +10931,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" hidden="1">
+    <row r="18" spans="1:16" ht="24">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -10985,7 +10977,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" hidden="1">
+    <row r="19" spans="1:16" ht="24">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -11123,7 +11115,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="24" hidden="1">
+    <row r="22" spans="1:16" ht="24">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -11215,7 +11207,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="36" hidden="1">
+    <row r="24" spans="1:16" ht="36">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -11261,7 +11253,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="24" hidden="1">
+    <row r="25" spans="1:16" ht="24">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -11307,7 +11299,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="24" hidden="1">
+    <row r="26" spans="1:16" ht="24">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -11399,7 +11391,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24" hidden="1">
+    <row r="28" spans="1:16" ht="24">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -11501,7 +11493,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="24" hidden="1">
+    <row r="31" spans="1:16" ht="24">
       <c r="A31" s="59">
         <v>25</v>
       </c>
@@ -13777,7 +13769,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14080,7 +14072,7 @@
         <v>816</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>47</v>
@@ -15591,7 +15583,9 @@
         <v>61</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="J59" s="6"/>
       <c r="K59" s="14"/>
       <c r="L59" s="6"/>
@@ -17010,10 +17004,10 @@
   <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E351" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D343" sqref="D343:D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17066,7 +17060,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17097,7 +17091,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24" hidden="1">
+    <row r="3" spans="1:11" ht="24">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17122,7 +17116,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="84" hidden="1">
+    <row r="4" spans="1:11" ht="84">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -17147,7 +17141,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="24" hidden="1">
+    <row r="5" spans="1:11" ht="24">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -17176,7 +17170,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="48" hidden="1">
+    <row r="6" spans="1:11" ht="48">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -17201,7 +17195,7 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -17232,7 +17226,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" hidden="1">
+    <row r="8" spans="1:11" ht="48">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -17259,7 +17253,7 @@
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -17290,7 +17284,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" hidden="1">
+    <row r="10" spans="1:11" ht="24">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -17315,7 +17309,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -17346,7 +17340,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -17371,7 +17365,7 @@
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -17402,7 +17396,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="180" hidden="1">
+    <row r="14" spans="1:11" ht="180">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -17429,7 +17423,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" hidden="1">
+    <row r="15" spans="1:11" ht="24">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -17454,7 +17448,7 @@
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11" ht="24" hidden="1">
+    <row r="16" spans="1:11" ht="24">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -17479,7 +17473,7 @@
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" ht="24" hidden="1">
+    <row r="17" spans="1:11" ht="24">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -17504,7 +17498,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -17529,7 +17523,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -17560,7 +17554,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="24" hidden="1">
+    <row r="20" spans="1:11" ht="24">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -17587,7 +17581,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -17612,7 +17606,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17637,7 +17631,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17662,7 +17656,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="36" hidden="1">
+    <row r="24" spans="1:11" ht="36">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17687,7 +17681,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" ht="24" hidden="1">
+    <row r="25" spans="1:11" ht="24">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -17712,7 +17706,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17737,7 +17731,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17762,7 +17756,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17787,7 +17781,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17812,7 +17806,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17835,7 +17829,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17864,7 +17858,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" ht="24" hidden="1">
+    <row r="32" spans="1:11" ht="24">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -17893,7 +17887,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" ht="24" hidden="1">
+    <row r="33" spans="1:11" ht="24">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -17922,7 +17916,7 @@
       <c r="J33" s="56"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -17951,7 +17945,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" ht="24" hidden="1">
+    <row r="35" spans="1:11" ht="24">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -17978,7 +17972,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" ht="60" hidden="1">
+    <row r="36" spans="1:11" ht="60">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -18005,7 +17999,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -18032,7 +18026,7 @@
       <c r="J37" s="56"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -18059,7 +18053,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" ht="24" hidden="1">
+    <row r="39" spans="1:11" ht="24">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -18086,7 +18080,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -18113,7 +18107,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -18136,7 +18130,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" ht="24" hidden="1">
+    <row r="42" spans="1:11" ht="24">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -18165,7 +18159,7 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" ht="24" hidden="1">
+    <row r="43" spans="1:11" ht="24">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -18192,7 +18186,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" ht="24" hidden="1">
+    <row r="44" spans="1:11" ht="24">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -18221,7 +18215,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -18248,7 +18242,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -18275,7 +18269,7 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -18304,7 +18298,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -18333,7 +18327,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -18362,7 +18356,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" ht="24" hidden="1">
+    <row r="50" spans="1:11" ht="24">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -18391,7 +18385,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -18420,7 +18414,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -18449,7 +18443,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -18478,7 +18472,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" ht="24" hidden="1">
+    <row r="54" spans="1:11" ht="24">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -18505,7 +18499,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" ht="24" hidden="1">
+    <row r="55" spans="1:11" ht="24">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -18534,7 +18528,7 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" ht="24" hidden="1">
+    <row r="56" spans="1:11" ht="24">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -18563,7 +18557,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -18592,7 +18586,7 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" ht="24" hidden="1">
+    <row r="58" spans="1:11" ht="24">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -18619,7 +18613,7 @@
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -18648,7 +18642,7 @@
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" ht="24" hidden="1">
+    <row r="60" spans="1:11" ht="24">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -18675,7 +18669,7 @@
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" ht="24" hidden="1">
+    <row r="61" spans="1:11" ht="24">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -18702,7 +18696,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" ht="24" hidden="1">
+    <row r="62" spans="1:11" ht="24">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -18729,7 +18723,7 @@
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" ht="24" hidden="1">
+    <row r="63" spans="1:11" ht="24">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -18756,7 +18750,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" ht="24" hidden="1">
+    <row r="64" spans="1:11" ht="24">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -18783,7 +18777,7 @@
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" ht="24" hidden="1">
+    <row r="65" spans="1:11" ht="24">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -18810,7 +18804,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" ht="24" hidden="1">
+    <row r="66" spans="1:11" ht="24">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -18837,7 +18831,7 @@
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" ht="24" hidden="1">
+    <row r="67" spans="1:11" ht="24">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -18864,7 +18858,7 @@
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" ht="24" hidden="1">
+    <row r="68" spans="1:11" ht="24">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -18891,7 +18885,7 @@
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" ht="24" hidden="1">
+    <row r="69" spans="1:11" ht="24">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -18918,7 +18912,7 @@
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" ht="24" hidden="1">
+    <row r="70" spans="1:11" ht="24">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -18945,7 +18939,7 @@
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -18972,7 +18966,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" ht="24" hidden="1">
+    <row r="72" spans="1:11" ht="24">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -18999,7 +18993,7 @@
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -19026,7 +19020,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -19053,7 +19047,7 @@
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="24" hidden="1">
+    <row r="75" spans="1:11" ht="24">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -19080,7 +19074,7 @@
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="24" hidden="1">
+    <row r="76" spans="1:11" ht="24">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -19107,7 +19101,7 @@
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="24" hidden="1">
+    <row r="77" spans="1:11" ht="24">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -19134,7 +19128,7 @@
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="24" hidden="1">
+    <row r="78" spans="1:11" ht="24">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -19161,7 +19155,7 @@
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="24" hidden="1">
+    <row r="79" spans="1:11" ht="24">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -19188,7 +19182,7 @@
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="36" hidden="1">
+    <row r="80" spans="1:11" ht="36">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -19215,7 +19209,7 @@
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="24" hidden="1">
+    <row r="81" spans="1:11" ht="24">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -19242,7 +19236,7 @@
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="24" hidden="1">
+    <row r="82" spans="1:11" ht="24">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -19269,7 +19263,7 @@
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -19296,7 +19290,7 @@
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="24" hidden="1">
+    <row r="84" spans="1:11" ht="24">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -19323,7 +19317,7 @@
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -19350,7 +19344,7 @@
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="24" hidden="1">
+    <row r="86" spans="1:11" ht="24">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -19377,7 +19371,7 @@
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="24" hidden="1">
+    <row r="87" spans="1:11" ht="24">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -19404,7 +19398,7 @@
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -19431,7 +19425,7 @@
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -19456,7 +19450,7 @@
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="24" hidden="1">
+    <row r="90" spans="1:11" ht="24">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -19483,7 +19477,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -19508,7 +19502,7 @@
       <c r="J91" s="24"/>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:11" ht="36" hidden="1">
+    <row r="92" spans="1:11" ht="36">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -19535,7 +19529,7 @@
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="24" hidden="1">
+    <row r="93" spans="1:11" ht="24">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -19562,7 +19556,7 @@
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -19587,7 +19581,7 @@
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -19612,7 +19606,7 @@
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -19637,7 +19631,7 @@
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="1:11" ht="24" hidden="1">
+    <row r="97" spans="1:11" ht="24">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -19664,7 +19658,7 @@
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="1:11" ht="24" hidden="1">
+    <row r="98" spans="1:11" ht="24">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -19691,7 +19685,7 @@
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="1:11" ht="24" hidden="1">
+    <row r="99" spans="1:11" ht="24">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -19720,7 +19714,7 @@
       <c r="J99" s="24"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="1:11" ht="24" hidden="1">
+    <row r="100" spans="1:11" ht="24">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -19747,7 +19741,7 @@
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -19772,7 +19766,7 @@
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -19799,7 +19793,7 @@
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="1:11" ht="24" hidden="1">
+    <row r="103" spans="1:11" ht="24">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -19826,7 +19820,7 @@
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -19851,7 +19845,7 @@
       <c r="J104" s="58"/>
       <c r="K104" s="58"/>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -19876,7 +19870,7 @@
       <c r="J105" s="54"/>
       <c r="K105" s="54"/>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -19901,7 +19895,7 @@
       <c r="J106" s="58"/>
       <c r="K106" s="58"/>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -19926,7 +19920,7 @@
       <c r="J107" s="54"/>
       <c r="K107" s="54"/>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -19955,7 +19949,7 @@
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
     </row>
-    <row r="109" spans="1:11" ht="24" hidden="1">
+    <row r="109" spans="1:11" ht="24">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -19982,7 +19976,7 @@
       <c r="J109" s="24"/>
       <c r="K109" s="24"/>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -20011,7 +20005,7 @@
       <c r="J110" s="24"/>
       <c r="K110" s="24"/>
     </row>
-    <row r="111" spans="1:11" ht="24" hidden="1">
+    <row r="111" spans="1:11" ht="24">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -20429,7 +20423,7 @@
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -20458,7 +20452,7 @@
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
     </row>
-    <row r="128" spans="1:11" ht="24" hidden="1">
+    <row r="128" spans="1:11" ht="24">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -20485,7 +20479,7 @@
       <c r="J128" s="24"/>
       <c r="K128" s="24"/>
     </row>
-    <row r="129" spans="1:11" ht="24" hidden="1">
+    <row r="129" spans="1:11" ht="24">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -20512,7 +20506,7 @@
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -20539,7 +20533,7 @@
       <c r="J130" s="24"/>
       <c r="K130" s="24"/>
     </row>
-    <row r="131" spans="1:11" ht="24" hidden="1">
+    <row r="131" spans="1:11" ht="24">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -20566,7 +20560,7 @@
       <c r="J131" s="24"/>
       <c r="K131" s="24"/>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -20593,7 +20587,7 @@
       <c r="J132" s="24"/>
       <c r="K132" s="24"/>
     </row>
-    <row r="133" spans="1:11" ht="24" hidden="1">
+    <row r="133" spans="1:11" ht="24">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -20620,7 +20614,7 @@
       <c r="J133" s="24"/>
       <c r="K133" s="24"/>
     </row>
-    <row r="134" spans="1:11" ht="24" hidden="1">
+    <row r="134" spans="1:11" ht="24">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -20647,7 +20641,7 @@
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
     </row>
-    <row r="135" spans="1:11" ht="24" hidden="1">
+    <row r="135" spans="1:11" ht="24">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -20674,7 +20668,7 @@
       <c r="J135" s="24"/>
       <c r="K135" s="24"/>
     </row>
-    <row r="136" spans="1:11" ht="24" hidden="1">
+    <row r="136" spans="1:11" ht="24">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -20701,7 +20695,7 @@
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -20728,7 +20722,7 @@
       <c r="J137" s="24"/>
       <c r="K137" s="24"/>
     </row>
-    <row r="138" spans="1:11" ht="24" hidden="1">
+    <row r="138" spans="1:11" ht="24">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -20755,7 +20749,7 @@
       <c r="J138" s="24"/>
       <c r="K138" s="24"/>
     </row>
-    <row r="139" spans="1:11" ht="24" hidden="1">
+    <row r="139" spans="1:11" ht="24">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -20782,7 +20776,7 @@
       <c r="J139" s="24"/>
       <c r="K139" s="24"/>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -20809,7 +20803,7 @@
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -20836,7 +20830,7 @@
       <c r="J141" s="24"/>
       <c r="K141" s="24"/>
     </row>
-    <row r="142" spans="1:11" ht="24" hidden="1">
+    <row r="142" spans="1:11" ht="24">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -20863,7 +20857,7 @@
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
     </row>
-    <row r="143" spans="1:11" ht="24" hidden="1">
+    <row r="143" spans="1:11" ht="24">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -20890,7 +20884,7 @@
       <c r="J143" s="24"/>
       <c r="K143" s="24"/>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -20915,7 +20909,7 @@
       <c r="J144" s="24"/>
       <c r="K144" s="24"/>
     </row>
-    <row r="145" spans="1:11" ht="24" hidden="1">
+    <row r="145" spans="1:11" ht="24">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -20942,7 +20936,7 @@
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
     </row>
-    <row r="146" spans="1:11" ht="24" hidden="1">
+    <row r="146" spans="1:11" ht="24">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -20969,7 +20963,7 @@
       <c r="J146" s="24"/>
       <c r="K146" s="24"/>
     </row>
-    <row r="147" spans="1:11" ht="24" hidden="1">
+    <row r="147" spans="1:11" ht="24">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -20996,7 +20990,7 @@
       <c r="J147" s="24"/>
       <c r="K147" s="24"/>
     </row>
-    <row r="148" spans="1:11" ht="24" hidden="1">
+    <row r="148" spans="1:11" ht="24">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -21023,7 +21017,7 @@
       <c r="J148" s="24"/>
       <c r="K148" s="24"/>
     </row>
-    <row r="149" spans="1:11" ht="24" hidden="1">
+    <row r="149" spans="1:11" ht="24">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -21050,7 +21044,7 @@
       <c r="J149" s="24"/>
       <c r="K149" s="24"/>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -21077,7 +21071,7 @@
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
     </row>
-    <row r="151" spans="1:11" ht="24" hidden="1">
+    <row r="151" spans="1:11" ht="24">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -21104,7 +21098,7 @@
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
     </row>
-    <row r="152" spans="1:11" ht="24" hidden="1">
+    <row r="152" spans="1:11" ht="24">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -21131,7 +21125,7 @@
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
     </row>
-    <row r="153" spans="1:11" ht="24" hidden="1">
+    <row r="153" spans="1:11" ht="24">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -21158,7 +21152,7 @@
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -21185,7 +21179,7 @@
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -21212,7 +21206,7 @@
       <c r="J155" s="24"/>
       <c r="K155" s="24"/>
     </row>
-    <row r="156" spans="1:11" ht="24" hidden="1">
+    <row r="156" spans="1:11" ht="24">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -21239,7 +21233,7 @@
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -21264,7 +21258,7 @@
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -21289,7 +21283,7 @@
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -21314,7 +21308,7 @@
       <c r="J159" s="24"/>
       <c r="K159" s="24"/>
     </row>
-    <row r="160" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="160" spans="1:11" ht="16.5" customHeight="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -21339,7 +21333,7 @@
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -21364,7 +21358,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -21389,7 +21383,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -21418,7 +21412,7 @@
       <c r="J163" s="24"/>
       <c r="K163" s="24"/>
     </row>
-    <row r="164" spans="1:11" ht="24" hidden="1">
+    <row r="164" spans="1:11" ht="24">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -21445,7 +21439,7 @@
       <c r="J164" s="24"/>
       <c r="K164" s="24"/>
     </row>
-    <row r="165" spans="1:11" ht="24" hidden="1">
+    <row r="165" spans="1:11" ht="24">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -21472,7 +21466,7 @@
       <c r="J165" s="24"/>
       <c r="K165" s="24"/>
     </row>
-    <row r="166" spans="1:11" ht="24" hidden="1">
+    <row r="166" spans="1:11" ht="24">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -21499,7 +21493,7 @@
       <c r="J166" s="24"/>
       <c r="K166" s="24"/>
     </row>
-    <row r="167" spans="1:11" ht="24" hidden="1">
+    <row r="167" spans="1:11" ht="24">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -21526,7 +21520,7 @@
       <c r="J167" s="24"/>
       <c r="K167" s="24"/>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -21553,7 +21547,7 @@
       <c r="J168" s="24"/>
       <c r="K168" s="24"/>
     </row>
-    <row r="169" spans="1:11" ht="24" hidden="1">
+    <row r="169" spans="1:11" ht="24">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -21580,7 +21574,7 @@
       <c r="J169" s="24"/>
       <c r="K169" s="24"/>
     </row>
-    <row r="170" spans="1:11" ht="24" hidden="1">
+    <row r="170" spans="1:11" ht="24">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -21607,7 +21601,7 @@
       <c r="J170" s="24"/>
       <c r="K170" s="24"/>
     </row>
-    <row r="171" spans="1:11" ht="24" hidden="1">
+    <row r="171" spans="1:11" ht="24">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -21634,7 +21628,7 @@
       <c r="J171" s="24"/>
       <c r="K171" s="24"/>
     </row>
-    <row r="172" spans="1:11" ht="24" hidden="1">
+    <row r="172" spans="1:11" ht="24">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -21661,7 +21655,7 @@
       <c r="J172" s="24"/>
       <c r="K172" s="24"/>
     </row>
-    <row r="173" spans="1:11" ht="24" hidden="1">
+    <row r="173" spans="1:11" ht="24">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -21688,7 +21682,7 @@
       <c r="J173" s="24"/>
       <c r="K173" s="24"/>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -21715,7 +21709,7 @@
       <c r="J174" s="24"/>
       <c r="K174" s="24"/>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -21742,7 +21736,7 @@
       <c r="J175" s="24"/>
       <c r="K175" s="24"/>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -21769,7 +21763,7 @@
       <c r="J176" s="24"/>
       <c r="K176" s="24"/>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -21796,7 +21790,7 @@
       <c r="J177" s="24"/>
       <c r="K177" s="24"/>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -21823,7 +21817,7 @@
       <c r="J178" s="24"/>
       <c r="K178" s="24"/>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -21850,7 +21844,7 @@
       <c r="J179" s="24"/>
       <c r="K179" s="24"/>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -21877,7 +21871,7 @@
       <c r="J180" s="24"/>
       <c r="K180" s="24"/>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -21904,7 +21898,7 @@
       <c r="J181" s="24"/>
       <c r="K181" s="24"/>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -21931,7 +21925,7 @@
       <c r="J182" s="24"/>
       <c r="K182" s="24"/>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -21958,7 +21952,7 @@
       <c r="J183" s="24"/>
       <c r="K183" s="24"/>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -21985,7 +21979,7 @@
       <c r="J184" s="24"/>
       <c r="K184" s="24"/>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -22012,7 +22006,7 @@
       <c r="J185" s="24"/>
       <c r="K185" s="24"/>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -22039,7 +22033,7 @@
       <c r="J186" s="24"/>
       <c r="K186" s="24"/>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -22066,7 +22060,7 @@
       <c r="J187" s="24"/>
       <c r="K187" s="24"/>
     </row>
-    <row r="188" spans="1:11" ht="24" hidden="1">
+    <row r="188" spans="1:11" ht="24">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -22095,7 +22089,7 @@
       <c r="J188" s="24"/>
       <c r="K188" s="24"/>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -22122,7 +22116,7 @@
       <c r="J189" s="24"/>
       <c r="K189" s="24"/>
     </row>
-    <row r="190" spans="1:11" ht="24" hidden="1">
+    <row r="190" spans="1:11" ht="24">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -22149,7 +22143,7 @@
       <c r="J190" s="24"/>
       <c r="K190" s="24"/>
     </row>
-    <row r="191" spans="1:11" ht="24" hidden="1">
+    <row r="191" spans="1:11" ht="24">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -22176,7 +22170,7 @@
       <c r="J191" s="24"/>
       <c r="K191" s="24"/>
     </row>
-    <row r="192" spans="1:11" ht="24" hidden="1">
+    <row r="192" spans="1:11" ht="24">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -22203,7 +22197,7 @@
       <c r="J192" s="24"/>
       <c r="K192" s="24"/>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -22230,7 +22224,7 @@
       <c r="J193" s="24"/>
       <c r="K193" s="24"/>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -22257,7 +22251,7 @@
       <c r="J194" s="24"/>
       <c r="K194" s="24"/>
     </row>
-    <row r="195" spans="1:11" ht="48" hidden="1">
+    <row r="195" spans="1:11" ht="48">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -22286,7 +22280,7 @@
       <c r="J195" s="24"/>
       <c r="K195" s="24"/>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -22313,7 +22307,7 @@
       <c r="J196" s="24"/>
       <c r="K196" s="24"/>
     </row>
-    <row r="197" spans="1:11" ht="24" hidden="1">
+    <row r="197" spans="1:11" ht="24">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -22342,7 +22336,7 @@
       <c r="J197" s="24"/>
       <c r="K197" s="24"/>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -22367,7 +22361,7 @@
       <c r="J198" s="24"/>
       <c r="K198" s="24"/>
     </row>
-    <row r="199" spans="1:11" hidden="1">
+    <row r="199" spans="1:11">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -22392,7 +22386,7 @@
       <c r="J199" s="24"/>
       <c r="K199" s="24"/>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:11">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -22417,7 +22411,7 @@
       <c r="J200" s="24"/>
       <c r="K200" s="24"/>
     </row>
-    <row r="201" spans="1:11" hidden="1">
+    <row r="201" spans="1:11">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -22442,7 +22436,7 @@
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
     </row>
-    <row r="202" spans="1:11" hidden="1">
+    <row r="202" spans="1:11">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -22467,7 +22461,7 @@
       <c r="J202" s="25"/>
       <c r="K202" s="25"/>
     </row>
-    <row r="203" spans="1:11" hidden="1">
+    <row r="203" spans="1:11">
       <c r="A203" s="80">
         <v>18</v>
       </c>
@@ -22492,7 +22486,7 @@
       <c r="J203" s="81"/>
       <c r="K203" s="81"/>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:11">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -22521,7 +22515,7 @@
       <c r="J204" s="24"/>
       <c r="K204" s="24"/>
     </row>
-    <row r="205" spans="1:11" ht="24" hidden="1">
+    <row r="205" spans="1:11" ht="24">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -22548,7 +22542,7 @@
       <c r="J205" s="24"/>
       <c r="K205" s="24"/>
     </row>
-    <row r="206" spans="1:11" ht="24" hidden="1">
+    <row r="206" spans="1:11" ht="24">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -22575,7 +22569,7 @@
       <c r="J206" s="24"/>
       <c r="K206" s="24"/>
     </row>
-    <row r="207" spans="1:11" ht="24" hidden="1">
+    <row r="207" spans="1:11" ht="24">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -22602,7 +22596,7 @@
       <c r="J207" s="24"/>
       <c r="K207" s="24"/>
     </row>
-    <row r="208" spans="1:11" ht="24" hidden="1">
+    <row r="208" spans="1:11" ht="24">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -22629,7 +22623,7 @@
       <c r="J208" s="24"/>
       <c r="K208" s="24"/>
     </row>
-    <row r="209" spans="1:11" ht="24" hidden="1">
+    <row r="209" spans="1:11" ht="24">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -22656,7 +22650,7 @@
       <c r="J209" s="24"/>
       <c r="K209" s="24"/>
     </row>
-    <row r="210" spans="1:11" ht="24" hidden="1">
+    <row r="210" spans="1:11" ht="24">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -22683,7 +22677,7 @@
       <c r="J210" s="24"/>
       <c r="K210" s="24"/>
     </row>
-    <row r="211" spans="1:11" ht="24" hidden="1">
+    <row r="211" spans="1:11" ht="24">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -22710,7 +22704,7 @@
       <c r="J211" s="24"/>
       <c r="K211" s="24"/>
     </row>
-    <row r="212" spans="1:11" ht="24" hidden="1">
+    <row r="212" spans="1:11" ht="24">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -22737,7 +22731,7 @@
       <c r="J212" s="24"/>
       <c r="K212" s="24"/>
     </row>
-    <row r="213" spans="1:11" ht="24" hidden="1">
+    <row r="213" spans="1:11" ht="24">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -22764,7 +22758,7 @@
       <c r="J213" s="24"/>
       <c r="K213" s="24"/>
     </row>
-    <row r="214" spans="1:11" ht="24" hidden="1">
+    <row r="214" spans="1:11" ht="24">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -22791,7 +22785,7 @@
       <c r="J214" s="24"/>
       <c r="K214" s="24"/>
     </row>
-    <row r="215" spans="1:11" ht="24" hidden="1">
+    <row r="215" spans="1:11" ht="24">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -22818,7 +22812,7 @@
       <c r="J215" s="24"/>
       <c r="K215" s="24"/>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -22841,7 +22835,7 @@
       <c r="J216" s="24"/>
       <c r="K216" s="24"/>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -22864,7 +22858,7 @@
       <c r="J217" s="24"/>
       <c r="K217" s="24"/>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -22887,7 +22881,7 @@
       <c r="J218" s="24"/>
       <c r="K218" s="24"/>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -22916,7 +22910,7 @@
       <c r="J219" s="24"/>
       <c r="K219" s="24"/>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -22941,7 +22935,7 @@
       <c r="J220" s="24"/>
       <c r="K220" s="24"/>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -22966,7 +22960,7 @@
       <c r="J221" s="24"/>
       <c r="K221" s="24"/>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -22991,7 +22985,7 @@
       <c r="J222" s="24"/>
       <c r="K222" s="24"/>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -23016,7 +23010,7 @@
       <c r="J223" s="24"/>
       <c r="K223" s="24"/>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -23041,7 +23035,7 @@
       <c r="J224" s="24"/>
       <c r="K224" s="24"/>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -23066,7 +23060,7 @@
       <c r="J225" s="24"/>
       <c r="K225" s="24"/>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -23091,7 +23085,7 @@
       <c r="J226" s="24"/>
       <c r="K226" s="24"/>
     </row>
-    <row r="227" spans="1:11" ht="24" hidden="1">
+    <row r="227" spans="1:11" ht="24">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -23118,7 +23112,7 @@
       <c r="J227" s="24"/>
       <c r="K227" s="24"/>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -23143,7 +23137,7 @@
       <c r="J228" s="24"/>
       <c r="K228" s="24"/>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -23170,7 +23164,7 @@
       <c r="J229" s="24"/>
       <c r="K229" s="24"/>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -23197,7 +23191,7 @@
       <c r="J230" s="24"/>
       <c r="K230" s="24"/>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -23222,7 +23216,7 @@
       <c r="J231" s="24"/>
       <c r="K231" s="24"/>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -23247,7 +23241,7 @@
       <c r="J232" s="24"/>
       <c r="K232" s="24"/>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -23272,7 +23266,7 @@
       <c r="J233" s="24"/>
       <c r="K233" s="24"/>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -23297,7 +23291,7 @@
       <c r="J234" s="24"/>
       <c r="K234" s="24"/>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -23322,7 +23316,7 @@
       <c r="J235" s="24"/>
       <c r="K235" s="24"/>
     </row>
-    <row r="236" spans="1:11" ht="24" hidden="1">
+    <row r="236" spans="1:11" ht="24">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -23349,7 +23343,7 @@
       <c r="J236" s="24"/>
       <c r="K236" s="24"/>
     </row>
-    <row r="237" spans="1:11" ht="24" hidden="1">
+    <row r="237" spans="1:11" ht="24">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -23376,7 +23370,7 @@
       <c r="J237" s="24"/>
       <c r="K237" s="24"/>
     </row>
-    <row r="238" spans="1:11" ht="24" hidden="1">
+    <row r="238" spans="1:11" ht="24">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -23403,7 +23397,7 @@
       <c r="J238" s="24"/>
       <c r="K238" s="24"/>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -23432,7 +23426,7 @@
       <c r="J239" s="24"/>
       <c r="K239" s="24"/>
     </row>
-    <row r="240" spans="1:11" ht="24" hidden="1">
+    <row r="240" spans="1:11" ht="24">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -23459,7 +23453,7 @@
       <c r="J240" s="24"/>
       <c r="K240" s="24"/>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -23484,7 +23478,7 @@
       <c r="J241" s="24"/>
       <c r="K241" s="24"/>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -23509,7 +23503,7 @@
       <c r="J242" s="24"/>
       <c r="K242" s="24"/>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -23534,7 +23528,7 @@
       <c r="J243" s="24"/>
       <c r="K243" s="24"/>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -23559,7 +23553,7 @@
       <c r="J244" s="24"/>
       <c r="K244" s="24"/>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -23584,7 +23578,7 @@
       <c r="J245" s="24"/>
       <c r="K245" s="24"/>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -23609,7 +23603,7 @@
       <c r="J246" s="24"/>
       <c r="K246" s="24"/>
     </row>
-    <row r="247" spans="1:11" ht="24" hidden="1">
+    <row r="247" spans="1:11" ht="24">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -23636,7 +23630,7 @@
       <c r="J247" s="24"/>
       <c r="K247" s="24"/>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -23661,7 +23655,7 @@
       <c r="J248" s="24"/>
       <c r="K248" s="24"/>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -23686,7 +23680,7 @@
       <c r="J249" s="24"/>
       <c r="K249" s="24"/>
     </row>
-    <row r="250" spans="1:11" ht="24" hidden="1">
+    <row r="250" spans="1:11" ht="24">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -23713,7 +23707,7 @@
       <c r="J250" s="24"/>
       <c r="K250" s="24"/>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -23738,7 +23732,7 @@
       <c r="J251" s="24"/>
       <c r="K251" s="24"/>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -23763,7 +23757,7 @@
       <c r="J252" s="24"/>
       <c r="K252" s="24"/>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -23790,7 +23784,7 @@
       <c r="J253" s="24"/>
       <c r="K253" s="24"/>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -23817,7 +23811,7 @@
       <c r="J254" s="24"/>
       <c r="K254" s="24"/>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -23842,7 +23836,7 @@
       <c r="J255" s="24"/>
       <c r="K255" s="24"/>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -23867,7 +23861,7 @@
       <c r="J256" s="24"/>
       <c r="K256" s="24"/>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -23892,7 +23886,7 @@
       <c r="J257" s="24"/>
       <c r="K257" s="24"/>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -23917,7 +23911,7 @@
       <c r="J258" s="24"/>
       <c r="K258" s="24"/>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -23942,7 +23936,7 @@
       <c r="J259" s="24"/>
       <c r="K259" s="24"/>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -23967,7 +23961,7 @@
       <c r="J260" s="24"/>
       <c r="K260" s="24"/>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -23992,7 +23986,7 @@
       <c r="J261" s="24"/>
       <c r="K261" s="24"/>
     </row>
-    <row r="262" spans="1:11" ht="24" hidden="1">
+    <row r="262" spans="1:11" ht="24">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -24019,7 +24013,7 @@
       <c r="J262" s="24"/>
       <c r="K262" s="24"/>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -24044,7 +24038,7 @@
       <c r="J263" s="24"/>
       <c r="K263" s="24"/>
     </row>
-    <row r="264" spans="1:11" ht="24" hidden="1">
+    <row r="264" spans="1:11" ht="24">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -24071,7 +24065,7 @@
       <c r="J264" s="24"/>
       <c r="K264" s="24"/>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -24096,7 +24090,7 @@
       <c r="J265" s="24"/>
       <c r="K265" s="24"/>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -24121,7 +24115,7 @@
       <c r="J266" s="24"/>
       <c r="K266" s="24"/>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -24146,7 +24140,7 @@
       <c r="J267" s="24"/>
       <c r="K267" s="24"/>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -24171,7 +24165,7 @@
       <c r="J268" s="24"/>
       <c r="K268" s="24"/>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -24196,7 +24190,7 @@
       <c r="J269" s="24"/>
       <c r="K269" s="24"/>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -24221,7 +24215,7 @@
       <c r="J270" s="24"/>
       <c r="K270" s="24"/>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -24246,7 +24240,7 @@
       <c r="J271" s="24"/>
       <c r="K271" s="24"/>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -24275,7 +24269,7 @@
       <c r="J272" s="24"/>
       <c r="K272" s="24"/>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -24302,7 +24296,7 @@
       <c r="J273" s="24"/>
       <c r="K273" s="24"/>
     </row>
-    <row r="274" spans="1:11" ht="24" hidden="1">
+    <row r="274" spans="1:11" ht="24">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -24329,7 +24323,7 @@
       <c r="J274" s="24"/>
       <c r="K274" s="24"/>
     </row>
-    <row r="275" spans="1:11" ht="24" hidden="1">
+    <row r="275" spans="1:11" ht="24">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -24356,7 +24350,7 @@
       <c r="J275" s="24"/>
       <c r="K275" s="24"/>
     </row>
-    <row r="276" spans="1:11" ht="24" hidden="1">
+    <row r="276" spans="1:11" ht="24">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -24383,7 +24377,7 @@
       <c r="J276" s="24"/>
       <c r="K276" s="24"/>
     </row>
-    <row r="277" spans="1:11" ht="24" hidden="1">
+    <row r="277" spans="1:11" ht="24">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -24410,7 +24404,7 @@
       <c r="J277" s="24"/>
       <c r="K277" s="24"/>
     </row>
-    <row r="278" spans="1:11" ht="24" hidden="1">
+    <row r="278" spans="1:11" ht="24">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -24437,7 +24431,7 @@
       <c r="J278" s="24"/>
       <c r="K278" s="24"/>
     </row>
-    <row r="279" spans="1:11" ht="0.75" hidden="1" customHeight="1">
+    <row r="279" spans="1:11" ht="0.75" customHeight="1">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -24466,7 +24460,7 @@
       <c r="J279" s="24"/>
       <c r="K279" s="24"/>
     </row>
-    <row r="280" spans="1:11" hidden="1">
+    <row r="280" spans="1:11">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -24493,7 +24487,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="25"/>
     </row>
-    <row r="281" spans="1:11" hidden="1">
+    <row r="281" spans="1:11">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -24522,7 +24516,7 @@
       <c r="J281" s="24"/>
       <c r="K281" s="24"/>
     </row>
-    <row r="282" spans="1:11" ht="24" hidden="1">
+    <row r="282" spans="1:11" ht="24">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -24551,7 +24545,7 @@
       <c r="J282" s="24"/>
       <c r="K282" s="24"/>
     </row>
-    <row r="283" spans="1:11" ht="24" hidden="1">
+    <row r="283" spans="1:11" ht="24">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -24580,7 +24574,7 @@
       <c r="J283" s="24"/>
       <c r="K283" s="24"/>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -24609,7 +24603,7 @@
       <c r="J284" s="24"/>
       <c r="K284" s="24"/>
     </row>
-    <row r="285" spans="1:11" hidden="1">
+    <row r="285" spans="1:11">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -24634,7 +24628,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="25"/>
     </row>
-    <row r="286" spans="1:11" hidden="1">
+    <row r="286" spans="1:11">
       <c r="A286" s="80">
         <v>29</v>
       </c>
@@ -24659,7 +24653,7 @@
       <c r="J286" s="81"/>
       <c r="K286" s="81"/>
     </row>
-    <row r="287" spans="1:11" hidden="1">
+    <row r="287" spans="1:11">
       <c r="A287" s="1">
         <v>282</v>
       </c>
@@ -24682,7 +24676,7 @@
       <c r="J287" s="81"/>
       <c r="K287" s="81"/>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11">
       <c r="A288" s="1">
         <v>217</v>
       </c>
@@ -24705,7 +24699,7 @@
       <c r="J288" s="81"/>
       <c r="K288" s="81"/>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289" s="80"/>
       <c r="B289" s="1" t="s">
         <v>126</v>
@@ -24726,7 +24720,7 @@
       <c r="J289" s="81"/>
       <c r="K289" s="81"/>
     </row>
-    <row r="290" spans="1:11" hidden="1">
+    <row r="290" spans="1:11">
       <c r="A290" s="80"/>
       <c r="B290" s="1" t="s">
         <v>126</v>
@@ -24747,7 +24741,7 @@
       <c r="J290" s="81"/>
       <c r="K290" s="81"/>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11">
       <c r="A291" s="80"/>
       <c r="B291" s="1" t="s">
         <v>126</v>
@@ -24768,7 +24762,7 @@
       <c r="J291" s="81"/>
       <c r="K291" s="81"/>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11">
       <c r="A292" s="80"/>
       <c r="B292" s="1" t="s">
         <v>126</v>
@@ -24789,7 +24783,7 @@
       <c r="J292" s="81"/>
       <c r="K292" s="81"/>
     </row>
-    <row r="293" spans="1:11" hidden="1">
+    <row r="293" spans="1:11">
       <c r="A293" s="80"/>
       <c r="B293" s="1" t="s">
         <v>126</v>
@@ -24810,7 +24804,7 @@
       <c r="J293" s="81"/>
       <c r="K293" s="81"/>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294" s="80"/>
       <c r="B294" s="1" t="s">
         <v>126</v>
@@ -24831,7 +24825,7 @@
       <c r="J294" s="81"/>
       <c r="K294" s="81"/>
     </row>
-    <row r="295" spans="1:11" hidden="1">
+    <row r="295" spans="1:11">
       <c r="A295" s="80"/>
       <c r="B295" s="1" t="s">
         <v>126</v>
@@ -24852,7 +24846,7 @@
       <c r="J295" s="81"/>
       <c r="K295" s="81"/>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296" s="80"/>
       <c r="B296" s="1" t="s">
         <v>126</v>
@@ -24873,7 +24867,7 @@
       <c r="J296" s="81"/>
       <c r="K296" s="81"/>
     </row>
-    <row r="297" spans="1:11" hidden="1">
+    <row r="297" spans="1:11">
       <c r="A297" s="80"/>
       <c r="B297" s="1" t="s">
         <v>126</v>
@@ -24894,7 +24888,7 @@
       <c r="J297" s="81"/>
       <c r="K297" s="81"/>
     </row>
-    <row r="298" spans="1:11" hidden="1">
+    <row r="298" spans="1:11">
       <c r="A298" s="80"/>
       <c r="B298" s="1" t="s">
         <v>126</v>
@@ -24915,7 +24909,7 @@
       <c r="J298" s="81"/>
       <c r="K298" s="81"/>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299" s="80"/>
       <c r="B299" s="1" t="s">
         <v>126</v>
@@ -24936,7 +24930,7 @@
       <c r="J299" s="81"/>
       <c r="K299" s="81"/>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300" s="80"/>
       <c r="B300" s="1" t="s">
         <v>126</v>
@@ -24957,7 +24951,7 @@
       <c r="J300" s="81"/>
       <c r="K300" s="81"/>
     </row>
-    <row r="301" spans="1:11" hidden="1">
+    <row r="301" spans="1:11">
       <c r="A301" s="80"/>
       <c r="B301" s="1" t="s">
         <v>126</v>
@@ -24978,7 +24972,7 @@
       <c r="J301" s="81"/>
       <c r="K301" s="81"/>
     </row>
-    <row r="302" spans="1:11" hidden="1">
+    <row r="302" spans="1:11">
       <c r="A302" s="80"/>
       <c r="B302" s="1" t="s">
         <v>126</v>
@@ -24999,7 +24993,7 @@
       <c r="J302" s="81"/>
       <c r="K302" s="81"/>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303" s="80"/>
       <c r="B303" s="1" t="s">
         <v>126</v>
@@ -25020,7 +25014,7 @@
       <c r="J303" s="81"/>
       <c r="K303" s="81"/>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304" s="80"/>
       <c r="B304" s="1" t="s">
         <v>126</v>
@@ -25041,7 +25035,7 @@
       <c r="J304" s="81"/>
       <c r="K304" s="81"/>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11">
       <c r="A305" s="80"/>
       <c r="B305" s="1" t="s">
         <v>126</v>
@@ -25062,7 +25056,7 @@
       <c r="J305" s="81"/>
       <c r="K305" s="81"/>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11">
       <c r="A306" s="80"/>
       <c r="B306" s="1" t="s">
         <v>126</v>
@@ -25083,7 +25077,7 @@
       <c r="J306" s="81"/>
       <c r="K306" s="81"/>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11">
       <c r="A307" s="80"/>
       <c r="B307" s="1" t="s">
         <v>126</v>
@@ -25104,7 +25098,7 @@
       <c r="J307" s="81"/>
       <c r="K307" s="81"/>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11">
       <c r="A308" s="80"/>
       <c r="B308" s="1" t="s">
         <v>126</v>
@@ -25125,7 +25119,7 @@
       <c r="J308" s="81"/>
       <c r="K308" s="81"/>
     </row>
-    <row r="309" spans="1:11" hidden="1">
+    <row r="309" spans="1:11">
       <c r="A309" s="80"/>
       <c r="B309" s="1" t="s">
         <v>126</v>
@@ -25146,7 +25140,7 @@
       <c r="J309" s="81"/>
       <c r="K309" s="81"/>
     </row>
-    <row r="310" spans="1:11" hidden="1">
+    <row r="310" spans="1:11">
       <c r="A310" s="80"/>
       <c r="B310" s="1" t="s">
         <v>126</v>
@@ -25167,7 +25161,7 @@
       <c r="J310" s="81"/>
       <c r="K310" s="81"/>
     </row>
-    <row r="311" spans="1:11" hidden="1">
+    <row r="311" spans="1:11">
       <c r="A311" s="80"/>
       <c r="B311" s="1" t="s">
         <v>126</v>
@@ -25188,7 +25182,7 @@
       <c r="J311" s="81"/>
       <c r="K311" s="81"/>
     </row>
-    <row r="312" spans="1:11" hidden="1">
+    <row r="312" spans="1:11">
       <c r="A312" s="80"/>
       <c r="B312" s="1" t="s">
         <v>126</v>
@@ -25209,7 +25203,7 @@
       <c r="J312" s="81"/>
       <c r="K312" s="81"/>
     </row>
-    <row r="313" spans="1:11" hidden="1">
+    <row r="313" spans="1:11">
       <c r="A313" s="80"/>
       <c r="B313" s="1" t="s">
         <v>126</v>
@@ -25230,7 +25224,7 @@
       <c r="J313" s="81"/>
       <c r="K313" s="81"/>
     </row>
-    <row r="314" spans="1:11" hidden="1">
+    <row r="314" spans="1:11">
       <c r="A314" s="80"/>
       <c r="B314" s="1" t="s">
         <v>126</v>
@@ -25251,7 +25245,7 @@
       <c r="J314" s="81"/>
       <c r="K314" s="81"/>
     </row>
-    <row r="315" spans="1:11" hidden="1">
+    <row r="315" spans="1:11">
       <c r="A315" s="80"/>
       <c r="B315" s="1" t="s">
         <v>126</v>
@@ -25272,7 +25266,7 @@
       <c r="J315" s="81"/>
       <c r="K315" s="81"/>
     </row>
-    <row r="316" spans="1:11" hidden="1">
+    <row r="316" spans="1:11">
       <c r="A316" s="80"/>
       <c r="B316" s="1" t="s">
         <v>126</v>
@@ -25293,7 +25287,7 @@
       <c r="J316" s="81"/>
       <c r="K316" s="81"/>
     </row>
-    <row r="317" spans="1:11" hidden="1">
+    <row r="317" spans="1:11">
       <c r="A317" s="80"/>
       <c r="B317" s="1" t="s">
         <v>126</v>
@@ -25314,7 +25308,7 @@
       <c r="J317" s="81"/>
       <c r="K317" s="81"/>
     </row>
-    <row r="318" spans="1:11" hidden="1">
+    <row r="318" spans="1:11">
       <c r="A318" s="80"/>
       <c r="B318" s="1" t="s">
         <v>129</v>
@@ -25335,7 +25329,7 @@
       <c r="J318" s="81"/>
       <c r="K318" s="81"/>
     </row>
-    <row r="319" spans="1:11" hidden="1">
+    <row r="319" spans="1:11">
       <c r="A319" s="80"/>
       <c r="B319" s="1" t="s">
         <v>129</v>
@@ -25356,7 +25350,7 @@
       <c r="J319" s="81"/>
       <c r="K319" s="81"/>
     </row>
-    <row r="320" spans="1:11" hidden="1">
+    <row r="320" spans="1:11">
       <c r="A320" s="80"/>
       <c r="B320" s="1" t="s">
         <v>129</v>
@@ -25377,7 +25371,7 @@
       <c r="J320" s="81"/>
       <c r="K320" s="81"/>
     </row>
-    <row r="321" spans="1:11" hidden="1">
+    <row r="321" spans="1:11">
       <c r="A321" s="80"/>
       <c r="B321" s="1" t="s">
         <v>129</v>
@@ -25398,7 +25392,7 @@
       <c r="J321" s="81"/>
       <c r="K321" s="81"/>
     </row>
-    <row r="322" spans="1:11" hidden="1">
+    <row r="322" spans="1:11">
       <c r="A322" s="80"/>
       <c r="B322" s="1" t="s">
         <v>129</v>
@@ -25419,7 +25413,7 @@
       <c r="J322" s="81"/>
       <c r="K322" s="81"/>
     </row>
-    <row r="323" spans="1:11" hidden="1">
+    <row r="323" spans="1:11">
       <c r="A323" s="80"/>
       <c r="B323" s="1" t="s">
         <v>129</v>
@@ -25440,7 +25434,7 @@
       <c r="J323" s="81"/>
       <c r="K323" s="81"/>
     </row>
-    <row r="324" spans="1:11" hidden="1">
+    <row r="324" spans="1:11">
       <c r="A324" s="80"/>
       <c r="B324" s="1" t="s">
         <v>129</v>
@@ -25461,7 +25455,7 @@
       <c r="J324" s="81"/>
       <c r="K324" s="81"/>
     </row>
-    <row r="325" spans="1:11" hidden="1">
+    <row r="325" spans="1:11">
       <c r="A325" s="80"/>
       <c r="B325" s="1" t="s">
         <v>129</v>
@@ -25482,7 +25476,7 @@
       <c r="J325" s="81"/>
       <c r="K325" s="81"/>
     </row>
-    <row r="326" spans="1:11" hidden="1">
+    <row r="326" spans="1:11">
       <c r="A326" s="80"/>
       <c r="B326" s="1" t="s">
         <v>129</v>
@@ -25503,7 +25497,7 @@
       <c r="J326" s="81"/>
       <c r="K326" s="81"/>
     </row>
-    <row r="327" spans="1:11" hidden="1">
+    <row r="327" spans="1:11">
       <c r="A327" s="80"/>
       <c r="B327" s="1" t="s">
         <v>129</v>
@@ -25524,7 +25518,7 @@
       <c r="J327" s="81"/>
       <c r="K327" s="81"/>
     </row>
-    <row r="328" spans="1:11" hidden="1">
+    <row r="328" spans="1:11">
       <c r="A328" s="80"/>
       <c r="B328" s="1" t="s">
         <v>129</v>
@@ -25545,7 +25539,7 @@
       <c r="J328" s="81"/>
       <c r="K328" s="81"/>
     </row>
-    <row r="329" spans="1:11" hidden="1">
+    <row r="329" spans="1:11">
       <c r="A329" s="80"/>
       <c r="B329" s="1" t="s">
         <v>129</v>
@@ -25566,7 +25560,7 @@
       <c r="J329" s="81"/>
       <c r="K329" s="81"/>
     </row>
-    <row r="330" spans="1:11" hidden="1">
+    <row r="330" spans="1:11">
       <c r="A330" s="80"/>
       <c r="B330" s="1" t="s">
         <v>129</v>
@@ -25587,7 +25581,7 @@
       <c r="J330" s="81"/>
       <c r="K330" s="81"/>
     </row>
-    <row r="331" spans="1:11" hidden="1">
+    <row r="331" spans="1:11">
       <c r="A331" s="80"/>
       <c r="B331" s="1" t="s">
         <v>129</v>
@@ -25608,7 +25602,7 @@
       <c r="J331" s="81"/>
       <c r="K331" s="81"/>
     </row>
-    <row r="332" spans="1:11" hidden="1">
+    <row r="332" spans="1:11">
       <c r="A332" s="80"/>
       <c r="B332" s="1" t="s">
         <v>129</v>
@@ -25629,7 +25623,7 @@
       <c r="J332" s="81"/>
       <c r="K332" s="81"/>
     </row>
-    <row r="333" spans="1:11" hidden="1">
+    <row r="333" spans="1:11">
       <c r="A333" s="80"/>
       <c r="B333" s="1" t="s">
         <v>129</v>
@@ -25650,7 +25644,7 @@
       <c r="J333" s="81"/>
       <c r="K333" s="81"/>
     </row>
-    <row r="334" spans="1:11" hidden="1">
+    <row r="334" spans="1:11">
       <c r="A334" s="80"/>
       <c r="B334" s="1" t="s">
         <v>129</v>
@@ -25671,7 +25665,7 @@
       <c r="J334" s="81"/>
       <c r="K334" s="81"/>
     </row>
-    <row r="335" spans="1:11" hidden="1">
+    <row r="335" spans="1:11">
       <c r="A335" s="80"/>
       <c r="B335" s="53" t="s">
         <v>110</v>
@@ -25692,7 +25686,7 @@
       <c r="J335" s="81"/>
       <c r="K335" s="81"/>
     </row>
-    <row r="336" spans="1:11" hidden="1">
+    <row r="336" spans="1:11">
       <c r="A336" s="80"/>
       <c r="B336" s="53" t="s">
         <v>110</v>
@@ -25713,7 +25707,7 @@
       <c r="J336" s="81"/>
       <c r="K336" s="81"/>
     </row>
-    <row r="337" spans="1:11" hidden="1">
+    <row r="337" spans="1:11">
       <c r="A337" s="80"/>
       <c r="B337" s="53" t="s">
         <v>110</v>
@@ -25734,7 +25728,7 @@
       <c r="J337" s="81"/>
       <c r="K337" s="81"/>
     </row>
-    <row r="338" spans="1:11" hidden="1">
+    <row r="338" spans="1:11">
       <c r="A338" s="80"/>
       <c r="B338" s="53" t="s">
         <v>110</v>
@@ -25755,7 +25749,7 @@
       <c r="J338" s="81"/>
       <c r="K338" s="81"/>
     </row>
-    <row r="339" spans="1:11" hidden="1">
+    <row r="339" spans="1:11">
       <c r="A339" s="80"/>
       <c r="B339" s="53" t="s">
         <v>110</v>
@@ -25776,7 +25770,7 @@
       <c r="J339" s="81"/>
       <c r="K339" s="81"/>
     </row>
-    <row r="340" spans="1:11" hidden="1">
+    <row r="340" spans="1:11">
       <c r="A340" s="80"/>
       <c r="B340" s="53" t="s">
         <v>110</v>
@@ -25797,7 +25791,7 @@
       <c r="J340" s="81"/>
       <c r="K340" s="81"/>
     </row>
-    <row r="341" spans="1:11" hidden="1">
+    <row r="341" spans="1:11">
       <c r="A341" s="80"/>
       <c r="B341" s="53" t="s">
         <v>110</v>
@@ -25818,7 +25812,7 @@
       <c r="J341" s="81"/>
       <c r="K341" s="81"/>
     </row>
-    <row r="342" spans="1:11" hidden="1">
+    <row r="342" spans="1:11">
       <c r="A342" s="80"/>
       <c r="B342" s="53" t="s">
         <v>110</v>
@@ -25839,7 +25833,7 @@
       <c r="J342" s="81"/>
       <c r="K342" s="81"/>
     </row>
-    <row r="343" spans="1:11" hidden="1">
+    <row r="343" spans="1:11">
       <c r="A343" s="80"/>
       <c r="B343" s="1" t="s">
         <v>119</v>
@@ -25860,7 +25854,7 @@
       <c r="J343" s="81"/>
       <c r="K343" s="81"/>
     </row>
-    <row r="344" spans="1:11" hidden="1">
+    <row r="344" spans="1:11">
       <c r="A344" s="80"/>
       <c r="B344" s="1" t="s">
         <v>119</v>
@@ -25881,7 +25875,7 @@
       <c r="J344" s="81"/>
       <c r="K344" s="81"/>
     </row>
-    <row r="345" spans="1:11" hidden="1">
+    <row r="345" spans="1:11">
       <c r="A345" s="80"/>
       <c r="B345" s="1" t="s">
         <v>119</v>
@@ -25902,7 +25896,7 @@
       <c r="J345" s="81"/>
       <c r="K345" s="81"/>
     </row>
-    <row r="346" spans="1:11" hidden="1">
+    <row r="346" spans="1:11">
       <c r="A346" s="80"/>
       <c r="B346" s="1" t="s">
         <v>119</v>
@@ -25923,7 +25917,7 @@
       <c r="J346" s="81"/>
       <c r="K346" s="81"/>
     </row>
-    <row r="347" spans="1:11" hidden="1">
+    <row r="347" spans="1:11">
       <c r="A347" s="80"/>
       <c r="B347" s="1" t="s">
         <v>119</v>
@@ -25944,7 +25938,7 @@
       <c r="J347" s="81"/>
       <c r="K347" s="81"/>
     </row>
-    <row r="348" spans="1:11" hidden="1">
+    <row r="348" spans="1:11">
       <c r="A348" s="80"/>
       <c r="B348" s="9" t="s">
         <v>124</v>
@@ -25965,7 +25959,7 @@
       <c r="J348" s="81"/>
       <c r="K348" s="81"/>
     </row>
-    <row r="349" spans="1:11" hidden="1">
+    <row r="349" spans="1:11">
       <c r="A349" s="80"/>
       <c r="B349" s="9" t="s">
         <v>124</v>
@@ -25986,7 +25980,7 @@
       <c r="J349" s="81"/>
       <c r="K349" s="81"/>
     </row>
-    <row r="350" spans="1:11" hidden="1">
+    <row r="350" spans="1:11">
       <c r="A350" s="80"/>
       <c r="B350" s="9" t="s">
         <v>124</v>
@@ -26007,7 +26001,7 @@
       <c r="J350" s="81"/>
       <c r="K350" s="81"/>
     </row>
-    <row r="351" spans="1:11" hidden="1">
+    <row r="351" spans="1:11">
       <c r="A351" s="80"/>
       <c r="B351" s="9" t="s">
         <v>124</v>
@@ -26028,7 +26022,7 @@
       <c r="J351" s="81"/>
       <c r="K351" s="81"/>
     </row>
-    <row r="352" spans="1:11" hidden="1">
+    <row r="352" spans="1:11">
       <c r="A352" s="80"/>
       <c r="B352" s="9" t="s">
         <v>124</v>
@@ -26049,7 +26043,7 @@
       <c r="J352" s="81"/>
       <c r="K352" s="81"/>
     </row>
-    <row r="353" spans="1:11" hidden="1">
+    <row r="353" spans="1:11">
       <c r="A353" s="80"/>
       <c r="B353" s="9" t="s">
         <v>124</v>
@@ -26070,7 +26064,7 @@
       <c r="J353" s="81"/>
       <c r="K353" s="81"/>
     </row>
-    <row r="354" spans="1:11" hidden="1">
+    <row r="354" spans="1:11">
       <c r="A354" s="80"/>
       <c r="B354" s="9" t="s">
         <v>124</v>
@@ -31937,8 +31931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
